--- a/xlsxdb/data.xlsx
+++ b/xlsxdb/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\Статьи\Бенчмаркинг\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15315" windowHeight="5295" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет кол-ва людей с ВО" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +672,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -842,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,7 +983,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -987,6 +992,9 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -999,12 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,6 +1023,17 @@
     <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -15535,11 +15548,11 @@
   </sheetPr>
   <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
-      <selection pane="bottomRight" activeCell="S87" sqref="S87"/>
+      <selection pane="bottomRight" activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15549,112 +15562,112 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67" t="s">
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
     </row>
     <row r="2" spans="1:35" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="62"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
       <c r="AB2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AC2" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="61" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
       <c r="AI2" s="16" t="s">
         <v>112</v>
       </c>
@@ -25673,11 +25686,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="O2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -25686,6 +25694,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -25700,10 +25713,10 @@
   <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="AH90" sqref="AH90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25714,112 +25727,112 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67" t="s">
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="62"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
       <c r="AB2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AC2" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="61" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
       <c r="AI2" s="16" t="s">
         <v>112</v>
       </c>
@@ -25982,8 +25995,8 @@
         <v>3.3097509196468731</v>
       </c>
       <c r="N4" s="16">
-        <f>('исходные данные'!N4)^(1/4)</f>
-        <v>1.6657993231786119</v>
+        <f>('исходные данные'!N4)^(1/3)</f>
+        <v>1.9746808222123666</v>
       </c>
       <c r="O4" s="16">
         <f>('исходные данные'!O4)^(1/4)</f>
@@ -26062,8 +26075,8 @@
         <v>2.0584714871454204</v>
       </c>
       <c r="AH4" s="16">
-        <f>('исходные данные'!AH4)^(1/4)</f>
-        <v>1.8869751777901695</v>
+        <f>('исходные данные'!AH4)^(1/3)</f>
+        <v>2.3317836334264292</v>
       </c>
       <c r="AI4" s="16">
         <f>'исходные данные'!AI4</f>
@@ -26122,9 +26135,9 @@
         <f>('исходные данные'!M5)^(1/4)</f>
         <v>3.0800702882410227</v>
       </c>
-      <c r="N5" s="16">
-        <f>('исходные данные'!N5)^(1/4)</f>
-        <v>1.4953487812212205</v>
+      <c r="N5" s="56">
+        <f>('исходные данные'!N5)^(1/3)</f>
+        <v>1.7099759466766968</v>
       </c>
       <c r="O5" s="16">
         <f>('исходные данные'!O5)^(1/4)</f>
@@ -26202,9 +26215,9 @@
         <f>('исходные данные'!AG5)^(1/4)</f>
         <v>1.9877598418644478</v>
       </c>
-      <c r="AH5" s="16">
-        <f>('исходные данные'!AH5)^(1/4)</f>
-        <v>1.7666654173166148</v>
+      <c r="AH5" s="56">
+        <f>('исходные данные'!AH5)^(1/3)</f>
+        <v>2.135694243195922</v>
       </c>
       <c r="AI5" s="16">
         <f>'исходные данные'!AI5</f>
@@ -26263,9 +26276,9 @@
         <f>('исходные данные'!M6)^(1/4)</f>
         <v>2.7831576837137404</v>
       </c>
-      <c r="N6" s="16">
-        <f>('исходные данные'!N6)^(1/4)</f>
-        <v>2.0154451623197245</v>
+      <c r="N6" s="56">
+        <f>('исходные данные'!N6)^(1/3)</f>
+        <v>2.5458216848297441</v>
       </c>
       <c r="O6" s="16">
         <f>('исходные данные'!O6)^(1/4)</f>
@@ -26343,9 +26356,9 @@
         <f>('исходные данные'!AG6)^(1/4)</f>
         <v>1.6460981359010842</v>
       </c>
-      <c r="AH6" s="16">
-        <f>('исходные данные'!AH6)^(1/4)</f>
-        <v>1.7347058394904924</v>
+      <c r="AH6" s="56">
+        <f>('исходные данные'!AH6)^(1/3)</f>
+        <v>2.0843362767598275</v>
       </c>
       <c r="AI6" s="16">
         <f>'исходные данные'!AI6</f>
@@ -26404,9 +26417,9 @@
         <f>('исходные данные'!M7)^(1/4)</f>
         <v>2.4828237961983883</v>
       </c>
-      <c r="N7" s="16">
-        <f>('исходные данные'!N7)^(1/4)</f>
-        <v>1.7602234735867868</v>
+      <c r="N7" s="56">
+        <f>('исходные данные'!N7)^(1/3)</f>
+        <v>2.1253171383652223</v>
       </c>
       <c r="O7" s="16">
         <f>('исходные данные'!O7)^(1/4)</f>
@@ -26484,9 +26497,9 @@
         <f>('исходные данные'!AG7)^(1/4)</f>
         <v>2.5705012210964466</v>
       </c>
-      <c r="AH7" s="16">
-        <f>('исходные данные'!AH7)^(1/4)</f>
-        <v>2.0442443793979654</v>
+      <c r="AH7" s="56">
+        <f>('исходные данные'!AH7)^(1/3)</f>
+        <v>2.5944407067283666</v>
       </c>
       <c r="AI7" s="16">
         <f>'исходные данные'!AI7</f>
@@ -26545,9 +26558,9 @@
         <f>('исходные данные'!M8)^(1/4)</f>
         <v>3.2010858729436791</v>
       </c>
-      <c r="N8" s="16">
-        <f>('исходные данные'!N8)^(1/4)</f>
-        <v>1.876529608701073</v>
+      <c r="N8" s="56">
+        <f>('исходные данные'!N8)^(1/3)</f>
+        <v>2.3145890545258756</v>
       </c>
       <c r="O8" s="16">
         <f>('исходные данные'!O8)^(1/4)</f>
@@ -26625,9 +26638,9 @@
         <f>('исходные данные'!AG8)^(1/4)</f>
         <v>1.3253518016869257</v>
       </c>
-      <c r="AH8" s="16">
-        <f>('исходные данные'!AH8)^(1/4)</f>
-        <v>1.5333647538219091</v>
+      <c r="AH8" s="56">
+        <f>('исходные данные'!AH8)^(1/3)</f>
+        <v>1.7681833701520109</v>
       </c>
       <c r="AI8" s="16">
         <f>'исходные данные'!AI8</f>
@@ -26686,9 +26699,9 @@
         <f>('исходные данные'!M9)^(1/4)</f>
         <v>2.4322992790977871</v>
       </c>
-      <c r="N9" s="16">
-        <f>('исходные данные'!N9)^(1/4)</f>
-        <v>1.1066819197003217</v>
+      <c r="N9" s="56">
+        <f>('исходные данные'!N9)^(1/3)</f>
+        <v>1.1447142425533319</v>
       </c>
       <c r="O9" s="16">
         <f>('исходные данные'!O9)^(1/4)</f>
@@ -26766,9 +26779,9 @@
         <f>('исходные данные'!AG9)^(1/4)</f>
         <v>1.9976653656709407</v>
       </c>
-      <c r="AH9" s="16">
-        <f>('исходные данные'!AH9)^(1/4)</f>
-        <v>1.6372677524362078</v>
+      <c r="AH9" s="56">
+        <f>('исходные данные'!AH9)^(1/3)</f>
+        <v>1.9297139841489785</v>
       </c>
       <c r="AI9" s="16">
         <f>'исходные данные'!AI9</f>
@@ -26827,9 +26840,9 @@
         <f>('исходные данные'!M10)^(1/4)</f>
         <v>2.2581008643532257</v>
       </c>
-      <c r="N10" s="16">
-        <f>('исходные данные'!N10)^(1/4)</f>
-        <v>1.337480609952844</v>
+      <c r="N10" s="56">
+        <f>('исходные данные'!N10)^(1/3)</f>
+        <v>1.4736125994561546</v>
       </c>
       <c r="O10" s="16">
         <f>('исходные данные'!O10)^(1/4)</f>
@@ -26907,9 +26920,9 @@
         <f>('исходные данные'!AG10)^(1/4)</f>
         <v>2.9068657480589946</v>
       </c>
-      <c r="AH10" s="16">
-        <f>('исходные данные'!AH10)^(1/4)</f>
-        <v>1.9982399040930687</v>
+      <c r="AH10" s="56">
+        <f>('исходные данные'!AH10)^(1/3)</f>
+        <v>2.5168857577147112</v>
       </c>
       <c r="AI10" s="16">
         <f>'исходные данные'!AI10</f>
@@ -26968,9 +26981,9 @@
         <f>('исходные данные'!M11)^(1/4)</f>
         <v>2.2360679774997898</v>
       </c>
-      <c r="N11" s="16">
-        <f>('исходные данные'!N11)^(1/4)</f>
-        <v>1.158292185288269</v>
+      <c r="N11" s="56">
+        <f>('исходные данные'!N11)^(1/3)</f>
+        <v>1.2164403991146799</v>
       </c>
       <c r="O11" s="16">
         <f>('исходные данные'!O11)^(1/4)</f>
@@ -27048,9 +27061,9 @@
         <f>('исходные данные'!AG11)^(1/4)</f>
         <v>1.7273422403862044</v>
       </c>
-      <c r="AH11" s="16">
-        <f>('исходные данные'!AH11)^(1/4)</f>
-        <v>1.9940254692725365</v>
+      <c r="AH11" s="56">
+        <f>('исходные данные'!AH11)^(1/3)</f>
+        <v>2.5098105173980128</v>
       </c>
       <c r="AI11" s="16">
         <f>'исходные данные'!AI11</f>
@@ -27109,9 +27122,9 @@
         <f>('исходные данные'!M12)^(1/4)</f>
         <v>2.9027831081870996</v>
       </c>
-      <c r="N12" s="16">
-        <f>('исходные данные'!N12)^(1/4)</f>
-        <v>1.5779670210741878</v>
+      <c r="N12" s="56">
+        <f>('исходные данные'!N12)^(1/3)</f>
+        <v>1.8370905500142276</v>
       </c>
       <c r="O12" s="16">
         <f>('исходные данные'!O12)^(1/4)</f>
@@ -27189,9 +27202,9 @@
         <f>('исходные данные'!AG12)^(1/4)</f>
         <v>1.7498177557902916</v>
       </c>
-      <c r="AH12" s="16">
-        <f>('исходные данные'!AH12)^(1/4)</f>
-        <v>1.8457859354069857</v>
+      <c r="AH12" s="56">
+        <f>('исходные данные'!AH12)^(1/3)</f>
+        <v>2.2641669317279711</v>
       </c>
       <c r="AI12" s="16">
         <f>'исходные данные'!AI12</f>
@@ -27250,9 +27263,9 @@
         <f>('исходные данные'!M13)^(1/4)</f>
         <v>1.8612097182041991</v>
       </c>
-      <c r="N13" s="16">
-        <f>('исходные данные'!N13)^(1/4)</f>
-        <v>1.8727347872429874</v>
+      <c r="N13" s="56">
+        <f>('исходные данные'!N13)^(1/3)</f>
+        <v>2.3083502397536089</v>
       </c>
       <c r="O13" s="16">
         <f>('исходные данные'!O13)^(1/4)</f>
@@ -27330,9 +27343,9 @@
         <f>('исходные данные'!AG13)^(1/4)</f>
         <v>1.6841155538049744</v>
       </c>
-      <c r="AH13" s="16">
-        <f>('исходные данные'!AH13)^(1/4)</f>
-        <v>1.848564428818992</v>
+      <c r="AH13" s="56">
+        <f>('исходные данные'!AH13)^(1/3)</f>
+        <v>2.2687124575288289</v>
       </c>
       <c r="AI13" s="16">
         <f>'исходные данные'!AI13</f>
@@ -27391,9 +27404,9 @@
         <f>('исходные данные'!M14)^(1/4)</f>
         <v>4.7545040867491775</v>
       </c>
-      <c r="N14" s="16">
-        <f>('исходные данные'!N14)^(1/4)</f>
-        <v>1.9238895770455096</v>
+      <c r="N14" s="56">
+        <f>('исходные данные'!N14)^(1/3)</f>
+        <v>2.3928025107131377</v>
       </c>
       <c r="O14" s="16">
         <f>('исходные данные'!O14)^(1/4)</f>
@@ -27471,9 +27484,9 @@
         <f>('исходные данные'!AG14)^(1/4)</f>
         <v>1.8367677588176072</v>
       </c>
-      <c r="AH14" s="16">
-        <f>('исходные данные'!AH14)^(1/4)</f>
-        <v>2.3725653546172927</v>
+      <c r="AH14" s="56">
+        <f>('исходные данные'!AH14)^(1/3)</f>
+        <v>3.1643966234978431</v>
       </c>
       <c r="AI14" s="16">
         <f>'исходные данные'!AI14</f>
@@ -27532,9 +27545,9 @@
         <f>('исходные данные'!M15)^(1/4)</f>
         <v>2.3205957871060838</v>
       </c>
-      <c r="N15" s="16">
-        <f>('исходные данные'!N15)^(1/4)</f>
-        <v>0.97400374642529675</v>
+      <c r="N15" s="56">
+        <f>('исходные данные'!N15)^(1/3)</f>
+        <v>0.96548938460562972</v>
       </c>
       <c r="O15" s="16">
         <f>('исходные данные'!O15)^(1/4)</f>
@@ -27612,9 +27625,9 @@
         <f>('исходные данные'!AG15)^(1/4)</f>
         <v>1.9767600966271277</v>
       </c>
-      <c r="AH15" s="16">
-        <f>('исходные данные'!AH15)^(1/4)</f>
-        <v>2.1218742800653594</v>
+      <c r="AH15" s="56">
+        <f>('исходные данные'!AH15)^(1/3)</f>
+        <v>2.7266299333088546</v>
       </c>
       <c r="AI15" s="16">
         <f>'исходные данные'!AI15</f>
@@ -27673,9 +27686,9 @@
         <f>('исходные данные'!M16)^(1/4)</f>
         <v>3.0628143136087864</v>
       </c>
-      <c r="N16" s="16">
-        <f>('исходные данные'!N16)^(1/4)</f>
-        <v>1.3677823998673806</v>
+      <c r="N16" s="56">
+        <f>('исходные данные'!N16)^(1/3)</f>
+        <v>1.5182944859378313</v>
       </c>
       <c r="O16" s="16">
         <f>('исходные данные'!O16)^(1/4)</f>
@@ -27753,9 +27766,9 @@
         <f>('исходные данные'!AG16)^(1/4)</f>
         <v>1.6609073006615374</v>
       </c>
-      <c r="AH16" s="16">
-        <f>('исходные данные'!AH16)^(1/4)</f>
-        <v>2.0381185141564386</v>
+      <c r="AH16" s="56">
+        <f>('исходные данные'!AH16)^(1/3)</f>
+        <v>2.5840797464203042</v>
       </c>
       <c r="AI16" s="16">
         <f>'исходные данные'!AI16</f>
@@ -27814,9 +27827,9 @@
         <f>('исходные данные'!M17)^(1/4)</f>
         <v>1.778279410038923</v>
       </c>
-      <c r="N17" s="16">
-        <f>('исходные данные'!N17)^(1/4)</f>
-        <v>1.2818610191887023</v>
+      <c r="N17" s="56">
+        <f>('исходные данные'!N17)^(1/3)</f>
+        <v>1.3924766500838337</v>
       </c>
       <c r="O17" s="16">
         <f>('исходные данные'!O17)^(1/4)</f>
@@ -27894,9 +27907,9 @@
         <f>('исходные данные'!AG17)^(1/4)</f>
         <v>1.8278333130098359</v>
       </c>
-      <c r="AH17" s="16">
-        <f>('исходные данные'!AH17)^(1/4)</f>
-        <v>1.9478720028485326</v>
+      <c r="AH17" s="56">
+        <f>('исходные данные'!AH17)^(1/3)</f>
+        <v>2.4326551815727693</v>
       </c>
       <c r="AI17" s="16">
         <f>'исходные данные'!AI17</f>
@@ -27955,9 +27968,9 @@
         <f>('исходные данные'!M18)^(1/4)</f>
         <v>1.9343364202676692</v>
       </c>
-      <c r="N18" s="16">
-        <f>('исходные данные'!N18)^(1/4)</f>
-        <v>1.5715654001808814</v>
+      <c r="N18" s="56">
+        <f>('исходные данные'!N18)^(1/3)</f>
+        <v>1.8271601368635204</v>
       </c>
       <c r="O18" s="16">
         <f>('исходные данные'!O18)^(1/4)</f>
@@ -28035,9 +28048,9 @@
         <f>('исходные данные'!AG18)^(1/4)</f>
         <v>1.3511036577412658</v>
       </c>
-      <c r="AH18" s="16">
-        <f>('исходные данные'!AH18)^(1/4)</f>
-        <v>1.6124499599226643</v>
+      <c r="AH18" s="56">
+        <f>('исходные данные'!AH18)^(1/3)</f>
+        <v>1.890811903625496</v>
       </c>
       <c r="AI18" s="16">
         <f>'исходные данные'!AI18</f>
@@ -28096,9 +28109,9 @@
         <f>('исходные данные'!M19)^(1/4)</f>
         <v>2.9027831081870996</v>
       </c>
-      <c r="N19" s="16">
-        <f>('исходные данные'!N19)^(1/4)</f>
-        <v>1.5172912992053529</v>
+      <c r="N19" s="56">
+        <f>('исходные данные'!N19)^(1/3)</f>
+        <v>1.7435134012651281</v>
       </c>
       <c r="O19" s="16">
         <f>('исходные данные'!O19)^(1/4)</f>
@@ -28176,9 +28189,9 @@
         <f>('исходные данные'!AG19)^(1/4)</f>
         <v>1.4881921401359353</v>
       </c>
-      <c r="AH19" s="16">
-        <f>('исходные данные'!AH19)^(1/4)</f>
-        <v>1.9860401430419672</v>
+      <c r="AH19" s="56">
+        <f>('исходные данные'!AH19)^(1/3)</f>
+        <v>2.4964183332043821</v>
       </c>
       <c r="AI19" s="16">
         <f>'исходные данные'!AI19</f>
@@ -28237,9 +28250,9 @@
         <f>('исходные данные'!M20)^(1/4)</f>
         <v>2.5900200641113513</v>
       </c>
-      <c r="N20" s="16">
-        <f>('исходные данные'!N20)^(1/4)</f>
-        <v>1.876529608701073</v>
+      <c r="N20" s="56">
+        <f>('исходные данные'!N20)^(1/3)</f>
+        <v>2.3145890545258756</v>
       </c>
       <c r="O20" s="16">
         <f>('исходные данные'!O20)^(1/4)</f>
@@ -28317,9 +28330,9 @@
         <f>('исходные данные'!AG20)^(1/4)</f>
         <v>1.446774705197617</v>
       </c>
-      <c r="AH20" s="16">
-        <f>('исходные данные'!AH20)^(1/4)</f>
-        <v>1.7552902181723367</v>
+      <c r="AH20" s="56">
+        <f>('исходные данные'!AH20)^(1/3)</f>
+        <v>2.1173788798333901</v>
       </c>
       <c r="AI20" s="16">
         <f>'исходные данные'!AI20</f>
@@ -28378,9 +28391,9 @@
         <f>('исходные данные'!M21)^(1/4)</f>
         <v>3.0000000000000004</v>
       </c>
-      <c r="N21" s="16">
-        <f>('исходные данные'!N21)^(1/4)</f>
-        <v>1.6265765616977856</v>
+      <c r="N21" s="56">
+        <f>('исходные данные'!N21)^(1/3)</f>
+        <v>1.9129311827723889</v>
       </c>
       <c r="O21" s="16">
         <f>('исходные данные'!O21)^(1/4)</f>
@@ -28458,9 +28471,9 @@
         <f>('исходные данные'!AG21)^(1/4)</f>
         <v>2.0085347250192842</v>
       </c>
-      <c r="AH21" s="16">
-        <f>('исходные данные'!AH21)^(1/4)</f>
-        <v>2.3725371402773319</v>
+      <c r="AH21" s="56">
+        <f>('исходные данные'!AH21)^(1/3)</f>
+        <v>3.1643464492929589</v>
       </c>
       <c r="AI21" s="16">
         <f>'исходные данные'!AI21</f>
@@ -28519,9 +28532,9 @@
         <f>('исходные данные'!M22)^(1/4)</f>
         <v>6.6160514853255616</v>
       </c>
-      <c r="N22" s="16">
-        <f>('исходные данные'!N22)^(1/4)</f>
-        <v>2.0335227133295235</v>
+      <c r="N22" s="56">
+        <f>('исходные данные'!N22)^(1/3)</f>
+        <v>2.5763134657051983</v>
       </c>
       <c r="O22" s="16">
         <f>('исходные данные'!O22)^(1/4)</f>
@@ -28599,9 +28612,9 @@
         <f>('исходные данные'!AG22)^(1/4)</f>
         <v>2.5647317976206749</v>
       </c>
-      <c r="AH22" s="16">
-        <f>('исходные данные'!AH22)^(1/4)</f>
-        <v>3.4868811816393128</v>
+      <c r="AH22" s="56">
+        <f>('исходные данные'!AH22)^(1/3)</f>
+        <v>5.2874896658914192</v>
       </c>
       <c r="AI22" s="16">
         <f>'исходные данные'!AI22</f>
@@ -28660,9 +28673,9 @@
         <f>('исходные данные'!M23)^(1/4)</f>
         <v>2.359611061770567</v>
       </c>
-      <c r="N23" s="16">
-        <f>('исходные данные'!N23)^(1/4)</f>
-        <v>0.66874030497642201</v>
+      <c r="N23" s="56">
+        <f>('исходные данные'!N23)^(1/3)</f>
+        <v>0.58480354764257325</v>
       </c>
       <c r="O23" s="16">
         <f>('исходные данные'!O23)^(1/4)</f>
@@ -28740,9 +28753,9 @@
         <f>('исходные данные'!AG23)^(1/4)</f>
         <v>2.8403905697139318</v>
       </c>
-      <c r="AH23" s="16">
-        <f>('исходные данные'!AH23)^(1/4)</f>
-        <v>2.1979177261210117</v>
+      <c r="AH23" s="56">
+        <f>('исходные данные'!AH23)^(1/3)</f>
+        <v>2.8576908360118667</v>
       </c>
       <c r="AI23" s="16">
         <f>'исходные данные'!AI23</f>
@@ -28801,9 +28814,9 @@
         <f>('исходные данные'!M24)^(1/4)</f>
         <v>1.6265765616977856</v>
       </c>
-      <c r="N24" s="16">
-        <f>('исходные данные'!N24)^(1/4)</f>
-        <v>1.3478094125129469</v>
+      <c r="N24" s="56">
+        <f>('исходные данные'!N24)^(1/3)</f>
+        <v>1.4888055529538273</v>
       </c>
       <c r="O24" s="16">
         <f>('исходные данные'!O24)^(1/4)</f>
@@ -28881,9 +28894,9 @@
         <f>('исходные данные'!AG24)^(1/4)</f>
         <v>1.7850893078291112</v>
       </c>
-      <c r="AH24" s="16">
-        <f>('исходные данные'!AH24)^(1/4)</f>
-        <v>2.1042990347620454</v>
+      <c r="AH24" s="56">
+        <f>('исходные данные'!AH24)^(1/3)</f>
+        <v>2.6965590889371924</v>
       </c>
       <c r="AI24" s="16">
         <f>'исходные данные'!AI24</f>
@@ -28942,9 +28955,9 @@
         <f>('исходные данные'!M25)^(1/4)</f>
         <v>2.2581008643532257</v>
       </c>
-      <c r="N25" s="16">
-        <f>('исходные данные'!N25)^(1/4)</f>
-        <v>1.4564753151219703</v>
+      <c r="N25" s="56">
+        <f>('исходные данные'!N25)^(1/3)</f>
+        <v>1.6509636244473134</v>
       </c>
       <c r="O25" s="16">
         <f>('исходные данные'!O25)^(1/4)</f>
@@ -29022,9 +29035,9 @@
         <f>('исходные данные'!AG25)^(1/4)</f>
         <v>2.2428626694974358</v>
       </c>
-      <c r="AH25" s="16">
-        <f>('исходные данные'!AH25)^(1/4)</f>
-        <v>2.6254560080931819</v>
+      <c r="AH25" s="56">
+        <f>('исходные данные'!AH25)^(1/3)</f>
+        <v>3.6219267336181518</v>
       </c>
       <c r="AI25" s="16">
         <f>'исходные данные'!AI25</f>
@@ -29083,8 +29096,8 @@
         <f>('исходные данные'!M26)^(1/4)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="16">
-        <f>('исходные данные'!N26)^(1/4)</f>
+      <c r="N26" s="56">
+        <f>('исходные данные'!N26)^(1/3)</f>
         <v>0</v>
       </c>
       <c r="O26" s="16">
@@ -29163,9 +29176,9 @@
         <f>('исходные данные'!AG26)^(1/4)</f>
         <v>1.6168293476705564</v>
       </c>
-      <c r="AH26" s="16">
-        <f>('исходные данные'!AH26)^(1/4)</f>
-        <v>2.5304746806491396</v>
+      <c r="AH26" s="56">
+        <f>('исходные данные'!AH26)^(1/3)</f>
+        <v>3.4482810986226862</v>
       </c>
       <c r="AI26" s="16">
         <f>'исходные данные'!AI26</f>
@@ -29224,9 +29237,9 @@
         <f>('исходные данные'!M27)^(1/4)</f>
         <v>2.3784142300054421</v>
       </c>
-      <c r="N27" s="16">
-        <f>('исходные данные'!N27)^(1/4)</f>
-        <v>2.1558246717785052</v>
+      <c r="N27" s="56">
+        <f>('исходные данные'!N27)^(1/3)</f>
+        <v>2.784953300167667</v>
       </c>
       <c r="O27" s="16">
         <f>('исходные данные'!O27)^(1/4)</f>
@@ -29304,9 +29317,9 @@
         <f>('исходные данные'!AG27)^(1/4)</f>
         <v>2.35931139656407</v>
       </c>
-      <c r="AH27" s="16">
-        <f>('исходные данные'!AH27)^(1/4)</f>
-        <v>2.4712930194263039</v>
+      <c r="AH27" s="56">
+        <f>('исходные данные'!AH27)^(1/3)</f>
+        <v>3.3411732054143934</v>
       </c>
       <c r="AI27" s="16">
         <f>'исходные данные'!AI27</f>
@@ -29365,9 +29378,9 @@
         <f>('исходные данные'!M28)^(1/4)</f>
         <v>2.0305431848689306</v>
       </c>
-      <c r="N28" s="16">
-        <f>('исходные данные'!N28)^(1/4)</f>
-        <v>0.79527072876705063</v>
+      <c r="N28" s="56">
+        <f>('исходные данные'!N28)^(1/3)</f>
+        <v>0.73680629972807732</v>
       </c>
       <c r="O28" s="16">
         <f>('исходные данные'!O28)^(1/4)</f>
@@ -29445,9 +29458,9 @@
         <f>('исходные данные'!AG28)^(1/4)</f>
         <v>1.8684427597563422</v>
       </c>
-      <c r="AH28" s="16">
-        <f>('исходные данные'!AH28)^(1/4)</f>
-        <v>2.4861095696072848</v>
+      <c r="AH28" s="56">
+        <f>('исходные данные'!AH28)^(1/3)</f>
+        <v>3.3679090404991583</v>
       </c>
       <c r="AI28" s="16">
         <f>'исходные данные'!AI28</f>
@@ -29506,9 +29519,9 @@
         <f>('исходные данные'!M29)^(1/4)</f>
         <v>2.4989993994393833</v>
       </c>
-      <c r="N29" s="16">
-        <f>('исходные данные'!N29)^(1/4)</f>
-        <v>1.189207115002721</v>
+      <c r="N29" s="56">
+        <f>('исходные данные'!N29)^(1/3)</f>
+        <v>1.2599210498948732</v>
       </c>
       <c r="O29" s="16">
         <f>('исходные данные'!O29)^(1/4)</f>
@@ -29586,9 +29599,9 @@
         <f>('исходные данные'!AG29)^(1/4)</f>
         <v>1.3075823679374785</v>
       </c>
-      <c r="AH29" s="16">
-        <f>('исходные данные'!AH29)^(1/4)</f>
-        <v>1.6182968078748399</v>
+      <c r="AH29" s="56">
+        <f>('исходные данные'!AH29)^(1/3)</f>
+        <v>1.8999590323678375</v>
       </c>
       <c r="AI29" s="16">
         <f>'исходные данные'!AI29</f>
@@ -29647,9 +29660,9 @@
         <f>('исходные данные'!M30)^(1/4)</f>
         <v>2.087797629929844</v>
       </c>
-      <c r="N30" s="16">
-        <f>('исходные данные'!N30)^(1/4)</f>
-        <v>1.1418583454354265</v>
+      <c r="N30" s="56">
+        <f>('исходные данные'!N30)^(1/3)</f>
+        <v>1.193483191927337</v>
       </c>
       <c r="O30" s="16">
         <f>('исходные данные'!O30)^(1/4)</f>
@@ -29727,9 +29740,9 @@
         <f>('исходные данные'!AG30)^(1/4)</f>
         <v>1.3719039449565056</v>
       </c>
-      <c r="AH30" s="16">
-        <f>('исходные данные'!AH30)^(1/4)</f>
-        <v>2.051474892043295</v>
+      <c r="AH30" s="56">
+        <f>('исходные данные'!AH30)^(1/3)</f>
+        <v>2.6066833305485928</v>
       </c>
       <c r="AI30" s="16">
         <f>'исходные данные'!AI30</f>
@@ -29788,9 +29801,9 @@
         <f>('исходные данные'!M31)^(1/4)</f>
         <v>2.1657367706679937</v>
       </c>
-      <c r="N31" s="16">
-        <f>('исходные данные'!N31)^(1/4)</f>
-        <v>1.4052906339306293</v>
+      <c r="N31" s="56">
+        <f>('исходные данные'!N31)^(1/3)</f>
+        <v>1.5740609166314434</v>
       </c>
       <c r="O31" s="16">
         <f>('исходные данные'!O31)^(1/4)</f>
@@ -29868,9 +29881,9 @@
         <f>('исходные данные'!AG31)^(1/4)</f>
         <v>2.5417977588341714</v>
       </c>
-      <c r="AH31" s="16">
-        <f>('исходные данные'!AH31)^(1/4)</f>
-        <v>2.0878734756204627</v>
+      <c r="AH31" s="56">
+        <f>('исходные данные'!AH31)^(1/3)</f>
+        <v>2.6685309000685136</v>
       </c>
       <c r="AI31" s="16">
         <f>'исходные данные'!AI31</f>
@@ -29929,9 +29942,9 @@
         <f>('исходные данные'!M32)^(1/4)</f>
         <v>2.1147425268811282</v>
       </c>
-      <c r="N32" s="16">
-        <f>('исходные данные'!N32)^(1/4)</f>
-        <v>1.0241136890844451</v>
+      <c r="N32" s="56">
+        <f>('исходные данные'!N32)^(1/3)</f>
+        <v>1.0322801154563672</v>
       </c>
       <c r="O32" s="16">
         <f>('исходные данные'!O32)^(1/4)</f>
@@ -30009,9 +30022,9 @@
         <f>('исходные данные'!AG32)^(1/4)</f>
         <v>2.0356607723015956</v>
       </c>
-      <c r="AH32" s="16">
-        <f>('исходные данные'!AH32)^(1/4)</f>
-        <v>2.4316539641758848</v>
+      <c r="AH32" s="56">
+        <f>('исходные данные'!AH32)^(1/3)</f>
+        <v>3.2699092296851928</v>
       </c>
       <c r="AI32" s="16">
         <f>'исходные данные'!AI32</f>
@@ -30070,9 +30083,9 @@
         <f>('исходные данные'!M33)^(1/4)</f>
         <v>5.3915567053956934</v>
       </c>
-      <c r="N33" s="16">
-        <f>('исходные данные'!N33)^(1/4)</f>
-        <v>1.6437308834542408</v>
+      <c r="N33" s="56">
+        <f>('исходные данные'!N33)^(1/3)</f>
+        <v>1.939877414580333</v>
       </c>
       <c r="O33" s="16">
         <f>('исходные данные'!O33)^(1/4)</f>
@@ -30150,9 +30163,9 @@
         <f>('исходные данные'!AG33)^(1/4)</f>
         <v>2.1872411926893491</v>
       </c>
-      <c r="AH33" s="16">
-        <f>('исходные данные'!AH33)^(1/4)</f>
-        <v>2.519880904179217</v>
+      <c r="AH33" s="56">
+        <f>('исходные данные'!AH33)^(1/3)</f>
+        <v>3.4290463377598663</v>
       </c>
       <c r="AI33" s="16">
         <f>'исходные данные'!AI33</f>
@@ -30211,9 +30224,9 @@
         <f>('исходные данные'!M34)^(1/4)</f>
         <v>1.4142135623730949</v>
       </c>
-      <c r="N34" s="16">
-        <f>('исходные данные'!N34)^(1/4)</f>
-        <v>1.800102871839254</v>
+      <c r="N34" s="56">
+        <f>('исходные данные'!N34)^(1/3)</f>
+        <v>2.1897595699439445</v>
       </c>
       <c r="O34" s="16">
         <f>('исходные данные'!O34)^(1/4)</f>
@@ -30291,9 +30304,9 @@
         <f>('исходные данные'!AG34)^(1/4)</f>
         <v>1.3929893359281325</v>
       </c>
-      <c r="AH34" s="16">
-        <f>('исходные данные'!AH34)^(1/4)</f>
-        <v>1.4857345800122352</v>
+      <c r="AH34" s="56">
+        <f>('исходные данные'!AH34)^(1/3)</f>
+        <v>1.6953328425309644</v>
       </c>
       <c r="AI34" s="16">
         <f>'исходные данные'!AI34</f>
@@ -30352,9 +30365,9 @@
         <f>('исходные данные'!M35)^(1/4)</f>
         <v>1</v>
       </c>
-      <c r="N35" s="16">
-        <f>('исходные данные'!N35)^(1/4)</f>
-        <v>0.88011173679339338</v>
+      <c r="N35" s="56">
+        <f>('исходные данные'!N35)^(1/3)</f>
+        <v>0.84343266530174921</v>
       </c>
       <c r="O35" s="16">
         <f>('исходные данные'!O35)^(1/4)</f>
@@ -30432,9 +30445,9 @@
         <f>('исходные данные'!AG35)^(1/4)</f>
         <v>1.4694765018012956</v>
       </c>
-      <c r="AH35" s="16">
-        <f>('исходные данные'!AH35)^(1/4)</f>
-        <v>1.7640778570786606</v>
+      <c r="AH35" s="56">
+        <f>('исходные данные'!AH35)^(1/3)</f>
+        <v>2.1315245134117102</v>
       </c>
       <c r="AI35" s="16">
         <f>'исходные данные'!AI35</f>
@@ -30493,8 +30506,8 @@
         <f>('исходные данные'!M36)^(1/4)</f>
         <v>3.4336316230125203</v>
       </c>
-      <c r="N36" s="16">
-        <f>('исходные данные'!N36)^(1/4)</f>
+      <c r="N36" s="56">
+        <f>('исходные данные'!N36)^(1/3)</f>
         <v>1</v>
       </c>
       <c r="O36" s="16">
@@ -30573,9 +30586,9 @@
         <f>('исходные данные'!AG36)^(1/4)</f>
         <v>2.4423730462758497</v>
       </c>
-      <c r="AH36" s="16">
-        <f>('исходные данные'!AH36)^(1/4)</f>
-        <v>2.3694616869726515</v>
+      <c r="AH36" s="56">
+        <f>('исходные данные'!AH36)^(1/3)</f>
+        <v>3.158878493230977</v>
       </c>
       <c r="AI36" s="16">
         <f>'исходные данные'!AI36</f>
@@ -30634,9 +30647,9 @@
         <f>('исходные данные'!M37)^(1/4)</f>
         <v>2.4322992790977871</v>
       </c>
-      <c r="N37" s="16">
-        <f>('исходные данные'!N37)^(1/4)</f>
-        <v>1.5243982444638442</v>
+      <c r="N37" s="56">
+        <f>('исходные данные'!N37)^(1/3)</f>
+        <v>1.7544106429277195</v>
       </c>
       <c r="O37" s="16">
         <f>('исходные данные'!O37)^(1/4)</f>
@@ -30714,9 +30727,9 @@
         <f>('исходные данные'!AG37)^(1/4)</f>
         <v>2.4314289398082383</v>
       </c>
-      <c r="AH37" s="16">
-        <f>('исходные данные'!AH37)^(1/4)</f>
-        <v>1.8127889837220101</v>
+      <c r="AH37" s="56">
+        <f>('исходные данные'!AH37)^(1/3)</f>
+        <v>2.2103599578237669</v>
       </c>
       <c r="AI37" s="16">
         <f>'исходные данные'!AI37</f>
@@ -30775,9 +30788,9 @@
         <f>('исходные данные'!M38)^(1/4)</f>
         <v>3.5894426763392011</v>
       </c>
-      <c r="N38" s="16">
-        <f>('исходные данные'!N38)^(1/4)</f>
-        <v>1.2574334296829355</v>
+      <c r="N38" s="56">
+        <f>('исходные данные'!N38)^(1/3)</f>
+        <v>1.3572088082974534</v>
       </c>
       <c r="O38" s="16">
         <f>('исходные данные'!O38)^(1/4)</f>
@@ -30855,9 +30868,9 @@
         <f>('исходные данные'!AG38)^(1/4)</f>
         <v>2.0331151612473368</v>
       </c>
-      <c r="AH38" s="16">
-        <f>('исходные данные'!AH38)^(1/4)</f>
-        <v>1.8769877376503252</v>
+      <c r="AH38" s="56">
+        <f>('исходные данные'!AH38)^(1/3)</f>
+        <v>2.3153425187152727</v>
       </c>
       <c r="AI38" s="16">
         <f>'исходные данные'!AI38</f>
@@ -30916,9 +30929,9 @@
         <f>('исходные данные'!M39)^(1/4)</f>
         <v>3.5840246342157203</v>
       </c>
-      <c r="N39" s="16">
-        <f>('исходные данные'!N39)^(1/4)</f>
-        <v>1.9446166923683976</v>
+      <c r="N39" s="56">
+        <f>('исходные данные'!N39)^(1/3)</f>
+        <v>2.4272360429169444</v>
       </c>
       <c r="O39" s="16">
         <f>('исходные данные'!O39)^(1/4)</f>
@@ -30996,9 +31009,9 @@
         <f>('исходные данные'!AG39)^(1/4)</f>
         <v>1.8645691843761274</v>
       </c>
-      <c r="AH39" s="16">
-        <f>('исходные данные'!AH39)^(1/4)</f>
-        <v>2.181869746171341</v>
+      <c r="AH39" s="56">
+        <f>('исходные данные'!AH39)^(1/3)</f>
+        <v>2.8299043747489381</v>
       </c>
       <c r="AI39" s="16">
         <f>'исходные данные'!AI39</f>
@@ -31057,9 +31070,9 @@
         <f>('исходные данные'!M40)^(1/4)</f>
         <v>1.9343364202676692</v>
       </c>
-      <c r="N40" s="16">
-        <f>('исходные данные'!N40)^(1/4)</f>
-        <v>0.88011173679339338</v>
+      <c r="N40" s="56">
+        <f>('исходные данные'!N40)^(1/3)</f>
+        <v>0.84343266530174921</v>
       </c>
       <c r="O40" s="16">
         <f>('исходные данные'!O40)^(1/4)</f>
@@ -31137,9 +31150,9 @@
         <f>('исходные данные'!AG40)^(1/4)</f>
         <v>0.63810987725332524</v>
       </c>
-      <c r="AH40" s="16">
-        <f>('исходные данные'!AH40)^(1/4)</f>
-        <v>1.2918818225169273</v>
+      <c r="AH40" s="56">
+        <f>('исходные данные'!AH40)^(1/3)</f>
+        <v>1.4070095656393804</v>
       </c>
       <c r="AI40" s="16">
         <f>'исходные данные'!AI40</f>
@@ -31198,9 +31211,9 @@
         <f>('исходные данные'!M41)^(1/4)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="16">
-        <f>('исходные данные'!N41)^(1/4)</f>
-        <v>0.56234132519034907</v>
+      <c r="N41" s="56">
+        <f>('исходные данные'!N41)^(1/3)</f>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O41" s="16">
         <f>('исходные данные'!O41)^(1/4)</f>
@@ -31278,8 +31291,8 @@
         <f>('исходные данные'!AG41)^(1/4)</f>
         <v>0</v>
       </c>
-      <c r="AH41" s="16">
-        <f>('исходные данные'!AH41)^(1/4)</f>
+      <c r="AH41" s="56">
+        <f>('исходные данные'!AH41)^(1/3)</f>
         <v>0</v>
       </c>
       <c r="AI41" s="16">
@@ -31339,9 +31352,9 @@
         <f>('исходные данные'!M42)^(1/4)</f>
         <v>1.6265765616977856</v>
       </c>
-      <c r="N42" s="16">
-        <f>('исходные данные'!N42)^(1/4)</f>
-        <v>1.4229707211083644</v>
+      <c r="N42" s="56">
+        <f>('исходные данные'!N42)^(1/3)</f>
+        <v>1.6005206638831553</v>
       </c>
       <c r="O42" s="16">
         <f>('исходные данные'!O42)^(1/4)</f>
@@ -31419,9 +31432,9 @@
         <f>('исходные данные'!AG42)^(1/4)</f>
         <v>1.2638736676602254</v>
       </c>
-      <c r="AH42" s="16">
-        <f>('исходные данные'!AH42)^(1/4)</f>
-        <v>1.4489182895885686</v>
+      <c r="AH42" s="56">
+        <f>('исходные данные'!AH42)^(1/3)</f>
+        <v>1.6395519901856441</v>
       </c>
       <c r="AI42" s="16">
         <f>'исходные данные'!AI42</f>
@@ -31480,9 +31493,9 @@
         <f>('исходные данные'!M43)^(1/4)</f>
         <v>1.6265765616977856</v>
       </c>
-      <c r="N43" s="16">
-        <f>('исходные данные'!N43)^(1/4)</f>
-        <v>0.56234132519034907</v>
+      <c r="N43" s="56">
+        <f>('исходные данные'!N43)^(1/3)</f>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O43" s="16">
         <f>('исходные данные'!O43)^(1/4)</f>
@@ -31560,9 +31573,9 @@
         <f>('исходные данные'!AG43)^(1/4)</f>
         <v>0</v>
       </c>
-      <c r="AH43" s="16">
-        <f>('исходные данные'!AH43)^(1/4)</f>
-        <v>1.3381591264674211</v>
+      <c r="AH43" s="56">
+        <f>('исходные данные'!AH43)^(1/3)</f>
+        <v>1.4746094537990333</v>
       </c>
       <c r="AI43" s="16">
         <f>'исходные данные'!AI43</f>
@@ -31621,9 +31634,9 @@
         <f>('исходные данные'!M44)^(1/4)</f>
         <v>2.3003266337912058</v>
       </c>
-      <c r="N44" s="16">
-        <f>('исходные данные'!N44)^(1/4)</f>
-        <v>0.56234132519034907</v>
+      <c r="N44" s="56">
+        <f>('исходные данные'!N44)^(1/3)</f>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O44" s="16">
         <f>('исходные данные'!O44)^(1/4)</f>
@@ -31701,9 +31714,9 @@
         <f>('исходные данные'!AG44)^(1/4)</f>
         <v>1.2467097117051078</v>
       </c>
-      <c r="AH44" s="16">
-        <f>('исходные данные'!AH44)^(1/4)</f>
-        <v>1.6487467335819532</v>
+      <c r="AH44" s="56">
+        <f>('исходные данные'!AH44)^(1/3)</f>
+        <v>1.9477741489453604</v>
       </c>
       <c r="AI44" s="16">
         <f>'исходные данные'!AI44</f>
@@ -31762,9 +31775,9 @@
         <f>('исходные данные'!M45)^(1/4)</f>
         <v>1.6265765616977856</v>
       </c>
-      <c r="N45" s="16">
-        <f>('исходные данные'!N45)^(1/4)</f>
-        <v>0.66874030497642201</v>
+      <c r="N45" s="56">
+        <f>('исходные данные'!N45)^(1/3)</f>
+        <v>0.58480354764257325</v>
       </c>
       <c r="O45" s="16">
         <f>('исходные данные'!O45)^(1/4)</f>
@@ -31842,9 +31855,9 @@
         <f>('исходные данные'!AG45)^(1/4)</f>
         <v>0.77385791959499084</v>
       </c>
-      <c r="AH45" s="16">
-        <f>('исходные данные'!AH45)^(1/4)</f>
-        <v>1.1796676540950468</v>
+      <c r="AH45" s="56">
+        <f>('исходные данные'!AH45)^(1/3)</f>
+        <v>1.2464634893014315</v>
       </c>
       <c r="AI45" s="16">
         <f>'исходные данные'!AI45</f>
@@ -31903,9 +31916,9 @@
         <f>('исходные данные'!M46)^(1/4)</f>
         <v>2.7596690210718942</v>
       </c>
-      <c r="N46" s="16">
-        <f>('исходные данные'!N46)^(1/4)</f>
-        <v>1.9168293127388174</v>
+      <c r="N46" s="56">
+        <f>('исходные данные'!N46)^(1/3)</f>
+        <v>2.381101577952299</v>
       </c>
       <c r="O46" s="16">
         <f>('исходные данные'!O46)^(1/4)</f>
@@ -31983,9 +31996,9 @@
         <f>('исходные данные'!AG46)^(1/4)</f>
         <v>1.5854106980563427</v>
       </c>
-      <c r="AH46" s="16">
-        <f>('исходные данные'!AH46)^(1/4)</f>
-        <v>1.8412486258858123</v>
+      <c r="AH46" s="56">
+        <f>('исходные данные'!AH46)^(1/3)</f>
+        <v>2.2567489426470759</v>
       </c>
       <c r="AI46" s="16">
         <f>'исходные данные'!AI46</f>
@@ -32044,9 +32057,9 @@
         <f>('исходные данные'!M47)^(1/4)</f>
         <v>3.697944608992588</v>
       </c>
-      <c r="N47" s="16">
-        <f>('исходные данные'!N47)^(1/4)</f>
-        <v>1.808614233815278</v>
+      <c r="N47" s="56">
+        <f>('исходные данные'!N47)^(1/3)</f>
+        <v>2.2035754532216254</v>
       </c>
       <c r="O47" s="16">
         <f>('исходные данные'!O47)^(1/4)</f>
@@ -32124,9 +32137,9 @@
         <f>('исходные данные'!AG47)^(1/4)</f>
         <v>1.7964433297371631</v>
       </c>
-      <c r="AH47" s="16">
-        <f>('исходные данные'!AH47)^(1/4)</f>
-        <v>1.7868334813921878</v>
+      <c r="AH47" s="56">
+        <f>('исходные данные'!AH47)^(1/3)</f>
+        <v>2.1682637483971963</v>
       </c>
       <c r="AI47" s="16">
         <f>'исходные данные'!AI47</f>
@@ -32185,9 +32198,9 @@
         <f>('исходные данные'!M48)^(1/4)</f>
         <v>2.4494897427831779</v>
       </c>
-      <c r="N48" s="16">
-        <f>('исходные данные'!N48)^(1/4)</f>
-        <v>1.7415941483654049</v>
+      <c r="N48" s="56">
+        <f>('исходные данные'!N48)^(1/3)</f>
+        <v>2.0953791063432945</v>
       </c>
       <c r="O48" s="16">
         <f>('исходные данные'!O48)^(1/4)</f>
@@ -32265,9 +32278,9 @@
         <f>('исходные данные'!AG48)^(1/4)</f>
         <v>1.4580594189469931</v>
       </c>
-      <c r="AH48" s="16">
-        <f>('исходные данные'!AH48)^(1/4)</f>
-        <v>2.2146534911287854</v>
+      <c r="AH48" s="56">
+        <f>('исходные данные'!AH48)^(1/3)</f>
+        <v>2.8867402907540112</v>
       </c>
       <c r="AI48" s="16">
         <f>'исходные данные'!AI48</f>
@@ -32326,9 +32339,9 @@
         <f>('исходные данные'!M49)^(1/4)</f>
         <v>2.1657367706679937</v>
       </c>
-      <c r="N49" s="16">
-        <f>('исходные данные'!N49)^(1/4)</f>
-        <v>2.2795070569547775</v>
+      <c r="N49" s="56">
+        <f>('исходные данные'!N49)^(1/3)</f>
+        <v>2.9999999999999996</v>
       </c>
       <c r="O49" s="16">
         <f>('исходные данные'!O49)^(1/4)</f>
@@ -32406,9 +32419,9 @@
         <f>('исходные данные'!AG49)^(1/4)</f>
         <v>1.8806507745192289</v>
       </c>
-      <c r="AH49" s="16">
-        <f>('исходные данные'!AH49)^(1/4)</f>
-        <v>1.8012854672918399</v>
+      <c r="AH49" s="56">
+        <f>('исходные данные'!AH49)^(1/3)</f>
+        <v>2.1916778923188689</v>
       </c>
       <c r="AI49" s="16">
         <f>'исходные данные'!AI49</f>
@@ -32467,9 +32480,9 @@
         <f>('исходные данные'!M50)^(1/4)</f>
         <v>4.4209524183926776</v>
       </c>
-      <c r="N50" s="16">
-        <f>('исходные данные'!N50)^(1/4)</f>
-        <v>2.1252378493369832</v>
+      <c r="N50" s="56">
+        <f>('исходные данные'!N50)^(1/3)</f>
+        <v>2.732394416094468</v>
       </c>
       <c r="O50" s="16">
         <f>('исходные данные'!O50)^(1/4)</f>
@@ -32547,9 +32560,9 @@
         <f>('исходные данные'!AG50)^(1/4)</f>
         <v>2.605167559587318</v>
       </c>
-      <c r="AH50" s="16">
-        <f>('исходные данные'!AH50)^(1/4)</f>
-        <v>2.6015050065147753</v>
+      <c r="AH50" s="56">
+        <f>('исходные данные'!AH50)^(1/3)</f>
+        <v>3.5779386373672861</v>
       </c>
       <c r="AI50" s="16">
         <f>'исходные данные'!AI50</f>
@@ -32608,9 +32621,9 @@
         <f>('исходные данные'!M51)^(1/4)</f>
         <v>2.882121417102006</v>
       </c>
-      <c r="N51" s="16">
-        <f>('исходные данные'!N51)^(1/4)</f>
-        <v>1.4142135623730949</v>
+      <c r="N51" s="56">
+        <f>('исходные данные'!N51)^(1/3)</f>
+        <v>1.5874010519681994</v>
       </c>
       <c r="O51" s="16">
         <f>('исходные данные'!O51)^(1/4)</f>
@@ -32688,9 +32701,9 @@
         <f>('исходные данные'!AG51)^(1/4)</f>
         <v>1.9710523637821153</v>
       </c>
-      <c r="AH51" s="16">
-        <f>('исходные данные'!AH51)^(1/4)</f>
-        <v>2.0980997117158107</v>
+      <c r="AH51" s="56">
+        <f>('исходные данные'!AH51)^(1/3)</f>
+        <v>2.6859721098031595</v>
       </c>
       <c r="AI51" s="16">
         <f>'исходные данные'!AI51</f>
@@ -32749,9 +32762,9 @@
         <f>('исходные данные'!M52)^(1/4)</f>
         <v>2.4494897427831779</v>
       </c>
-      <c r="N52" s="16">
-        <f>('исходные данные'!N52)^(1/4)</f>
-        <v>1.8689167555872028</v>
+      <c r="N52" s="56">
+        <f>('исходные данные'!N52)^(1/3)</f>
+        <v>2.3020775179631467</v>
       </c>
       <c r="O52" s="16">
         <f>('исходные данные'!O52)^(1/4)</f>
@@ -32829,9 +32842,9 @@
         <f>('исходные данные'!AG52)^(1/4)</f>
         <v>1.7190900566368559</v>
       </c>
-      <c r="AH52" s="16">
-        <f>('исходные данные'!AH52)^(1/4)</f>
-        <v>1.7110754325244857</v>
+      <c r="AH52" s="56">
+        <f>('исходные данные'!AH52)^(1/3)</f>
+        <v>2.0465649924997424</v>
       </c>
       <c r="AI52" s="16">
         <f>'исходные данные'!AI52</f>
@@ -32890,9 +32903,9 @@
         <f>('исходные данные'!M53)^(1/4)</f>
         <v>2.6591479484724942</v>
       </c>
-      <c r="N53" s="16">
-        <f>('исходные данные'!N53)^(1/4)</f>
-        <v>1.4801656089845705</v>
+      <c r="N53" s="56">
+        <f>('исходные данные'!N53)^(1/3)</f>
+        <v>1.6868653306034984</v>
       </c>
       <c r="O53" s="16">
         <f>('исходные данные'!O53)^(1/4)</f>
@@ -32970,9 +32983,9 @@
         <f>('исходные данные'!AG53)^(1/4)</f>
         <v>2.1817751502907732</v>
       </c>
-      <c r="AH53" s="16">
-        <f>('исходные данные'!AH53)^(1/4)</f>
-        <v>2.040651242209246</v>
+      <c r="AH53" s="56">
+        <f>('исходные данные'!AH53)^(1/3)</f>
+        <v>2.5883622101100094</v>
       </c>
       <c r="AI53" s="16">
         <f>'исходные данные'!AI53</f>
@@ -33031,9 +33044,9 @@
         <f>('исходные данные'!M54)^(1/4)</f>
         <v>3.6526242708669518</v>
       </c>
-      <c r="N54" s="16">
-        <f>('исходные данные'!N54)^(1/4)</f>
-        <v>1.9937204876487471</v>
+      <c r="N54" s="56">
+        <f>('исходные данные'!N54)^(1/3)</f>
+        <v>2.5092987040930996</v>
       </c>
       <c r="O54" s="16">
         <f>('исходные данные'!O54)^(1/4)</f>
@@ -33111,9 +33124,9 @@
         <f>('исходные данные'!AG54)^(1/4)</f>
         <v>2.3793847929934073</v>
       </c>
-      <c r="AH54" s="16">
-        <f>('исходные данные'!AH54)^(1/4)</f>
-        <v>2.6104602096558289</v>
+      <c r="AH54" s="56">
+        <f>('исходные данные'!AH54)^(1/3)</f>
+        <v>3.5943699137966831</v>
       </c>
       <c r="AI54" s="16">
         <f>'исходные данные'!AI54</f>
@@ -33172,9 +33185,9 @@
         <f>('исходные данные'!M55)^(1/4)</f>
         <v>2.0305431848689306</v>
       </c>
-      <c r="N55" s="16">
-        <f>('исходные данные'!N55)^(1/4)</f>
-        <v>1.2178832856309068</v>
+      <c r="N55" s="56">
+        <f>('исходные данные'!N55)^(1/3)</f>
+        <v>1.3005914468513871</v>
       </c>
       <c r="O55" s="16">
         <f>('исходные данные'!O55)^(1/4)</f>
@@ -33252,9 +33265,9 @@
         <f>('исходные данные'!AG55)^(1/4)</f>
         <v>1.5758209897824711</v>
       </c>
-      <c r="AH55" s="16">
-        <f>('исходные данные'!AH55)^(1/4)</f>
-        <v>1.6881434837553073</v>
+      <c r="AH55" s="56">
+        <f>('исходные данные'!AH55)^(1/3)</f>
+        <v>2.0100759881001018</v>
       </c>
       <c r="AI55" s="16">
         <f>'исходные данные'!AI55</f>
@@ -33313,9 +33326,9 @@
         <f>('исходные данные'!M56)^(1/4)</f>
         <v>2.4828237961983883</v>
       </c>
-      <c r="N56" s="16">
-        <f>('исходные данные'!N56)^(1/4)</f>
-        <v>1.7074764851741444</v>
+      <c r="N56" s="56">
+        <f>('исходные данные'!N56)^(1/3)</f>
+        <v>2.040827550958674</v>
       </c>
       <c r="O56" s="16">
         <f>('исходные данные'!O56)^(1/4)</f>
@@ -33393,9 +33406,9 @@
         <f>('исходные данные'!AG56)^(1/4)</f>
         <v>1.2312934921914986</v>
       </c>
-      <c r="AH56" s="16">
-        <f>('исходные данные'!AH56)^(1/4)</f>
-        <v>1.7270959753333603</v>
+      <c r="AH56" s="56">
+        <f>('исходные данные'!AH56)^(1/3)</f>
+        <v>2.0721536866685049</v>
       </c>
       <c r="AI56" s="16">
         <f>'исходные данные'!AI56</f>
@@ -33454,9 +33467,9 @@
         <f>('исходные данные'!M57)^(1/4)</f>
         <v>4.1302205884470604</v>
       </c>
-      <c r="N57" s="16">
-        <f>('исходные данные'!N57)^(1/4)</f>
-        <v>2.0905393267485861</v>
+      <c r="N57" s="56">
+        <f>('исходные данные'!N57)^(1/3)</f>
+        <v>2.6730748660601886</v>
       </c>
       <c r="O57" s="16">
         <f>('исходные данные'!O57)^(1/4)</f>
@@ -33534,9 +33547,9 @@
         <f>('исходные данные'!AG57)^(1/4)</f>
         <v>2.1292687200037506</v>
       </c>
-      <c r="AH57" s="16">
-        <f>('исходные данные'!AH57)^(1/4)</f>
-        <v>1.8864297153805196</v>
+      <c r="AH57" s="56">
+        <f>('исходные данные'!AH57)^(1/3)</f>
+        <v>2.3308849542047239</v>
       </c>
       <c r="AI57" s="16">
         <f>'исходные данные'!AI57</f>
@@ -33595,9 +33608,9 @@
         <f>('исходные данные'!M58)^(1/4)</f>
         <v>3.2603904386951346</v>
       </c>
-      <c r="N58" s="16">
-        <f>('исходные данные'!N58)^(1/4)</f>
-        <v>1.5451431251708252</v>
+      <c r="N58" s="56">
+        <f>('исходные данные'!N58)^(1/3)</f>
+        <v>1.7863159877080566</v>
       </c>
       <c r="O58" s="16">
         <f>('исходные данные'!O58)^(1/4)</f>
@@ -33675,9 +33688,9 @@
         <f>('исходные данные'!AG58)^(1/4)</f>
         <v>1.6901810848596692</v>
       </c>
-      <c r="AH58" s="16">
-        <f>('исходные данные'!AH58)^(1/4)</f>
-        <v>1.6646294335853107</v>
+      <c r="AH58" s="56">
+        <f>('исходные данные'!AH58)^(1/3)</f>
+        <v>1.9728319495693618</v>
       </c>
       <c r="AI58" s="16">
         <f>'исходные данные'!AI58</f>
@@ -33736,9 +33749,9 @@
         <f>('исходные данные'!M59)^(1/4)</f>
         <v>3.356996822992933</v>
       </c>
-      <c r="N59" s="16">
-        <f>('исходные данные'!N59)^(1/4)</f>
-        <v>1.9060903506699229</v>
+      <c r="N59" s="56">
+        <f>('исходные данные'!N59)^(1/3)</f>
+        <v>2.3633315009350024</v>
       </c>
       <c r="O59" s="16">
         <f>('исходные данные'!O59)^(1/4)</f>
@@ -33816,9 +33829,9 @@
         <f>('исходные данные'!AG59)^(1/4)</f>
         <v>1.5881329797994224</v>
       </c>
-      <c r="AH59" s="16">
-        <f>('исходные данные'!AH59)^(1/4)</f>
-        <v>1.9766950512971948</v>
+      <c r="AH59" s="56">
+        <f>('исходные данные'!AH59)^(1/3)</f>
+        <v>2.4807684691733574</v>
       </c>
       <c r="AI59" s="16">
         <f>'исходные данные'!AI59</f>
@@ -33877,9 +33890,9 @@
         <f>('исходные данные'!M60)^(1/4)</f>
         <v>2.2795070569547775</v>
       </c>
-      <c r="N60" s="16">
-        <f>('исходные данные'!N60)^(1/4)</f>
-        <v>1.3774493079968597</v>
+      <c r="N60" s="56">
+        <f>('исходные данные'!N60)^(1/3)</f>
+        <v>1.5326188647871062</v>
       </c>
       <c r="O60" s="16">
         <f>('исходные данные'!O60)^(1/4)</f>
@@ -33957,9 +33970,9 @@
         <f>('исходные данные'!AG60)^(1/4)</f>
         <v>1.7976138569020272</v>
       </c>
-      <c r="AH60" s="16">
-        <f>('исходные данные'!AH60)^(1/4)</f>
-        <v>1.9782412917094747</v>
+      <c r="AH60" s="56">
+        <f>('исходные данные'!AH60)^(1/3)</f>
+        <v>2.4833561989380679</v>
       </c>
       <c r="AI60" s="16">
         <f>'исходные данные'!AI60</f>
@@ -34018,9 +34031,9 @@
         <f>('исходные данные'!M61)^(1/4)</f>
         <v>4.0422932400270257</v>
       </c>
-      <c r="N61" s="16">
-        <f>('исходные данные'!N61)^(1/4)</f>
-        <v>1.6437308834542408</v>
+      <c r="N61" s="56">
+        <f>('исходные данные'!N61)^(1/3)</f>
+        <v>1.939877414580333</v>
       </c>
       <c r="O61" s="16">
         <f>('исходные данные'!O61)^(1/4)</f>
@@ -34098,9 +34111,9 @@
         <f>('исходные данные'!AG61)^(1/4)</f>
         <v>2.0263233125015292</v>
       </c>
-      <c r="AH61" s="16">
-        <f>('исходные данные'!AH61)^(1/4)</f>
-        <v>2.9695374383984281</v>
+      <c r="AH61" s="56">
+        <f>('исходные данные'!AH61)^(1/3)</f>
+        <v>4.2682685849186521</v>
       </c>
       <c r="AI61" s="16">
         <f>'исходные данные'!AI61</f>
@@ -34159,9 +34172,9 @@
         <f>('исходные данные'!M62)^(1/4)</f>
         <v>3.1463462836457889</v>
       </c>
-      <c r="N62" s="16">
-        <f>('исходные данные'!N62)^(1/4)</f>
-        <v>1.3160740129524926</v>
+      <c r="N62" s="56">
+        <f>('исходные данные'!N62)^(1/3)</f>
+        <v>1.4422495703074083</v>
       </c>
       <c r="O62" s="16">
         <f>('исходные данные'!O62)^(1/4)</f>
@@ -34239,9 +34252,9 @@
         <f>('исходные данные'!AG62)^(1/4)</f>
         <v>2.2457661691197752</v>
       </c>
-      <c r="AH62" s="16">
-        <f>('исходные данные'!AH62)^(1/4)</f>
-        <v>2.3276681975229812</v>
+      <c r="AH62" s="56">
+        <f>('исходные данные'!AH62)^(1/3)</f>
+        <v>3.0848077070677862</v>
       </c>
       <c r="AI62" s="16">
         <f>'исходные данные'!AI62</f>
@@ -34300,9 +34313,9 @@
         <f>('исходные данные'!M63)^(1/4)</f>
         <v>2.0597671439071177</v>
       </c>
-      <c r="N63" s="16">
-        <f>('исходные данные'!N63)^(1/4)</f>
-        <v>0.74008280449228525</v>
+      <c r="N63" s="56">
+        <f>('исходные данные'!N63)^(1/3)</f>
+        <v>0.66943295008216952</v>
       </c>
       <c r="O63" s="16">
         <f>('исходные данные'!O63)^(1/4)</f>
@@ -34380,9 +34393,9 @@
         <f>('исходные данные'!AG63)^(1/4)</f>
         <v>1.5462766445176297</v>
       </c>
-      <c r="AH63" s="16">
-        <f>('исходные данные'!AH63)^(1/4)</f>
-        <v>2.127049111435257</v>
+      <c r="AH63" s="56">
+        <f>('исходные данные'!AH63)^(1/3)</f>
+        <v>2.7354998161472666</v>
       </c>
       <c r="AI63" s="16">
         <f>'исходные данные'!AI63</f>
@@ -34441,9 +34454,9 @@
         <f>('исходные данные'!M64)^(1/4)</f>
         <v>1.8988289221159418</v>
       </c>
-      <c r="N64" s="16">
-        <f>('исходные данные'!N64)^(1/4)</f>
-        <v>0.66874030497642201</v>
+      <c r="N64" s="56">
+        <f>('исходные данные'!N64)^(1/3)</f>
+        <v>0.58480354764257325</v>
       </c>
       <c r="O64" s="16">
         <f>('исходные данные'!O64)^(1/4)</f>
@@ -34521,9 +34534,9 @@
         <f>('исходные данные'!AG64)^(1/4)</f>
         <v>1.6745830002893354</v>
       </c>
-      <c r="AH64" s="16">
-        <f>('исходные данные'!AH64)^(1/4)</f>
-        <v>2.0031753543820243</v>
+      <c r="AH64" s="56">
+        <f>('исходные данные'!AH64)^(1/3)</f>
+        <v>2.5251777719085675</v>
       </c>
       <c r="AI64" s="16">
         <f>'исходные данные'!AI64</f>
@@ -34582,9 +34595,9 @@
         <f>('исходные данные'!M65)^(1/4)</f>
         <v>3.8686728405353383</v>
       </c>
-      <c r="N65" s="16">
-        <f>('исходные данные'!N65)^(1/4)</f>
-        <v>1.5100830606950983</v>
+      <c r="N65" s="56">
+        <f>('исходные данные'!N65)^(1/3)</f>
+        <v>1.7324782106818055</v>
       </c>
       <c r="O65" s="16">
         <f>('исходные данные'!O65)^(1/4)</f>
@@ -34662,9 +34675,9 @@
         <f>('исходные данные'!AG65)^(1/4)</f>
         <v>1.9222870955918314</v>
       </c>
-      <c r="AH65" s="16">
-        <f>('исходные данные'!AH65)^(1/4)</f>
-        <v>2.2112744140097758</v>
+      <c r="AH65" s="56">
+        <f>('исходные данные'!AH65)^(1/3)</f>
+        <v>2.8808690717913077</v>
       </c>
       <c r="AI65" s="16">
         <f>'исходные данные'!AI65</f>
@@ -34723,9 +34736,9 @@
         <f>('исходные данные'!M66)^(1/4)</f>
         <v>1.4142135623730949</v>
       </c>
-      <c r="N66" s="16">
-        <f>('исходные данные'!N66)^(1/4)</f>
-        <v>0.56234132519034907</v>
+      <c r="N66" s="56">
+        <f>('исходные данные'!N66)^(1/3)</f>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O66" s="16">
         <f>('исходные данные'!O66)^(1/4)</f>
@@ -34803,9 +34816,9 @@
         <f>('исходные данные'!AG66)^(1/4)</f>
         <v>2.75514750174868</v>
       </c>
-      <c r="AH66" s="16">
-        <f>('исходные данные'!AH66)^(1/4)</f>
-        <v>1.2346160950369269</v>
+      <c r="AH66" s="56">
+        <f>('исходные данные'!AH66)^(1/3)</f>
+        <v>1.3244713826961996</v>
       </c>
       <c r="AI66" s="16">
         <f>'исходные данные'!AI66</f>
@@ -34864,9 +34877,9 @@
         <f>('исходные данные'!M67)^(1/4)</f>
         <v>1.7320508075688774</v>
       </c>
-      <c r="N67" s="16">
-        <f>('исходные данные'!N67)^(1/4)</f>
-        <v>1.158292185288269</v>
+      <c r="N67" s="56">
+        <f>('исходные данные'!N67)^(1/3)</f>
+        <v>1.2164403991146799</v>
       </c>
       <c r="O67" s="16">
         <f>('исходные данные'!O67)^(1/4)</f>
@@ -34944,9 +34957,9 @@
         <f>('исходные данные'!AG67)^(1/4)</f>
         <v>1.7446138346265172</v>
       </c>
-      <c r="AH67" s="16">
-        <f>('исходные данные'!AH67)^(1/4)</f>
-        <v>2.0860139098626314</v>
+      <c r="AH67" s="56">
+        <f>('исходные данные'!AH67)^(1/3)</f>
+        <v>2.6653623990498421</v>
       </c>
       <c r="AI67" s="16">
         <f>'исходные данные'!AI67</f>
@@ -35005,9 +35018,9 @@
         <f>('исходные данные'!M68)^(1/4)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="16">
-        <f>('исходные данные'!N68)^(1/4)</f>
-        <v>0.56234132519034907</v>
+      <c r="N68" s="56">
+        <f>('исходные данные'!N68)^(1/3)</f>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O68" s="16">
         <f>('исходные данные'!O68)^(1/4)</f>
@@ -35085,9 +35098,9 @@
         <f>('исходные данные'!AG68)^(1/4)</f>
         <v>0.98740668924146424</v>
       </c>
-      <c r="AH68" s="16">
-        <f>('исходные данные'!AH68)^(1/4)</f>
-        <v>1.3663561712387753</v>
+      <c r="AH68" s="56">
+        <f>('исходные данные'!AH68)^(1/3)</f>
+        <v>1.5161839566139821</v>
       </c>
       <c r="AI68" s="16">
         <f>'исходные данные'!AI68</f>
@@ -35146,9 +35159,9 @@
         <f>('исходные данные'!M69)^(1/4)</f>
         <v>1.681792830507429</v>
       </c>
-      <c r="N69" s="16">
-        <f>('исходные данные'!N69)^(1/4)</f>
-        <v>0.56234132519034907</v>
+      <c r="N69" s="56">
+        <f>('исходные данные'!N69)^(1/3)</f>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O69" s="16">
         <f>('исходные данные'!O69)^(1/4)</f>
@@ -35226,9 +35239,9 @@
         <f>('исходные данные'!AG69)^(1/4)</f>
         <v>1.8654139163946839</v>
       </c>
-      <c r="AH69" s="16">
-        <f>('исходные данные'!AH69)^(1/4)</f>
-        <v>1.8796005952391028</v>
+      <c r="AH69" s="56">
+        <f>('исходные данные'!AH69)^(1/3)</f>
+        <v>2.3196409402660834</v>
       </c>
       <c r="AI69" s="16">
         <f>'исходные данные'!AI69</f>
@@ -35287,9 +35300,9 @@
         <f>('исходные данные'!M70)^(1/4)</f>
         <v>2.7476962050544724</v>
       </c>
-      <c r="N70" s="16">
-        <f>('исходные данные'!N70)^(1/4)</f>
-        <v>1.4052906339306293</v>
+      <c r="N70" s="56">
+        <f>('исходные данные'!N70)^(1/3)</f>
+        <v>1.5740609166314434</v>
       </c>
       <c r="O70" s="16">
         <f>('исходные данные'!O70)^(1/4)</f>
@@ -35367,9 +35380,9 @@
         <f>('исходные данные'!AG70)^(1/4)</f>
         <v>1.7694789016929042</v>
       </c>
-      <c r="AH70" s="16">
-        <f>('исходные данные'!AH70)^(1/4)</f>
-        <v>1.8238761553660563</v>
+      <c r="AH70" s="56">
+        <f>('исходные данные'!AH70)^(1/3)</f>
+        <v>2.2284033060455242</v>
       </c>
       <c r="AI70" s="16">
         <f>'исходные данные'!AI70</f>
@@ -35428,9 +35441,9 @@
         <f>('исходные данные'!M71)^(1/4)</f>
         <v>1.3160740129524926</v>
       </c>
-      <c r="N71" s="16">
-        <f>('исходные данные'!N71)^(1/4)</f>
-        <v>1.7272193775068816</v>
+      <c r="N71" s="56">
+        <f>('исходные данные'!N71)^(1/3)</f>
+        <v>2.072351098059261</v>
       </c>
       <c r="O71" s="16">
         <f>('исходные данные'!O71)^(1/4)</f>
@@ -35508,9 +35521,9 @@
         <f>('исходные данные'!AG71)^(1/4)</f>
         <v>1.6329224771604762</v>
       </c>
-      <c r="AH71" s="16">
-        <f>('исходные данные'!AH71)^(1/4)</f>
-        <v>3.0057714296711224</v>
+      <c r="AH71" s="56">
+        <f>('исходные данные'!AH71)^(1/3)</f>
+        <v>4.3378507239063158</v>
       </c>
       <c r="AI71" s="16">
         <f>'исходные данные'!AI71</f>
@@ -35569,9 +35582,9 @@
         <f>('исходные данные'!M72)^(1/4)</f>
         <v>3.1857325005549697</v>
       </c>
-      <c r="N72" s="16">
-        <f>('исходные данные'!N72)^(1/4)</f>
-        <v>1.4142135623730949</v>
+      <c r="N72" s="56">
+        <f>('исходные данные'!N72)^(1/3)</f>
+        <v>1.5874010519681994</v>
       </c>
       <c r="O72" s="16">
         <f>('исходные данные'!O72)^(1/4)</f>
@@ -35649,9 +35662,9 @@
         <f>('исходные данные'!AG72)^(1/4)</f>
         <v>1.5489343090005292</v>
       </c>
-      <c r="AH72" s="16">
-        <f>('исходные данные'!AH72)^(1/4)</f>
-        <v>2.2300960695124492</v>
+      <c r="AH72" s="56">
+        <f>('исходные данные'!AH72)^(1/3)</f>
+        <v>2.9136100715538626</v>
       </c>
       <c r="AI72" s="16">
         <f>'исходные данные'!AI72</f>
@@ -35710,9 +35723,9 @@
         <f>('исходные данные'!M73)^(1/4)</f>
         <v>2.871621711025901</v>
       </c>
-      <c r="N73" s="16">
-        <f>('исходные данные'!N73)^(1/4)</f>
-        <v>1.3049669101523762</v>
+      <c r="N73" s="56">
+        <f>('исходные данные'!N73)^(1/3)</f>
+        <v>1.4260431471424087</v>
       </c>
       <c r="O73" s="16">
         <f>('исходные данные'!O73)^(1/4)</f>
@@ -35790,9 +35803,9 @@
         <f>('исходные данные'!AG73)^(1/4)</f>
         <v>1.4902406624261639</v>
       </c>
-      <c r="AH73" s="16">
-        <f>('исходные данные'!AH73)^(1/4)</f>
-        <v>2.3829480153543634</v>
+      <c r="AH73" s="56">
+        <f>('исходные данные'!AH73)^(1/3)</f>
+        <v>3.1828738362880347</v>
       </c>
       <c r="AI73" s="16">
         <f>'исходные данные'!AI73</f>
@@ -35851,9 +35864,9 @@
         <f>('исходные данные'!M74)^(1/4)</f>
         <v>2.9525917237371893</v>
       </c>
-      <c r="N74" s="16">
-        <f>('исходные данные'!N74)^(1/4)</f>
-        <v>1.3049669101523762</v>
+      <c r="N74" s="56">
+        <f>('исходные данные'!N74)^(1/3)</f>
+        <v>1.4260431471424087</v>
       </c>
       <c r="O74" s="16">
         <f>('исходные данные'!O74)^(1/4)</f>
@@ -35931,9 +35944,9 @@
         <f>('исходные данные'!AG74)^(1/4)</f>
         <v>1.8011302688736661</v>
       </c>
-      <c r="AH74" s="16">
-        <f>('исходные данные'!AH74)^(1/4)</f>
-        <v>2.2796996445431539</v>
+      <c r="AH74" s="56">
+        <f>('исходные данные'!AH74)^(1/3)</f>
+        <v>3.0003379507855961</v>
       </c>
       <c r="AI74" s="16">
         <f>'исходные данные'!AI74</f>
@@ -35992,9 +36005,9 @@
         <f>('исходные данные'!M75)^(1/4)</f>
         <v>3.7792667089113592</v>
       </c>
-      <c r="N75" s="16">
-        <f>('исходные данные'!N75)^(1/4)</f>
-        <v>1.778279410038923</v>
+      <c r="N75" s="56">
+        <f>('исходные данные'!N75)^(1/3)</f>
+        <v>2.1544346900318838</v>
       </c>
       <c r="O75" s="16">
         <f>('исходные данные'!O75)^(1/4)</f>
@@ -36072,9 +36085,9 @@
         <f>('исходные данные'!AG75)^(1/4)</f>
         <v>1.8138610574396914</v>
       </c>
-      <c r="AH75" s="16">
-        <f>('исходные данные'!AH75)^(1/4)</f>
-        <v>2.6484457655559703</v>
+      <c r="AH75" s="56">
+        <f>('исходные данные'!AH75)^(1/3)</f>
+        <v>3.6642754418549899</v>
       </c>
       <c r="AI75" s="16">
         <f>'исходные данные'!AI75</f>
@@ -36133,9 +36146,9 @@
         <f>('исходные данные'!M76)^(1/4)</f>
         <v>3.4274392955194308</v>
       </c>
-      <c r="N76" s="16">
-        <f>('исходные данные'!N76)^(1/4)</f>
-        <v>1.4315691227432645</v>
+      <c r="N76" s="56">
+        <f>('исходные данные'!N76)^(1/3)</f>
+        <v>1.6134286460245437</v>
       </c>
       <c r="O76" s="16">
         <f>('исходные данные'!O76)^(1/4)</f>
@@ -36213,9 +36226,9 @@
         <f>('исходные данные'!AG76)^(1/4)</f>
         <v>1.9700173561056569</v>
       </c>
-      <c r="AH76" s="16">
-        <f>('исходные данные'!AH76)^(1/4)</f>
-        <v>2.3003473953303564</v>
+      <c r="AH76" s="56">
+        <f>('исходные данные'!AH76)^(1/3)</f>
+        <v>3.0366255141386786</v>
       </c>
       <c r="AI76" s="16">
         <f>'исходные данные'!AI76</f>
@@ -36274,9 +36287,9 @@
         <f>('исходные данные'!M77)^(1/4)</f>
         <v>3.3959626904120714</v>
       </c>
-      <c r="N77" s="16">
-        <f>('исходные данные'!N77)^(1/4)</f>
-        <v>1.5100830606950983</v>
+      <c r="N77" s="56">
+        <f>('исходные данные'!N77)^(1/3)</f>
+        <v>1.7324782106818055</v>
       </c>
       <c r="O77" s="16">
         <f>('исходные данные'!O77)^(1/4)</f>
@@ -36354,9 +36367,9 @@
         <f>('исходные данные'!AG77)^(1/4)</f>
         <v>1.6907792382590661</v>
       </c>
-      <c r="AH77" s="16">
-        <f>('исходные данные'!AH77)^(1/4)</f>
-        <v>2.6194989464532008</v>
+      <c r="AH77" s="56">
+        <f>('исходные данные'!AH77)^(1/3)</f>
+        <v>3.6109735240077581</v>
       </c>
       <c r="AI77" s="16">
         <f>'исходные данные'!AI77</f>
@@ -36415,9 +36428,9 @@
         <f>('исходные данные'!M78)^(1/4)</f>
         <v>2.0305431848689306</v>
       </c>
-      <c r="N78" s="16">
-        <f>('исходные данные'!N78)^(1/4)</f>
-        <v>0.91469121922869445</v>
+      <c r="N78" s="56">
+        <f>('исходные данные'!N78)^(1/3)</f>
+        <v>0.88790400174260065</v>
       </c>
       <c r="O78" s="16">
         <f>('исходные данные'!O78)^(1/4)</f>
@@ -36495,9 +36508,9 @@
         <f>('исходные данные'!AG78)^(1/4)</f>
         <v>1.9473136041872154</v>
       </c>
-      <c r="AH78" s="16">
-        <f>('исходные данные'!AH78)^(1/4)</f>
-        <v>1.8230248666600271</v>
+      <c r="AH78" s="56">
+        <f>('исходные данные'!AH78)^(1/3)</f>
+        <v>2.2270166132228044</v>
       </c>
       <c r="AI78" s="16">
         <f>'исходные данные'!AI78</f>
@@ -36556,9 +36569,9 @@
         <f>('исходные данные'!M79)^(1/4)</f>
         <v>1.6265765616977856</v>
       </c>
-      <c r="N79" s="16">
-        <f>('исходные данные'!N79)^(1/4)</f>
-        <v>0.74008280449228525</v>
+      <c r="N79" s="56">
+        <f>('исходные данные'!N79)^(1/3)</f>
+        <v>0.66943295008216952</v>
       </c>
       <c r="O79" s="16">
         <f>('исходные данные'!O79)^(1/4)</f>
@@ -36636,9 +36649,9 @@
         <f>('исходные данные'!AG79)^(1/4)</f>
         <v>2.389203719683926</v>
       </c>
-      <c r="AH79" s="16">
-        <f>('исходные данные'!AH79)^(1/4)</f>
-        <v>2.0235448913312304</v>
+      <c r="AH79" s="56">
+        <f>('исходные данные'!AH79)^(1/3)</f>
+        <v>2.5594724424999802</v>
       </c>
       <c r="AI79" s="16">
         <f>'исходные данные'!AI79</f>
@@ -36697,9 +36710,9 @@
         <f>('исходные данные'!M80)^(1/4)</f>
         <v>2.7596690210718942</v>
       </c>
-      <c r="N80" s="16">
-        <f>('исходные данные'!N80)^(1/4)</f>
-        <v>0.74008280449228525</v>
+      <c r="N80" s="56">
+        <f>('исходные данные'!N80)^(1/3)</f>
+        <v>0.66943295008216952</v>
       </c>
       <c r="O80" s="16">
         <f>('исходные данные'!O80)^(1/4)</f>
@@ -36777,9 +36790,9 @@
         <f>('исходные данные'!AG80)^(1/4)</f>
         <v>1.6324770513891491</v>
       </c>
-      <c r="AH80" s="16">
-        <f>('исходные данные'!AH80)^(1/4)</f>
-        <v>2.4167037528845552</v>
+      <c r="AH80" s="56">
+        <f>('исходные данные'!AH80)^(1/3)</f>
+        <v>3.2431314765142045</v>
       </c>
       <c r="AI80" s="16">
         <f>'исходные данные'!AI80</f>
@@ -36838,9 +36851,9 @@
         <f>('исходные данные'!M81)^(1/4)</f>
         <v>2.8394115144336771</v>
       </c>
-      <c r="N81" s="16">
-        <f>('исходные данные'!N81)^(1/4)</f>
-        <v>1.8128252384140608</v>
+      <c r="N81" s="56">
+        <f>('исходные данные'!N81)^(1/3)</f>
+        <v>2.2104188991842317</v>
       </c>
       <c r="O81" s="16">
         <f>('исходные данные'!O81)^(1/4)</f>
@@ -36918,9 +36931,9 @@
         <f>('исходные данные'!AG81)^(1/4)</f>
         <v>1.8490621342728308</v>
       </c>
-      <c r="AH81" s="16">
-        <f>('исходные данные'!AH81)^(1/4)</f>
-        <v>3.7598983983879664</v>
+      <c r="AH81" s="56">
+        <f>('исходные данные'!AH81)^(1/3)</f>
+        <v>5.8465743806806207</v>
       </c>
       <c r="AI81" s="16">
         <f>'исходные данные'!AI81</f>
@@ -36979,9 +36992,9 @@
         <f>('исходные данные'!M82)^(1/4)</f>
         <v>2.2133638394006434</v>
       </c>
-      <c r="N82" s="16">
-        <f>('исходные данные'!N82)^(1/4)</f>
-        <v>1.2935687276168015</v>
+      <c r="N82" s="56">
+        <f>('исходные данные'!N82)^(1/3)</f>
+        <v>1.4094597464129783</v>
       </c>
       <c r="O82" s="16">
         <f>('исходные данные'!O82)^(1/4)</f>
@@ -37059,9 +37072,9 @@
         <f>('исходные данные'!AG82)^(1/4)</f>
         <v>1.2998361710847521</v>
       </c>
-      <c r="AH82" s="16">
-        <f>('исходные данные'!AH82)^(1/4)</f>
-        <v>2.8330125509099822</v>
+      <c r="AH82" s="56">
+        <f>('исходные данные'!AH82)^(1/3)</f>
+        <v>4.0086486978893756</v>
       </c>
       <c r="AI82" s="16">
         <f>'исходные данные'!AI82</f>
@@ -37120,9 +37133,9 @@
         <f>('исходные данные'!M83)^(1/4)</f>
         <v>1.681792830507429</v>
       </c>
-      <c r="N83" s="16">
-        <f>('исходные данные'!N83)^(1/4)</f>
-        <v>1.808614233815278</v>
+      <c r="N83" s="56">
+        <f>('исходные данные'!N83)^(1/3)</f>
+        <v>2.2035754532216254</v>
       </c>
       <c r="O83" s="16">
         <f>('исходные данные'!O83)^(1/4)</f>
@@ -37200,9 +37213,9 @@
         <f>('исходные данные'!AG83)^(1/4)</f>
         <v>1.3594311962679217</v>
       </c>
-      <c r="AH83" s="16">
-        <f>('исходные данные'!AH83)^(1/4)</f>
-        <v>2.3675774165255943</v>
+      <c r="AH83" s="56">
+        <f>('исходные данные'!AH83)^(1/3)</f>
+        <v>3.1555295512102273</v>
       </c>
       <c r="AI83" s="16">
         <f>'исходные данные'!AI83</f>
@@ -37261,9 +37274,9 @@
         <f>('исходные данные'!M84)^(1/4)</f>
         <v>1</v>
       </c>
-      <c r="N84" s="16">
-        <f>('исходные данные'!N84)^(1/4)</f>
-        <v>1.9308729571003498</v>
+      <c r="N84" s="56">
+        <f>('исходные данные'!N84)^(1/3)</f>
+        <v>2.4043901127973535</v>
       </c>
       <c r="O84" s="16">
         <f>('исходные данные'!O84)^(1/4)</f>
@@ -37341,9 +37354,9 @@
         <f>('исходные данные'!AG84)^(1/4)</f>
         <v>1.473950355410244</v>
       </c>
-      <c r="AH84" s="16">
-        <f>('исходные данные'!AH84)^(1/4)</f>
-        <v>1.7715817857332072</v>
+      <c r="AH84" s="56">
+        <f>('исходные данные'!AH84)^(1/3)</f>
+        <v>2.143622344381817</v>
       </c>
       <c r="AI84" s="16">
         <f>'исходные данные'!AI84</f>
@@ -37402,9 +37415,9 @@
         <f>('исходные данные'!M85)^(1/4)</f>
         <v>1</v>
       </c>
-      <c r="N85" s="16">
-        <f>('исходные данные'!N85)^(1/4)</f>
-        <v>1.0241136890844451</v>
+      <c r="N85" s="56">
+        <f>('исходные данные'!N85)^(1/3)</f>
+        <v>1.0322801154563672</v>
       </c>
       <c r="O85" s="16">
         <f>('исходные данные'!O85)^(1/4)</f>
@@ -37482,9 +37495,9 @@
         <f>('исходные данные'!AG85)^(1/4)</f>
         <v>1.0475266745794019</v>
       </c>
-      <c r="AH85" s="16">
-        <f>('исходные данные'!AH85)^(1/4)</f>
-        <v>2.2940192071856673</v>
+      <c r="AH85" s="56">
+        <f>('исходные данные'!AH85)^(1/3)</f>
+        <v>3.0254924005760113</v>
       </c>
       <c r="AI85" s="16">
         <f>'исходные данные'!AI85</f>
@@ -37543,9 +37556,9 @@
         <f>('исходные данные'!M86)^(1/4)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="16">
-        <f>('исходные данные'!N86)^(1/4)</f>
-        <v>0.56234132519034907</v>
+      <c r="N86" s="56">
+        <f>('исходные данные'!N86)^(1/3)</f>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O86" s="16">
         <f>('исходные данные'!O86)^(1/4)</f>
@@ -37623,8 +37636,8 @@
         <f>('исходные данные'!AG86)^(1/4)</f>
         <v>0</v>
       </c>
-      <c r="AH86" s="16">
-        <f>('исходные данные'!AH86)^(1/4)</f>
+      <c r="AH86" s="56">
+        <f>('исходные данные'!AH86)^(1/3)</f>
         <v>0</v>
       </c>
       <c r="AI86" s="16">
@@ -37684,9 +37697,9 @@
         <f>('исходные данные'!M87)^(1/4)</f>
         <v>3.4397906282503925</v>
       </c>
-      <c r="N87" s="16">
-        <f>('исходные данные'!N87)^(1/4)</f>
-        <v>1.0466351393921056</v>
+      <c r="N87" s="56">
+        <f>('исходные данные'!N87)^(1/3)</f>
+        <v>1.0626585691826111</v>
       </c>
       <c r="O87" s="16">
         <f>('исходные данные'!O87)^(1/4)</f>
@@ -37764,9 +37777,9 @@
         <f>('исходные данные'!AG87)^(1/4)</f>
         <v>1.9882028842338249</v>
       </c>
-      <c r="AH87" s="16">
-        <f>('исходные данные'!AH87)^(1/4)</f>
-        <v>1.0591548125587649</v>
+      <c r="AH87" s="56">
+        <f>('исходные данные'!AH87)^(1/3)</f>
+        <v>1.0796407258857235</v>
       </c>
       <c r="AI87" s="16">
         <f>'исходные данные'!AI87</f>
@@ -37825,8 +37838,8 @@
         <f>('исходные данные'!M88)^(1/4)</f>
         <v>2.4663257145596602</v>
       </c>
-      <c r="N88" s="16">
-        <f>('исходные данные'!N88)^(1/4)</f>
+      <c r="N88" s="56">
+        <f>('исходные данные'!N88)^(1/3)</f>
         <v>0</v>
       </c>
       <c r="O88" s="16">
@@ -37905,9 +37918,9 @@
         <f>('исходные данные'!AG88)^(1/4)</f>
         <v>3.6302202213911112</v>
       </c>
-      <c r="AH88" s="16">
-        <f>('исходные данные'!AH88)^(1/4)</f>
-        <v>1.6384330919170023</v>
+      <c r="AH88" s="56">
+        <f>('исходные данные'!AH88)^(1/3)</f>
+        <v>1.9315455221778268</v>
       </c>
       <c r="AI88" s="23">
         <f>'исходные данные'!AI88</f>
@@ -38109,7 +38122,7 @@
       </c>
       <c r="N90" s="38">
         <f t="shared" si="0"/>
-        <v>-0.50871073407851641</v>
+        <v>-0.1746658432502729</v>
       </c>
       <c r="O90" s="38">
         <f t="shared" si="0"/>
@@ -38189,7 +38202,7 @@
       </c>
       <c r="AH90" s="38">
         <f t="shared" si="0"/>
-        <v>-0.45857346927680687</v>
+        <v>0.43070842718983759</v>
       </c>
       <c r="AI90" s="39">
         <f t="shared" si="0"/>
@@ -38250,7 +38263,7 @@
       </c>
       <c r="N91" s="41">
         <f t="shared" si="1"/>
-        <v>1.3515433089719318</v>
+        <v>1.5447760461993121</v>
       </c>
       <c r="O91" s="41">
         <f t="shared" si="1"/>
@@ -38330,7 +38343,7 @@
       </c>
       <c r="AH91" s="41">
         <f t="shared" si="1"/>
-        <v>2.0072525324162651</v>
+        <v>2.5811173048908422</v>
       </c>
       <c r="AI91" s="41">
         <f t="shared" si="1"/>
@@ -38391,7 +38404,7 @@
       </c>
       <c r="N92">
         <f t="shared" si="2"/>
-        <v>0.50315864376561148</v>
+        <v>0.70594094832131404</v>
       </c>
       <c r="O92">
         <f t="shared" si="2"/>
@@ -38471,7 +38484,7 @@
       </c>
       <c r="AH92">
         <f t="shared" si="2"/>
-        <v>0.5619280341651417</v>
+        <v>0.90476641278519676</v>
       </c>
       <c r="AI92">
         <f t="shared" si="2"/>
@@ -38480,11 +38493,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="O2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -38493,6 +38501,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -38507,7 +38520,7 @@
   <dimension ref="A1:AMK174"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="Z76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
       <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
@@ -38521,112 +38534,112 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67" t="s">
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
     </row>
     <row r="2" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="62"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
       <c r="AB2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AC2" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="61" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
       <c r="AI2" s="16" t="s">
         <v>112</v>
       </c>
@@ -38790,7 +38803,7 @@
       </c>
       <c r="N4" s="16">
         <f>Трансформирование!N4</f>
-        <v>1.6657993231786119</v>
+        <v>1.9746808222123666</v>
       </c>
       <c r="O4" s="16">
         <f>(Трансформирование!O4-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -38870,7 +38883,7 @@
       </c>
       <c r="AH4" s="16">
         <f>(Трансформирование!AH4-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.21404405424404929</v>
+        <v>-0.27557794801077351</v>
       </c>
       <c r="AI4" s="16">
         <f>(Трансформирование!AI4-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -38931,7 +38944,7 @@
       </c>
       <c r="N5" s="16">
         <f>Трансформирование!N5</f>
-        <v>1.4953487812212205</v>
+        <v>1.7099759466766968</v>
       </c>
       <c r="O5" s="16">
         <f>(Трансформирование!O5-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39011,7 +39024,7 @@
       </c>
       <c r="AH5" s="16">
         <f>(Трансформирование!AH5-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.42814577752307981</v>
+        <v>-0.49230724682158311</v>
       </c>
       <c r="AI5" s="16">
         <f>(Трансформирование!AI5-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -39072,7 +39085,7 @@
       </c>
       <c r="N6" s="16">
         <f>Трансформирование!N6</f>
-        <v>2.0154451623197245</v>
+        <v>2.5458216848297441</v>
       </c>
       <c r="O6" s="16">
         <f>(Трансформирование!O6-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39152,7 +39165,7 @@
       </c>
       <c r="AH6" s="16">
         <f>(Трансформирование!AH6-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.48502063672743473</v>
+        <v>-0.54907103215927733</v>
       </c>
       <c r="AI6" s="16">
         <f>(Трансформирование!AI6-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -39213,7 +39226,7 @@
       </c>
       <c r="N7" s="16">
         <f>Трансформирование!N7</f>
-        <v>1.7602234735867868</v>
+        <v>2.1253171383652223</v>
       </c>
       <c r="O7" s="16">
         <f>(Трансформирование!O7-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39293,7 +39306,7 @@
       </c>
       <c r="AH7" s="16">
         <f>(Трансформирование!AH7-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>6.5830221545467527E-2</v>
+        <v>1.4725791816818346E-2</v>
       </c>
       <c r="AI7" s="16">
         <f>(Трансформирование!AI7-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -39354,7 +39367,7 @@
       </c>
       <c r="N8" s="16">
         <f>Трансформирование!N8</f>
-        <v>1.876529608701073</v>
+        <v>2.3145890545258756</v>
       </c>
       <c r="O8" s="16">
         <f>(Трансформирование!O8-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39434,7 +39447,7 @@
       </c>
       <c r="AH8" s="16">
         <f>(Трансформирование!AH8-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.84332467821864887</v>
+        <v>-0.89850145103897927</v>
       </c>
       <c r="AI8" s="16">
         <f>(Трансформирование!AI8-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -39495,7 +39508,7 @@
       </c>
       <c r="N9" s="16">
         <f>Трансформирование!N9</f>
-        <v>1.1066819197003217</v>
+        <v>1.1447142425533319</v>
       </c>
       <c r="O9" s="16">
         <f>(Трансформирование!O9-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39575,7 +39588,7 @@
       </c>
       <c r="AH9" s="16">
         <f>(Трансформирование!AH9-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.65842022017951973</v>
+        <v>-0.71996850406571766</v>
       </c>
       <c r="AI9" s="16">
         <f>(Трансформирование!AI9-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -39636,7 +39649,7 @@
       </c>
       <c r="N10" s="16">
         <f>Трансформирование!N10</f>
-        <v>1.337480609952844</v>
+        <v>1.4736125994561546</v>
       </c>
       <c r="O10" s="16">
         <f>(Трансформирование!O10-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39716,7 +39729,7 @@
       </c>
       <c r="AH10" s="16">
         <f>(Трансформирование!AH10-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-1.6038759014019424E-2</v>
+        <v>-7.0992408944981905E-2</v>
       </c>
       <c r="AI10" s="16">
         <f>(Трансформирование!AI10-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -39777,7 +39790,7 @@
       </c>
       <c r="N11" s="16">
         <f>Трансформирование!N11</f>
-        <v>1.158292185288269</v>
+        <v>1.2164403991146799</v>
       </c>
       <c r="O11" s="16">
         <f>(Трансформирование!O11-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39857,7 +39870,7 @@
       </c>
       <c r="AH11" s="16">
         <f>(Трансформирование!AH11-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-2.3538713748959078E-2</v>
+        <v>-7.8812372436905032E-2</v>
       </c>
       <c r="AI11" s="16">
         <f>(Трансформирование!AI11-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -39918,7 +39931,7 @@
       </c>
       <c r="N12" s="16">
         <f>Трансформирование!N12</f>
-        <v>1.5779670210741878</v>
+        <v>1.8370905500142276</v>
       </c>
       <c r="O12" s="16">
         <f>(Трансформирование!O12-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -39998,7 +40011,7 @@
       </c>
       <c r="AH12" s="16">
         <f>(Трансформирование!AH12-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.28734390739050936</v>
+        <v>-0.3503118248910056</v>
       </c>
       <c r="AI12" s="16">
         <f>(Трансформирование!AI12-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -40059,7 +40072,7 @@
       </c>
       <c r="N13" s="16">
         <f>Трансформирование!N13</f>
-        <v>1.8727347872429874</v>
+        <v>2.3083502397536089</v>
       </c>
       <c r="O13" s="16">
         <f>(Трансформирование!O13-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -40139,7 +40152,7 @@
       </c>
       <c r="AH13" s="16">
         <f>(Трансформирование!AH13-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.28239933576732218</v>
+        <v>-0.34528784772228532</v>
       </c>
       <c r="AI13" s="16">
         <f>(Трансформирование!AI13-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -40200,7 +40213,7 @@
       </c>
       <c r="N14" s="16">
         <f>Трансформирование!N14</f>
-        <v>1.9238895770455096</v>
+        <v>2.3928025107131377</v>
       </c>
       <c r="O14" s="16">
         <f>(Трансформирование!O14-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -40280,7 +40293,7 @@
       </c>
       <c r="AH14" s="16">
         <f>(Трансформирование!AH14-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.65010606339257304</v>
+        <v>0.64467392949684899</v>
       </c>
       <c r="AI14" s="16">
         <f>(Трансформирование!AI14-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -40341,7 +40354,7 @@
       </c>
       <c r="N15" s="16">
         <f>Трансформирование!N15</f>
-        <v>0.97400374642529675</v>
+        <v>0.96548938460562972</v>
       </c>
       <c r="O15" s="16">
         <f>(Трансформирование!O15-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -40421,7 +40434,7 @@
       </c>
       <c r="AH15" s="16">
         <f>(Трансформирование!AH15-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.20397940782468377</v>
+        <v>0.16082894586026036</v>
       </c>
       <c r="AI15" s="16">
         <f>(Трансформирование!AI15-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -40482,7 +40495,7 @@
       </c>
       <c r="N16" s="16">
         <f>Трансформирование!N16</f>
-        <v>1.3677823998673806</v>
+        <v>1.5182944859378313</v>
       </c>
       <c r="O16" s="16">
         <f>(Трансформирование!O16-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -40562,7 +40575,7 @@
       </c>
       <c r="AH16" s="16">
         <f>(Трансформирование!AH16-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>5.4928709485069935E-2</v>
+        <v>3.2742611657549828E-3</v>
       </c>
       <c r="AI16" s="16">
         <f>(Трансформирование!AI16-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -40623,7 +40636,7 @@
       </c>
       <c r="N17" s="16">
         <f>Трансформирование!N17</f>
-        <v>1.2818610191887023</v>
+        <v>1.3924766500838337</v>
       </c>
       <c r="O17" s="16">
         <f>(Трансформирование!O17-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -40703,7 +40716,7 @@
       </c>
       <c r="AH17" s="16">
         <f>(Трансформирование!AH17-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.10567283701364782</v>
+        <v>-0.16408889766481616</v>
       </c>
       <c r="AI17" s="16">
         <f>(Трансформирование!AI17-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -40764,7 +40777,7 @@
       </c>
       <c r="N18" s="16">
         <f>Трансформирование!N18</f>
-        <v>1.5715654001808814</v>
+        <v>1.8271601368635204</v>
       </c>
       <c r="O18" s="16">
         <f>(Трансформирование!O18-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -40844,7 +40857,7 @@
       </c>
       <c r="AH18" s="16">
         <f>(Трансформирование!AH18-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.70258564885476893</v>
+        <v>-0.76296532619987256</v>
       </c>
       <c r="AI18" s="16">
         <f>(Трансформирование!AI18-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -40905,7 +40918,7 @@
       </c>
       <c r="N19" s="16">
         <f>Трансформирование!N19</f>
-        <v>1.5172912992053529</v>
+        <v>1.7435134012651281</v>
       </c>
       <c r="O19" s="16">
         <f>(Трансформирование!O19-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -40985,7 +40998,7 @@
       </c>
       <c r="AH19" s="16">
         <f>(Трансформирование!AH19-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-3.7749298993087682E-2</v>
+        <v>-9.3614186479056172E-2</v>
       </c>
       <c r="AI19" s="16">
         <f>(Трансформирование!AI19-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -41046,7 +41059,7 @@
       </c>
       <c r="N20" s="16">
         <f>Трансформирование!N20</f>
-        <v>1.876529608701073</v>
+        <v>2.3145890545258756</v>
       </c>
       <c r="O20" s="16">
         <f>(Трансформирование!O20-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -41126,7 +41139,7 @@
       </c>
       <c r="AH20" s="16">
         <f>(Трансформирование!AH20-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.4483889375945973</v>
+        <v>-0.5125504423068693</v>
       </c>
       <c r="AI20" s="16">
         <f>(Трансформирование!AI20-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -41187,7 +41200,7 @@
       </c>
       <c r="N21" s="16">
         <f>Трансформирование!N21</f>
-        <v>1.6265765616977856</v>
+        <v>1.9129311827723889</v>
       </c>
       <c r="O21" s="16">
         <f>(Трансформирование!O21-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -41267,7 +41280,7 @@
       </c>
       <c r="AH21" s="16">
         <f>(Трансформирование!AH21-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.65005585351115514</v>
+        <v>0.64461847407302331</v>
       </c>
       <c r="AI21" s="16">
         <f>(Трансформирование!AI21-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -41328,7 +41341,7 @@
       </c>
       <c r="N22" s="16">
         <f>Трансформирование!N22</f>
-        <v>2.0335227133295235</v>
+        <v>2.5763134657051983</v>
       </c>
       <c r="O22" s="16">
         <f>(Трансформирование!O22-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -41408,7 +41421,7 @@
       </c>
       <c r="AH22" s="16">
         <f>(Трансформирование!AH22-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>2.6331283710045481</v>
+        <v>2.9912387581556974</v>
       </c>
       <c r="AI22" s="16">
         <f>(Трансформирование!AI22-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -41469,7 +41482,7 @@
       </c>
       <c r="N23" s="16">
         <f>Трансформирование!N23</f>
-        <v>0.66874030497642201</v>
+        <v>0.58480354764257325</v>
       </c>
       <c r="O23" s="16">
         <f>(Трансформирование!O23-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -41549,7 +41562,7 @@
       </c>
       <c r="AH23" s="16">
         <f>(Трансформирование!AH23-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.339305359605378</v>
+        <v>0.30568501130543912</v>
       </c>
       <c r="AI23" s="16">
         <f>(Трансформирование!AI23-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -41610,7 +41623,7 @@
       </c>
       <c r="N24" s="16">
         <f>Трансформирование!N24</f>
-        <v>1.3478094125129469</v>
+        <v>1.4888055529538273</v>
       </c>
       <c r="O24" s="16">
         <f>(Трансформирование!O24-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -41690,7 +41703,7 @@
       </c>
       <c r="AH24" s="16">
         <f>(Трансформирование!AH24-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.17270272427315816</v>
+        <v>0.12759291504972961</v>
       </c>
       <c r="AI24" s="16">
         <f>(Трансформирование!AI24-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -41751,7 +41764,7 @@
       </c>
       <c r="N25" s="16">
         <f>Трансформирование!N25</f>
-        <v>1.4564753151219703</v>
+        <v>1.6509636244473134</v>
       </c>
       <c r="O25" s="16">
         <f>(Трансформирование!O25-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -41831,7 +41844,7 @@
       </c>
       <c r="AH25" s="16">
         <f>(Трансформирование!AH25-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.1001470617058351</v>
+        <v>1.1503625842202998</v>
       </c>
       <c r="AI25" s="16">
         <f>(Трансформирование!AI25-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -41972,7 +41985,7 @@
       </c>
       <c r="AH26" s="16">
         <f>(Трансформирование!AH26-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.93111949648539483</v>
+        <v>0.95843941759774387</v>
       </c>
       <c r="AI26" s="16">
         <f>(Трансформирование!AI26-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -42033,7 +42046,7 @@
       </c>
       <c r="N27" s="16">
         <f>Трансформирование!N27</f>
-        <v>2.1558246717785052</v>
+        <v>2.784953300167667</v>
       </c>
       <c r="O27" s="16">
         <f>(Трансформирование!O27-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -42113,7 +42126,7 @@
       </c>
       <c r="AH27" s="16">
         <f>(Трансформирование!AH27-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.82580056305513427</v>
+        <v>0.84005759915846734</v>
       </c>
       <c r="AI27" s="16">
         <f>(Трансформирование!AI27-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -42174,7 +42187,7 @@
       </c>
       <c r="N28" s="16">
         <f>Трансформирование!N28</f>
-        <v>0.79527072876705063</v>
+        <v>0.73680629972807732</v>
       </c>
       <c r="O28" s="16">
         <f>(Трансформирование!O28-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -42254,7 +42267,7 @@
       </c>
       <c r="AH28" s="16">
         <f>(Трансформирование!AH28-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.85216790776857954</v>
+        <v>0.86960758543886241</v>
       </c>
       <c r="AI28" s="16">
         <f>(Трансформирование!AI28-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -42315,7 +42328,7 @@
       </c>
       <c r="N29" s="16">
         <f>Трансформирование!N29</f>
-        <v>1.189207115002721</v>
+        <v>1.2599210498948732</v>
       </c>
       <c r="O29" s="16">
         <f>(Трансформирование!O29-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -42395,7 +42408,7 @@
       </c>
       <c r="AH29" s="16">
         <f>(Трансформирование!AH29-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.69218067242240022</v>
+        <v>-0.75285539217371511</v>
       </c>
       <c r="AI29" s="16">
         <f>(Трансформирование!AI29-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -42456,7 +42469,7 @@
       </c>
       <c r="N30" s="16">
         <f>Трансформирование!N30</f>
-        <v>1.1418583454354265</v>
+        <v>1.193483191927337</v>
       </c>
       <c r="O30" s="16">
         <f>(Трансформирование!O30-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -42536,7 +42549,7 @@
       </c>
       <c r="AH30" s="16">
         <f>(Трансформирование!AH30-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>7.8697550110186656E-2</v>
+        <v>2.8257045461103199E-2</v>
       </c>
       <c r="AI30" s="16">
         <f>(Трансформирование!AI30-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -42597,7 +42610,7 @@
       </c>
       <c r="N31" s="16">
         <f>Трансформирование!N31</f>
-        <v>1.4052906339306293</v>
+        <v>1.5740609166314434</v>
       </c>
       <c r="O31" s="16">
         <f>(Трансформирование!O31-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -42677,7 +42690,7 @@
       </c>
       <c r="AH31" s="16">
         <f>(Трансформирование!AH31-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.14347200762812332</v>
+        <v>9.6614544862005672E-2</v>
       </c>
       <c r="AI31" s="16">
         <f>(Трансформирование!AI31-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -42738,7 +42751,7 @@
       </c>
       <c r="N32" s="16">
         <f>Трансформирование!N32</f>
-        <v>1.0241136890844451</v>
+        <v>1.0322801154563672</v>
       </c>
       <c r="O32" s="16">
         <f>(Трансформирование!O32-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -42818,7 +42831,7 @@
       </c>
       <c r="AH32" s="16">
         <f>(Трансформирование!AH32-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.75525940326176144</v>
+        <v>0.76129254475086128</v>
       </c>
       <c r="AI32" s="16">
         <f>(Трансформирование!AI32-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -42879,7 +42892,7 @@
       </c>
       <c r="N33" s="16">
         <f>Трансформирование!N33</f>
-        <v>1.6437308834542408</v>
+        <v>1.939877414580333</v>
       </c>
       <c r="O33" s="16">
         <f>(Трансформирование!O33-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -42959,7 +42972,7 @@
       </c>
       <c r="AH33" s="16">
         <f>(Трансформирование!AH33-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.91226694629066774</v>
+        <v>0.93718005099105439</v>
       </c>
       <c r="AI33" s="16">
         <f>(Трансформирование!AI33-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -43020,7 +43033,7 @@
       </c>
       <c r="N34" s="16">
         <f>Трансформирование!N34</f>
-        <v>1.800102871839254</v>
+        <v>2.1897595699439445</v>
       </c>
       <c r="O34" s="16">
         <f>(Трансформирование!O34-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -43100,7 +43113,7 @@
       </c>
       <c r="AH34" s="16">
         <f>(Трансформирование!AH34-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.92808673121078711</v>
+        <v>-0.9790200540635835</v>
       </c>
       <c r="AI34" s="16">
         <f>(Трансформирование!AI34-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -43161,7 +43174,7 @@
       </c>
       <c r="N35" s="16">
         <f>Трансформирование!N35</f>
-        <v>0.88011173679339338</v>
+        <v>0.84343266530174921</v>
       </c>
       <c r="O35" s="16">
         <f>(Трансформирование!O35-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -43241,7 +43254,7 @@
       </c>
       <c r="AH35" s="16">
         <f>(Трансформирование!AH35-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.4327505668922354</v>
+        <v>-0.49691587256773107</v>
       </c>
       <c r="AI35" s="16">
         <f>(Трансформирование!AI35-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -43382,7 +43395,7 @@
       </c>
       <c r="AH36" s="16">
         <f>(Трансформирование!AH36-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.64458281583071697</v>
+        <v>0.63857497380078232</v>
       </c>
       <c r="AI36" s="16">
         <f>(Трансформирование!AI36-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -43443,7 +43456,7 @@
       </c>
       <c r="N37" s="16">
         <f>Трансформирование!N37</f>
-        <v>1.5243982444638442</v>
+        <v>1.7544106429277195</v>
       </c>
       <c r="O37" s="16">
         <f>(Трансформирование!O37-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -43523,7 +43536,7 @@
       </c>
       <c r="AH37" s="16">
         <f>(Трансформирование!AH37-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.34606486395214309</v>
+        <v>-0.40978239446991704</v>
       </c>
       <c r="AI37" s="16">
         <f>(Трансформирование!AI37-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -43584,7 +43597,7 @@
       </c>
       <c r="N38" s="16">
         <f>Трансформирование!N38</f>
-        <v>1.2574334296829355</v>
+        <v>1.3572088082974534</v>
       </c>
       <c r="O38" s="16">
         <f>(Трансформирование!O38-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -43664,7 +43677,7 @@
       </c>
       <c r="AH38" s="16">
         <f>(Трансформирование!AH38-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.23181757599881045</v>
+        <v>-0.29374961583445502</v>
       </c>
       <c r="AI38" s="16">
         <f>(Трансформирование!AI38-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -43725,7 +43738,7 @@
       </c>
       <c r="N39" s="16">
         <f>Трансформирование!N39</f>
-        <v>1.9446166923683976</v>
+        <v>2.4272360429169444</v>
       </c>
       <c r="O39" s="16">
         <f>(Трансформирование!O39-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -43805,7 +43818,7 @@
       </c>
       <c r="AH39" s="16">
         <f>(Трансформирование!AH39-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.3107465780996409</v>
+        <v>0.27497381240340218</v>
       </c>
       <c r="AI39" s="16">
         <f>(Трансформирование!AI39-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -43866,7 +43879,7 @@
       </c>
       <c r="N40" s="16">
         <f>Трансформирование!N40</f>
-        <v>0.88011173679339338</v>
+        <v>0.84343266530174921</v>
       </c>
       <c r="O40" s="16">
         <f>(Трансформирование!O40-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -43946,7 +43959,7 @@
       </c>
       <c r="AH40" s="16">
         <f>(Трансформирование!AH40-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-1.2730646388948479</v>
+        <v>-1.2976915617779572</v>
       </c>
       <c r="AI40" s="16">
         <f>(Трансформирование!AI40-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44007,7 +44020,7 @@
       </c>
       <c r="N41" s="16">
         <f>Трансформирование!N41</f>
-        <v>0.56234132519034907</v>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O41" s="16">
         <f>(Трансформирование!O41-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -44087,7 +44100,7 @@
       </c>
       <c r="AH41" s="16">
         <f>(Трансформирование!AH41-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-3.5720811391772731</v>
+        <v>-2.8527996490776375</v>
       </c>
       <c r="AI41" s="16">
         <f>(Трансформирование!AI41-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44148,7 +44161,7 @@
       </c>
       <c r="N42" s="16">
         <f>Трансформирование!N42</f>
-        <v>1.4229707211083644</v>
+        <v>1.6005206638831553</v>
       </c>
       <c r="O42" s="16">
         <f>(Трансформирование!O42-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -44228,7 +44241,7 @@
       </c>
       <c r="AH42" s="16">
         <f>(Трансформирование!AH42-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.99360453453299491</v>
+        <v>-1.0406722678914673</v>
       </c>
       <c r="AI42" s="16">
         <f>(Трансформирование!AI42-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44289,7 +44302,7 @@
       </c>
       <c r="N43" s="16">
         <f>Трансформирование!N43</f>
-        <v>0.56234132519034907</v>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O43" s="16">
         <f>(Трансформирование!O43-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -44369,7 +44382,7 @@
       </c>
       <c r="AH43" s="16">
         <f>(Трансформирование!AH43-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-1.1907101359392369</v>
+        <v>-1.2229762681901282</v>
       </c>
       <c r="AI43" s="16">
         <f>(Трансформирование!AI43-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44430,7 +44443,7 @@
       </c>
       <c r="N44" s="16">
         <f>Трансформирование!N44</f>
-        <v>0.56234132519034907</v>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O44" s="16">
         <f>(Трансформирование!O44-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -44510,7 +44523,7 @@
       </c>
       <c r="AH44" s="16">
         <f>(Трансформирование!AH44-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.63799237097495076</v>
+        <v>-0.70000736874816516</v>
       </c>
       <c r="AI44" s="16">
         <f>(Трансформирование!AI44-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44571,7 +44584,7 @@
       </c>
       <c r="N45" s="16">
         <f>Трансформирование!N45</f>
-        <v>0.66874030497642201</v>
+        <v>0.58480354764257325</v>
       </c>
       <c r="O45" s="16">
         <f>(Трансформирование!O45-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -44651,7 +44664,7 @@
       </c>
       <c r="AH45" s="16">
         <f>(Трансформирование!AH45-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-1.4727595492735361</v>
+        <v>-1.4751363409709981</v>
       </c>
       <c r="AI45" s="16">
         <f>(Трансформирование!AI45-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44712,7 +44725,7 @@
       </c>
       <c r="N46" s="16">
         <f>Трансформирование!N46</f>
-        <v>1.9168293127388174</v>
+        <v>2.381101577952299</v>
       </c>
       <c r="O46" s="16">
         <f>(Трансформирование!O46-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -44792,7 +44805,7 @@
       </c>
       <c r="AH46" s="16">
         <f>(Трансформирование!AH46-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.29541844584615778</v>
+        <v>-0.3585106140768905</v>
       </c>
       <c r="AI46" s="16">
         <f>(Трансформирование!AI46-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44853,7 +44866,7 @@
       </c>
       <c r="N47" s="16">
         <f>Трансформирование!N47</f>
-        <v>1.808614233815278</v>
+        <v>2.2035754532216254</v>
       </c>
       <c r="O47" s="16">
         <f>(Трансформирование!O47-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -44933,7 +44946,7 @@
       </c>
       <c r="AH47" s="16">
         <f>(Трансформирование!AH47-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.39225494658146859</v>
+        <v>-0.45630955201214207</v>
       </c>
       <c r="AI47" s="16">
         <f>(Трансформирование!AI47-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -44994,7 +45007,7 @@
       </c>
       <c r="N48" s="16">
         <f>Трансформирование!N48</f>
-        <v>1.7415941483654049</v>
+        <v>2.0953791063432945</v>
       </c>
       <c r="O48" s="16">
         <f>(Трансформирование!O48-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -45074,7 +45087,7 @@
       </c>
       <c r="AH48" s="16">
         <f>(Трансформирование!AH48-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.3690881146740731</v>
+        <v>0.33779214341340474</v>
       </c>
       <c r="AI48" s="16">
         <f>(Трансформирование!AI48-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -45135,7 +45148,7 @@
       </c>
       <c r="N49" s="16">
         <f>Трансформирование!N49</f>
-        <v>2.2795070569547775</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="O49" s="16">
         <f>(Трансформирование!O49-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -45215,7 +45228,7 @@
       </c>
       <c r="AH49" s="16">
         <f>(Трансформирование!AH49-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.36653637583757703</v>
+        <v>-0.43043089030365156</v>
       </c>
       <c r="AI49" s="16">
         <f>(Трансформирование!AI49-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -45276,7 +45289,7 @@
       </c>
       <c r="N50" s="16">
         <f>Трансформирование!N50</f>
-        <v>2.1252378493369832</v>
+        <v>2.732394416094468</v>
       </c>
       <c r="O50" s="16">
         <f>(Трансформирование!O50-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -45356,7 +45369,7 @@
       </c>
       <c r="AH50" s="16">
         <f>(Трансформирование!AH50-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.0575241631811323</v>
+        <v>1.101744404290903</v>
       </c>
       <c r="AI50" s="16">
         <f>(Трансформирование!AI50-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -45417,7 +45430,7 @@
       </c>
       <c r="N51" s="16">
         <f>Трансформирование!N51</f>
-        <v>1.4142135623730949</v>
+        <v>1.5874010519681994</v>
       </c>
       <c r="O51" s="16">
         <f>(Трансформирование!O51-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -45497,7 +45510,7 @@
       </c>
       <c r="AH51" s="16">
         <f>(Трансформирование!AH51-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.16167048763551636</v>
+        <v>0.11589157536201682</v>
       </c>
       <c r="AI51" s="16">
         <f>(Трансформирование!AI51-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -45558,7 +45571,7 @@
       </c>
       <c r="N52" s="16">
         <f>Трансформирование!N52</f>
-        <v>1.8689167555872028</v>
+        <v>2.3020775179631467</v>
       </c>
       <c r="O52" s="16">
         <f>(Трансформирование!O52-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -45638,7 +45651,7 @@
       </c>
       <c r="AH52" s="16">
         <f>(Трансформирование!AH52-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.52707300914753386</v>
+        <v>-0.59081803307171332</v>
       </c>
       <c r="AI52" s="16">
         <f>(Трансформирование!AI52-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -45699,7 +45712,7 @@
       </c>
       <c r="N53" s="16">
         <f>Трансформирование!N53</f>
-        <v>1.4801656089845705</v>
+        <v>1.6868653306034984</v>
       </c>
       <c r="O53" s="16">
         <f>(Трансформирование!O53-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -45779,7 +45792,7 @@
       </c>
       <c r="AH53" s="16">
         <f>(Трансформирование!AH53-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>5.9435920193235146E-2</v>
+        <v>8.0074869234643461E-3</v>
       </c>
       <c r="AI53" s="16">
         <f>(Трансформирование!AI53-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -45840,7 +45853,7 @@
       </c>
       <c r="N54" s="16">
         <f>Трансформирование!N54</f>
-        <v>1.9937204876487471</v>
+        <v>2.5092987040930996</v>
       </c>
       <c r="O54" s="16">
         <f>(Трансформирование!O54-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -45920,7 +45933,7 @@
       </c>
       <c r="AH54" s="16">
         <f>(Трансформирование!AH54-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.0734607290696065</v>
+        <v>1.1199051982783983</v>
       </c>
       <c r="AI54" s="16">
         <f>(Трансформирование!AI54-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -45981,7 +45994,7 @@
       </c>
       <c r="N55" s="16">
         <f>Трансформирование!N55</f>
-        <v>1.2178832856309068</v>
+        <v>1.3005914468513871</v>
       </c>
       <c r="O55" s="16">
         <f>(Трансформирование!O55-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -46061,7 +46074,7 @@
       </c>
       <c r="AH55" s="16">
         <f>(Трансформирование!AH55-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.56788241422241759</v>
+        <v>-0.63114778435780972</v>
       </c>
       <c r="AI55" s="16">
         <f>(Трансформирование!AI55-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -46122,7 +46135,7 @@
       </c>
       <c r="N56" s="16">
         <f>Трансформирование!N56</f>
-        <v>1.7074764851741444</v>
+        <v>2.040827550958674</v>
       </c>
       <c r="O56" s="16">
         <f>(Трансформирование!O56-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -46202,7 +46215,7 @@
       </c>
       <c r="AH56" s="16">
         <f>(Трансформирование!AH56-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.49856305442944177</v>
+        <v>-0.56253593306537997</v>
       </c>
       <c r="AI56" s="16">
         <f>(Трансформирование!AI56-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -46263,7 +46276,7 @@
       </c>
       <c r="N57" s="16">
         <f>Трансформирование!N57</f>
-        <v>2.0905393267485861</v>
+        <v>2.6730748660601886</v>
       </c>
       <c r="O57" s="16">
         <f>(Трансформирование!O57-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -46343,7 +46356,7 @@
       </c>
       <c r="AH57" s="16">
         <f>(Трансформирование!AH57-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.21501475222757366</v>
+        <v>-0.27657122009626012</v>
       </c>
       <c r="AI57" s="16">
         <f>(Трансформирование!AI57-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -46404,7 +46417,7 @@
       </c>
       <c r="N58" s="16">
         <f>Трансформирование!N58</f>
-        <v>1.5451431251708252</v>
+        <v>1.7863159877080566</v>
       </c>
       <c r="O58" s="16">
         <f>(Трансформирование!O58-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -46484,7 +46497,7 @@
       </c>
       <c r="AH58" s="16">
         <f>(Трансформирование!AH58-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.60972771956464267</v>
+        <v>-0.67231204289398749</v>
       </c>
       <c r="AI58" s="16">
         <f>(Трансформирование!AI58-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -46545,7 +46558,7 @@
       </c>
       <c r="N59" s="16">
         <f>Трансформирование!N59</f>
-        <v>1.9060903506699229</v>
+        <v>2.3633315009350024</v>
       </c>
       <c r="O59" s="16">
         <f>(Трансформирование!O59-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -46625,7 +46638,7 @@
       </c>
       <c r="AH59" s="16">
         <f>(Трансформирование!AH59-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-5.4379705693932238E-2</v>
+        <v>-0.1109113184347494</v>
       </c>
       <c r="AI59" s="16">
         <f>(Трансформирование!AI59-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -46686,7 +46699,7 @@
       </c>
       <c r="N60" s="16">
         <f>Трансформирование!N60</f>
-        <v>1.3774493079968597</v>
+        <v>1.5326188647871062</v>
       </c>
       <c r="O60" s="16">
         <f>(Трансформирование!O60-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -46766,7 +46779,7 @@
       </c>
       <c r="AH60" s="16">
         <f>(Трансформирование!AH60-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-5.1628035874544849E-2</v>
+        <v>-0.1080512103138648</v>
       </c>
       <c r="AI60" s="16">
         <f>(Трансформирование!AI60-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -46827,7 +46840,7 @@
       </c>
       <c r="N61" s="16">
         <f>Трансформирование!N61</f>
-        <v>1.6437308834542408</v>
+        <v>1.939877414580333</v>
       </c>
       <c r="O61" s="16">
         <f>(Трансформирование!O61-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -46907,7 +46920,7 @@
       </c>
       <c r="AH61" s="16">
         <f>(Трансформирование!AH61-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.7124700094591878</v>
+        <v>1.8647368604612</v>
       </c>
       <c r="AI61" s="16">
         <f>(Трансформирование!AI61-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -46968,7 +46981,7 @@
       </c>
       <c r="N62" s="16">
         <f>Трансформирование!N62</f>
-        <v>1.3160740129524926</v>
+        <v>1.4422495703074083</v>
       </c>
       <c r="O62" s="16">
         <f>(Трансформирование!O62-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -47048,7 +47061,7 @@
       </c>
       <c r="AH62" s="16">
         <f>(Трансформирование!AH62-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.57020765227127101</v>
+        <v>0.55670767068640792</v>
       </c>
       <c r="AI62" s="16">
         <f>(Трансформирование!AI62-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -47109,7 +47122,7 @@
       </c>
       <c r="N63" s="16">
         <f>Трансформирование!N63</f>
-        <v>0.74008280449228525</v>
+        <v>0.66943295008216952</v>
       </c>
       <c r="O63" s="16">
         <f>(Трансформирование!O63-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -47189,7 +47202,7 @@
       </c>
       <c r="AH63" s="16">
         <f>(Трансформирование!AH63-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.21318847207360644</v>
+        <v>0.1706324517299215</v>
       </c>
       <c r="AI63" s="16">
         <f>(Трансформирование!AI63-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -47250,7 +47263,7 @@
       </c>
       <c r="N64" s="16">
         <f>Трансформирование!N64</f>
-        <v>0.66874030497642201</v>
+        <v>0.58480354764257325</v>
       </c>
       <c r="O64" s="16">
         <f>(Трансформирование!O64-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -47330,7 +47343,7 @@
       </c>
       <c r="AH64" s="16">
         <f>(Трансформирование!AH64-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-7.2556942995347581E-3</v>
+        <v>-6.1827596815925888E-2</v>
       </c>
       <c r="AI64" s="16">
         <f>(Трансформирование!AI64-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -47391,7 +47404,7 @@
       </c>
       <c r="N65" s="16">
         <f>Трансформирование!N65</f>
-        <v>1.5100830606950983</v>
+        <v>1.7324782106818055</v>
       </c>
       <c r="O65" s="16">
         <f>(Трансформирование!O65-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -47471,7 +47484,7 @@
       </c>
       <c r="AH65" s="16">
         <f>(Трансформирование!AH65-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.36307475190595645</v>
+        <v>0.33130293373482067</v>
       </c>
       <c r="AI65" s="16">
         <f>(Трансформирование!AI65-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -47532,7 +47545,7 @@
       </c>
       <c r="N66" s="16">
         <f>Трансформирование!N66</f>
-        <v>0.56234132519034907</v>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O66" s="16">
         <f>(Трансформирование!O66-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -47612,7 +47625,7 @@
       </c>
       <c r="AH66" s="16">
         <f>(Трансформирование!AH66-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-1.3749740009452396</v>
+        <v>-1.3889175199665449</v>
       </c>
       <c r="AI66" s="16">
         <f>(Трансформирование!AI66-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -47673,7 +47686,7 @@
       </c>
       <c r="N67" s="16">
         <f>Трансформирование!N67</f>
-        <v>1.158292185288269</v>
+        <v>1.2164403991146799</v>
       </c>
       <c r="O67" s="16">
         <f>(Трансформирование!O67-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -47753,7 +47766,7 @@
       </c>
       <c r="AH67" s="16">
         <f>(Трансформирование!AH67-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.14016274799918513</v>
+        <v>9.3112534869263214E-2</v>
       </c>
       <c r="AI67" s="16">
         <f>(Трансформирование!AI67-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -47814,7 +47827,7 @@
       </c>
       <c r="N68" s="16">
         <f>Трансформирование!N68</f>
-        <v>0.56234132519034907</v>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O68" s="16">
         <f>(Трансформирование!O68-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -47894,7 +47907,7 @@
       </c>
       <c r="AH68" s="16">
         <f>(Трансформирование!AH68-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-1.1405310328210829</v>
+        <v>-1.1770257308719185</v>
       </c>
       <c r="AI68" s="16">
         <f>(Трансформирование!AI68-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -47955,7 +47968,7 @@
       </c>
       <c r="N69" s="16">
         <f>Трансформирование!N69</f>
-        <v>0.56234132519034907</v>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O69" s="16">
         <f>(Трансформирование!O69-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -48035,7 +48048,7 @@
       </c>
       <c r="AH69" s="16">
         <f>(Трансформирование!AH69-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.22716776778509579</v>
+        <v>-0.28899875252866702</v>
       </c>
       <c r="AI69" s="16">
         <f>(Трансформирование!AI69-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -48096,7 +48109,7 @@
       </c>
       <c r="N70" s="16">
         <f>Трансформирование!N70</f>
-        <v>1.4052906339306293</v>
+        <v>1.5740609166314434</v>
       </c>
       <c r="O70" s="16">
         <f>(Трансформирование!O70-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -48176,7 +48189,7 @@
       </c>
       <c r="AH70" s="16">
         <f>(Трансформирование!AH70-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.32633427396561854</v>
+        <v>-0.3898398458001302</v>
       </c>
       <c r="AI70" s="16">
         <f>(Трансформирование!AI70-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -48237,7 +48250,7 @@
       </c>
       <c r="N71" s="16">
         <f>Трансформирование!N71</f>
-        <v>1.7272193775068816</v>
+        <v>2.072351098059261</v>
       </c>
       <c r="O71" s="16">
         <f>(Трансформирование!O71-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -48317,7 +48330,7 @@
       </c>
       <c r="AH71" s="16">
         <f>(Трансформирование!AH71-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.7769515606003892</v>
+        <v>1.9416430519426728</v>
       </c>
       <c r="AI71" s="16">
         <f>(Трансформирование!AI71-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -48378,7 +48391,7 @@
       </c>
       <c r="N72" s="16">
         <f>Трансформирование!N72</f>
-        <v>1.4142135623730949</v>
+        <v>1.5874010519681994</v>
       </c>
       <c r="O72" s="16">
         <f>(Трансформирование!O72-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -48458,7 +48471,7 @@
       </c>
       <c r="AH72" s="16">
         <f>(Трансформирование!AH72-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.39656953123412586</v>
+        <v>0.36749017422020341</v>
       </c>
       <c r="AI72" s="16">
         <f>(Трансформирование!AI72-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -48519,7 +48532,7 @@
       </c>
       <c r="N73" s="16">
         <f>Трансформирование!N73</f>
-        <v>1.3049669101523762</v>
+        <v>1.4260431471424087</v>
       </c>
       <c r="O73" s="16">
         <f>(Трансформирование!O73-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -48599,7 +48612,7 @@
       </c>
       <c r="AH73" s="16">
         <f>(Трансформирование!AH73-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.6685829147076997</v>
+        <v>0.66509601030034837</v>
       </c>
       <c r="AI73" s="16">
         <f>(Трансформирование!AI73-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -48660,7 +48673,7 @@
       </c>
       <c r="N74" s="16">
         <f>Трансформирование!N74</f>
-        <v>1.3049669101523762</v>
+        <v>1.4260431471424087</v>
       </c>
       <c r="O74" s="16">
         <f>(Трансформирование!O74-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -48740,7 +48753,7 @@
       </c>
       <c r="AH74" s="16">
         <f>(Трансформирование!AH74-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.48484342400119673</v>
+        <v>0.46334682628662327</v>
       </c>
       <c r="AI74" s="16">
         <f>(Трансформирование!AI74-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -48801,7 +48814,7 @@
       </c>
       <c r="N75" s="16">
         <f>Трансформирование!N75</f>
-        <v>1.778279410038923</v>
+        <v>2.1544346900318838</v>
       </c>
       <c r="O75" s="16">
         <f>(Трансформирование!O75-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -48881,7 +48894,7 @@
       </c>
       <c r="AH75" s="16">
         <f>(Трансформирование!AH75-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.1410593423984052</v>
+        <v>1.197168818004414</v>
       </c>
       <c r="AI75" s="16">
         <f>(Трансформирование!AI75-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -48942,7 +48955,7 @@
       </c>
       <c r="N76" s="16">
         <f>Трансформирование!N76</f>
-        <v>1.4315691227432645</v>
+        <v>1.6134286460245437</v>
       </c>
       <c r="O76" s="16">
         <f>(Трансформирование!O76-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -49022,7 +49035,7 @@
       </c>
       <c r="AH76" s="16">
         <f>(Трансформирование!AH76-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.52158789932868044</v>
+        <v>0.50345393331480792</v>
       </c>
       <c r="AI76" s="16">
         <f>(Трансформирование!AI76-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -49083,7 +49096,7 @@
       </c>
       <c r="N77" s="16">
         <f>Трансформирование!N77</f>
-        <v>1.5100830606950983</v>
+        <v>1.7324782106818055</v>
       </c>
       <c r="O77" s="16">
         <f>(Трансформирование!O77-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -49163,7 +49176,7 @@
       </c>
       <c r="AH77" s="16">
         <f>(Трансформирование!AH77-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.0895459503930109</v>
+        <v>1.1382564654965999</v>
       </c>
       <c r="AI77" s="16">
         <f>(Трансформирование!AI77-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -49224,7 +49237,7 @@
       </c>
       <c r="N78" s="16">
         <f>Трансформирование!N78</f>
-        <v>0.91469121922869445</v>
+        <v>0.88790400174260065</v>
       </c>
       <c r="O78" s="16">
         <f>(Трансформирование!O78-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -49304,7 +49317,7 @@
       </c>
       <c r="AH78" s="16">
         <f>(Трансформирование!AH78-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.32784921654593313</v>
+        <v>-0.39137249865187679</v>
       </c>
       <c r="AI78" s="16">
         <f>(Трансформирование!AI78-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -49365,7 +49378,7 @@
       </c>
       <c r="N79" s="16">
         <f>Трансформирование!N79</f>
-        <v>0.74008280449228525</v>
+        <v>0.66943295008216952</v>
       </c>
       <c r="O79" s="16">
         <f>(Трансформирование!O79-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -49445,7 +49458,7 @@
       </c>
       <c r="AH79" s="16">
         <f>(Трансформирование!AH79-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>2.8993675211757119E-2</v>
+        <v>-2.3923149759982106E-2</v>
       </c>
       <c r="AI79" s="16">
         <f>(Трансформирование!AI79-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -49506,7 +49519,7 @@
       </c>
       <c r="N80" s="16">
         <f>Трансформирование!N80</f>
-        <v>0.74008280449228525</v>
+        <v>0.66943295008216952</v>
       </c>
       <c r="O80" s="16">
         <f>(Трансформирование!O80-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -49586,7 +49599,7 @@
       </c>
       <c r="AH80" s="16">
         <f>(Трансформирование!AH80-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.72865419693219802</v>
+        <v>0.73169622818495694</v>
       </c>
       <c r="AI80" s="16">
         <f>(Трансформирование!AI80-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -49647,7 +49660,7 @@
       </c>
       <c r="N81" s="16">
         <f>Трансформирование!N81</f>
-        <v>1.8128252384140608</v>
+        <v>2.2104188991842317</v>
       </c>
       <c r="O81" s="16">
         <f>(Трансформирование!O81-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -49727,7 +49740,7 @@
       </c>
       <c r="AH81" s="16">
         <f>(Трансформирование!AH81-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>3.1189863459572948</v>
+        <v>3.6091714166726483</v>
       </c>
       <c r="AI81" s="16">
         <f>(Трансформирование!AI81-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -49788,7 +49801,7 @@
       </c>
       <c r="N82" s="16">
         <f>Трансформирование!N82</f>
-        <v>1.2935687276168015</v>
+        <v>1.4094597464129783</v>
       </c>
       <c r="O82" s="16">
         <f>(Трансформирование!O82-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -49868,7 +49881,7 @@
       </c>
       <c r="AH82" s="16">
         <f>(Трансформирование!AH82-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>1.4695120518778733</v>
+        <v>1.5777899939986475</v>
       </c>
       <c r="AI82" s="16">
         <f>(Трансформирование!AI82-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -49929,7 +49942,7 @@
       </c>
       <c r="N83" s="16">
         <f>Трансформирование!N83</f>
-        <v>1.808614233815278</v>
+        <v>2.2035754532216254</v>
       </c>
       <c r="O83" s="16">
         <f>(Трансформирование!O83-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -50009,7 +50022,7 @@
       </c>
       <c r="AH83" s="16">
         <f>(Трансформирование!AH83-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.64122959205027918</v>
+        <v>0.63487353000995839</v>
       </c>
       <c r="AI83" s="16">
         <f>(Трансформирование!AI83-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -50070,7 +50083,7 @@
       </c>
       <c r="N84" s="16">
         <f>Трансформирование!N84</f>
-        <v>1.9308729571003498</v>
+        <v>2.4043901127973535</v>
       </c>
       <c r="O84" s="16">
         <f>(Трансформирование!O84-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -50150,7 +50163,7 @@
       </c>
       <c r="AH84" s="16">
         <f>(Трансформирование!AH84-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.41939667066654657</v>
+        <v>-0.48354465232883509</v>
       </c>
       <c r="AI84" s="16">
         <f>(Трансформирование!AI84-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -50211,7 +50224,7 @@
       </c>
       <c r="N85" s="16">
         <f>Трансформирование!N85</f>
-        <v>1.0241136890844451</v>
+        <v>1.0322801154563672</v>
       </c>
       <c r="O85" s="16">
         <f>(Трансформирование!O85-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -50291,7 +50304,7 @@
       </c>
       <c r="AH85" s="16">
         <f>(Трансформирование!AH85-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>0.51032633599683697</v>
+        <v>0.49114897437143201</v>
       </c>
       <c r="AI85" s="16">
         <f>(Трансформирование!AI85-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -50352,7 +50365,7 @@
       </c>
       <c r="N86" s="16">
         <f>Трансформирование!N86</f>
-        <v>0.56234132519034907</v>
+        <v>0.46415888336127797</v>
       </c>
       <c r="O86" s="16">
         <f>(Трансформирование!O86-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -50432,7 +50445,7 @@
       </c>
       <c r="AH86" s="16">
         <f>(Трансформирование!AH86-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-3.5720811391772731</v>
+        <v>-2.8527996490776375</v>
       </c>
       <c r="AI86" s="16">
         <f>(Трансформирование!AI86-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -50493,7 +50506,7 @@
       </c>
       <c r="N87" s="16">
         <f>Трансформирование!N87</f>
-        <v>1.0466351393921056</v>
+        <v>1.0626585691826111</v>
       </c>
       <c r="O87" s="16">
         <f>(Трансформирование!O87-Трансформирование!$O$91)/Трансформирование!$O$92</f>
@@ -50573,7 +50586,7 @@
       </c>
       <c r="AH87" s="16">
         <f>(Трансформирование!AH87-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-1.6872226730351549</v>
+        <v>-1.6595184765789806</v>
       </c>
       <c r="AI87" s="16">
         <f>(Трансформирование!AI87-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -50714,7 +50727,7 @@
       </c>
       <c r="AH88" s="16">
         <f>(Трансформирование!AH88-Трансформирование!$AH$91)/Трансформирование!$AH$92</f>
-        <v>-0.65634639682502949</v>
+        <v>-0.71794418264643534</v>
       </c>
       <c r="AI88" s="16">
         <f>(Трансформирование!AI88-Трансформирование!$AI$91)/Трансформирование!$AI$92</f>
@@ -50775,7 +50788,7 @@
       </c>
       <c r="N89" s="45">
         <f>SUM(Трансформирование!N4:N88)</f>
-        <v>114.88118126261421</v>
+        <v>131.30596392694153</v>
       </c>
       <c r="O89" s="45">
         <f>SUM(Трансформирование!O4:O88)</f>
@@ -50855,7 +50868,7 @@
       </c>
       <c r="AH89" s="45">
         <f>SUM(Трансформирование!AH4:AH88)</f>
-        <v>170.61646525538254</v>
+        <v>219.39497091572159</v>
       </c>
       <c r="AI89" s="46">
         <f>SUM(Трансформирование!AI4:AI88)</f>
@@ -51059,7 +51072,7 @@
       </c>
       <c r="N91" s="50">
         <f t="shared" ref="N91:N122" si="13">$N$90*(($N$4-N5)^2)</f>
-        <v>1.3834946311223068E-3</v>
+        <v>3.3366033872549729E-3</v>
       </c>
       <c r="O91" s="50">
         <f t="shared" ref="O91:O122" si="14">$O$90*(($O$4-O5)^2)</f>
@@ -51139,7 +51152,7 @@
       </c>
       <c r="AH91" s="50">
         <f t="shared" ref="AH91:AH122" si="33">$AH$90*(($AH$4-AH5)^2)</f>
-        <v>1.3097013688871586E-3</v>
+        <v>1.342045398943577E-3</v>
       </c>
       <c r="AI91" s="50">
         <f t="shared" ref="AI91:AI122" si="34">$AI$90*(($AI$4-AI5)^2)</f>
@@ -51147,7 +51160,7 @@
       </c>
       <c r="AJ91" s="50">
         <f t="shared" ref="AJ91:AJ122" si="35">SUM(B91:AI91)</f>
-        <v>2.926960665842139</v>
+        <v>2.9289461186283279</v>
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
@@ -51205,7 +51218,7 @@
       </c>
       <c r="N92" s="50">
         <f t="shared" si="13"/>
-        <v>5.8215339442234653E-3</v>
+        <v>1.5533423092920098E-2</v>
       </c>
       <c r="O92" s="50">
         <f t="shared" si="14"/>
@@ -51285,7 +51298,7 @@
       </c>
       <c r="AH92" s="50">
         <f t="shared" si="33"/>
-        <v>2.0979516644107138E-3</v>
+        <v>2.1370990593445882E-3</v>
       </c>
       <c r="AI92" s="50">
         <f t="shared" si="34"/>
@@ -51293,7 +51306,7 @@
       </c>
       <c r="AJ92" s="50">
         <f t="shared" si="35"/>
-        <v>2.1226822908428642</v>
+        <v>2.1324333273864946</v>
       </c>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
@@ -51351,7 +51364,7 @@
       </c>
       <c r="N93" s="50">
         <f t="shared" si="13"/>
-        <v>4.2456762763360144E-4</v>
+        <v>1.0805380830525278E-3</v>
       </c>
       <c r="O93" s="50">
         <f t="shared" si="14"/>
@@ -51431,7 +51444,7 @@
       </c>
       <c r="AH93" s="50">
         <f t="shared" si="33"/>
-        <v>2.2379888642487583E-3</v>
+        <v>2.4078931816538893E-3</v>
       </c>
       <c r="AI93" s="50">
         <f t="shared" si="34"/>
@@ -51439,7 +51452,7 @@
       </c>
       <c r="AJ93" s="50">
         <f t="shared" si="35"/>
-        <v>1.1727798164833558</v>
+        <v>1.1736056912561796</v>
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
@@ -51497,7 +51510,7 @@
       </c>
       <c r="N94" s="50">
         <f t="shared" si="13"/>
-        <v>2.114631106494189E-3</v>
+        <v>5.5017907806902081E-3</v>
       </c>
       <c r="O94" s="50">
         <f t="shared" si="14"/>
@@ -51577,7 +51590,7 @@
       </c>
       <c r="AH94" s="50">
         <f t="shared" si="33"/>
-        <v>1.1314117248853183E-2</v>
+        <v>1.1086676874998031E-2</v>
       </c>
       <c r="AI94" s="50">
         <f t="shared" si="34"/>
@@ -51585,7 +51598,7 @@
       </c>
       <c r="AJ94" s="50">
         <f t="shared" si="35"/>
-        <v>2.9780709640011209</v>
+        <v>2.9812306833014612</v>
       </c>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
@@ -51643,7 +51656,7 @@
       </c>
       <c r="N95" s="50">
         <f t="shared" si="13"/>
-        <v>1.4886298612966911E-2</v>
+        <v>3.2802120159567467E-2</v>
       </c>
       <c r="O95" s="50">
         <f t="shared" si="14"/>
@@ -51723,7 +51736,7 @@
       </c>
       <c r="AH95" s="50">
         <f t="shared" si="33"/>
-        <v>5.6420050529002504E-3</v>
+        <v>5.6423704660234983E-3</v>
       </c>
       <c r="AI95" s="50">
         <f t="shared" si="34"/>
@@ -51731,7 +51744,7 @@
       </c>
       <c r="AJ95" s="50">
         <f t="shared" si="35"/>
-        <v>2.1216089639185149</v>
+        <v>2.1395251508782387</v>
       </c>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
@@ -51789,7 +51802,7 @@
       </c>
       <c r="N96" s="50">
         <f t="shared" si="13"/>
-        <v>5.1330084502011434E-3</v>
+        <v>1.1955683993146136E-2</v>
       </c>
       <c r="O96" s="50">
         <f t="shared" si="14"/>
@@ -51869,7 +51882,7 @@
       </c>
       <c r="AH96" s="50">
         <f t="shared" si="33"/>
-        <v>1.1201741982608939E-3</v>
+        <v>1.1958640798525868E-3</v>
       </c>
       <c r="AI96" s="50">
         <f t="shared" si="34"/>
@@ -51877,7 +51890,7 @@
       </c>
       <c r="AJ96" s="50">
         <f t="shared" si="35"/>
-        <v>0.91147063573862919</v>
+        <v>0.91836900116316589</v>
       </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
@@ -51935,7 +51948,7 @@
       </c>
       <c r="N97" s="50">
         <f t="shared" si="13"/>
-        <v>1.2264928333792736E-2</v>
+        <v>2.7377549486636139E-2</v>
       </c>
       <c r="O97" s="50">
         <f t="shared" si="14"/>
@@ -52015,7 +52028,7 @@
       </c>
       <c r="AH97" s="50">
         <f t="shared" si="33"/>
-        <v>1.0369224216328645E-3</v>
+        <v>1.1061911923118785E-3</v>
       </c>
       <c r="AI97" s="50">
         <f t="shared" si="34"/>
@@ -52023,7 +52036,7 @@
       </c>
       <c r="AJ97" s="50">
         <f t="shared" si="35"/>
-        <v>1.6590752470692822</v>
+        <v>1.6742571369928045</v>
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
@@ -52081,7 +52094,7 @@
       </c>
       <c r="N98" s="50">
         <f t="shared" si="13"/>
-        <v>3.6735777585537204E-4</v>
+        <v>9.0148014302657081E-4</v>
       </c>
       <c r="O98" s="50">
         <f t="shared" si="14"/>
@@ -52161,7 +52174,7 @@
       </c>
       <c r="AH98" s="50">
         <f t="shared" si="33"/>
-        <v>1.5351052775121747E-4</v>
+        <v>1.5957578152999108E-4</v>
       </c>
       <c r="AI98" s="50">
         <f t="shared" si="34"/>
@@ -52169,7 +52182,7 @@
       </c>
       <c r="AJ98" s="50">
         <f t="shared" si="35"/>
-        <v>3.0551111533123412</v>
+        <v>3.055651340933291</v>
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
@@ -52227,7 +52240,7 @@
       </c>
       <c r="N99" s="50">
         <f t="shared" si="13"/>
-        <v>2.0391564898827822E-3</v>
+        <v>5.3016800096338974E-3</v>
       </c>
       <c r="O99" s="50">
         <f t="shared" si="14"/>
@@ -52307,7 +52320,7 @@
       </c>
       <c r="AH99" s="50">
         <f t="shared" si="33"/>
-        <v>1.3349841463216832E-4</v>
+        <v>1.38842003365401E-4</v>
       </c>
       <c r="AI99" s="50">
         <f t="shared" si="34"/>
@@ -52315,7 +52328,7 @@
       </c>
       <c r="AJ99" s="50">
         <f t="shared" si="35"/>
-        <v>5.0660110208547318</v>
+        <v>5.0692788879632156</v>
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
@@ -52373,7 +52386,7 @@
       </c>
       <c r="N100" s="50">
         <f t="shared" si="13"/>
-        <v>3.1719323400514129E-3</v>
+        <v>8.3250355426064664E-3</v>
       </c>
       <c r="O100" s="50">
         <f t="shared" si="14"/>
@@ -52453,7 +52466,7 @@
       </c>
       <c r="AH100" s="50">
         <f t="shared" si="33"/>
-        <v>2.1335869308896804E-2</v>
+        <v>2.4196100515894405E-2</v>
       </c>
       <c r="AI100" s="50">
         <f t="shared" si="34"/>
@@ -52461,7 +52474,7 @@
       </c>
       <c r="AJ100" s="50">
         <f t="shared" si="35"/>
-        <v>2.586925004628033</v>
+        <v>2.5949383390375855</v>
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
@@ -52519,7 +52532,7 @@
       </c>
       <c r="N101" s="50">
         <f t="shared" si="13"/>
-        <v>2.2789577143592948E-2</v>
+        <v>4.8498445606607266E-2</v>
       </c>
       <c r="O101" s="50">
         <f t="shared" si="14"/>
@@ -52599,7 +52612,7 @@
       </c>
       <c r="AH101" s="50">
         <f t="shared" si="33"/>
-        <v>4.9926747097122724E-3</v>
+        <v>5.4414564862332523E-3</v>
       </c>
       <c r="AI101" s="50">
         <f t="shared" si="34"/>
@@ -52607,7 +52620,7 @@
       </c>
       <c r="AJ101" s="50">
         <f t="shared" si="35"/>
-        <v>3.7975785936407349</v>
+        <v>3.82373624388027</v>
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
@@ -52665,7 +52678,7 @@
       </c>
       <c r="N102" s="50">
         <f t="shared" si="13"/>
-        <v>4.2292422180901105E-3</v>
+        <v>9.9184994256234851E-3</v>
       </c>
       <c r="O102" s="50">
         <f t="shared" si="14"/>
@@ -52745,7 +52758,7 @@
       </c>
       <c r="AH102" s="50">
         <f t="shared" si="33"/>
-        <v>2.0670385036594455E-3</v>
+        <v>2.2216729875037255E-3</v>
       </c>
       <c r="AI102" s="50">
         <f t="shared" si="34"/>
@@ -52753,7 +52766,7 @@
       </c>
       <c r="AJ102" s="50">
         <f t="shared" si="35"/>
-        <v>1.788488516429501</v>
+        <v>1.7943324081208787</v>
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
@@ -52811,7 +52824,7 @@
       </c>
       <c r="N103" s="50">
         <f t="shared" si="13"/>
-        <v>7.019458155745153E-3</v>
+        <v>1.6141033240184302E-2</v>
       </c>
       <c r="O103" s="50">
         <f t="shared" si="14"/>
@@ -52891,7 +52904,7 @@
       </c>
       <c r="AH103" s="50">
         <f t="shared" si="33"/>
-        <v>3.3555202068568182E-4</v>
+        <v>3.5513738134409752E-4</v>
       </c>
       <c r="AI103" s="50">
         <f t="shared" si="34"/>
@@ -52899,7 +52912,7 @@
       </c>
       <c r="AJ103" s="50">
         <f t="shared" si="35"/>
-        <v>1.3310966970162834</v>
+        <v>1.3402378574613814</v>
       </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
@@ -52957,7 +52970,7 @@
       </c>
       <c r="N104" s="50">
         <f t="shared" si="13"/>
-        <v>4.2285867826391419E-4</v>
+        <v>1.0363025050377757E-3</v>
       </c>
       <c r="O104" s="50">
         <f t="shared" si="14"/>
@@ -53037,7 +53050,7 @@
       </c>
       <c r="AH104" s="50">
         <f t="shared" si="33"/>
-        <v>6.81922541899385E-3</v>
+        <v>6.7870416119441106E-3</v>
       </c>
       <c r="AI104" s="50">
         <f t="shared" si="34"/>
@@ -53045,7 +53058,7 @@
       </c>
       <c r="AJ104" s="50">
         <f t="shared" si="35"/>
-        <v>9.3973005333904052</v>
+        <v>9.3978817934101286</v>
       </c>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
@@ -53103,7 +53116,7 @@
       </c>
       <c r="N105" s="50">
         <f t="shared" si="13"/>
-        <v>1.050220627830575E-3</v>
+        <v>2.5446845955903702E-3</v>
       </c>
       <c r="O105" s="50">
         <f t="shared" si="14"/>
@@ -53183,7 +53196,7 @@
       </c>
       <c r="AH105" s="50">
         <f t="shared" si="33"/>
-        <v>8.8799544939989873E-4</v>
+        <v>9.4602315745061975E-4</v>
       </c>
       <c r="AI105" s="50">
         <f t="shared" si="34"/>
@@ -53191,7 +53204,7 @@
       </c>
       <c r="AJ105" s="50">
         <f t="shared" si="35"/>
-        <v>0.99958679485082513</v>
+        <v>1.0011392865266355</v>
       </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
@@ -53249,7 +53262,7 @@
       </c>
       <c r="N106" s="50">
         <f t="shared" si="13"/>
-        <v>2.114631106494189E-3</v>
+        <v>5.5017907806902081E-3</v>
       </c>
       <c r="O106" s="50">
         <f t="shared" si="14"/>
@@ -53329,7 +53342,7 @@
       </c>
       <c r="AH106" s="50">
         <f t="shared" si="33"/>
-        <v>1.5690721243594842E-3</v>
+        <v>1.60445608722609E-3</v>
       </c>
       <c r="AI106" s="50">
         <f t="shared" si="34"/>
@@ -53337,7 +53350,7 @@
       </c>
       <c r="AJ106" s="50">
         <f t="shared" si="35"/>
-        <v>1.1726169965545676</v>
+        <v>1.1760395401916304</v>
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
@@ -53395,7 +53408,7 @@
       </c>
       <c r="N107" s="50">
         <f t="shared" si="13"/>
-        <v>7.3258334199132786E-5</v>
+        <v>1.8157228433177372E-4</v>
       </c>
       <c r="O107" s="50">
         <f t="shared" si="14"/>
@@ -53475,7 +53488,7 @@
       </c>
       <c r="AH107" s="50">
         <f t="shared" si="33"/>
-        <v>2.1333390016644364E-2</v>
+        <v>2.4193184434737745E-2</v>
       </c>
       <c r="AI107" s="50">
         <f t="shared" si="34"/>
@@ -53483,7 +53496,7 @@
       </c>
       <c r="AJ107" s="50">
         <f t="shared" si="35"/>
-        <v>1.9651055683775878</v>
+        <v>1.9680736767458138</v>
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
@@ -53541,7 +53554,7 @@
       </c>
       <c r="N108" s="50">
         <f t="shared" si="13"/>
-        <v>6.4390710316228348E-3</v>
+        <v>1.7236277986484409E-2</v>
       </c>
       <c r="O108" s="50">
         <f t="shared" si="14"/>
@@ -53621,7 +53634,7 @@
       </c>
       <c r="AH108" s="50">
         <f t="shared" si="33"/>
-        <v>0.23161116625988512</v>
+        <v>0.30491689690538143</v>
       </c>
       <c r="AI108" s="50">
         <f t="shared" si="34"/>
@@ -53629,7 +53642,7 @@
       </c>
       <c r="AJ108" s="50">
         <f t="shared" si="35"/>
-        <v>24.780035266093883</v>
+        <v>24.864138203694242</v>
       </c>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
@@ -53687,7 +53700,7 @@
       </c>
       <c r="N109" s="50">
         <f t="shared" si="13"/>
-        <v>4.7339365989443563E-2</v>
+        <v>9.1988516112645552E-2</v>
       </c>
       <c r="O109" s="50">
         <f t="shared" si="14"/>
@@ -53767,7 +53780,7 @@
       </c>
       <c r="AH109" s="50">
         <f t="shared" si="33"/>
-        <v>8.7484449659287061E-3</v>
+        <v>9.6533322249440293E-3</v>
       </c>
       <c r="AI109" s="50">
         <f t="shared" si="34"/>
@@ -53775,7 +53788,7 @@
       </c>
       <c r="AJ109" s="50">
         <f t="shared" si="35"/>
-        <v>1.6345042420380873</v>
+        <v>1.6800582794203045</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
@@ -53833,7 +53846,7 @@
       </c>
       <c r="N110" s="50">
         <f t="shared" si="13"/>
-        <v>4.8151230135789315E-3</v>
+        <v>1.1241656060812288E-2</v>
       </c>
       <c r="O110" s="50">
         <f t="shared" si="14"/>
@@ -53913,7 +53926,7 @@
       </c>
       <c r="AH110" s="50">
         <f t="shared" si="33"/>
-        <v>4.2735163055267972E-3</v>
+        <v>4.6441927091700266E-3</v>
       </c>
       <c r="AI110" s="50">
         <f t="shared" si="34"/>
@@ -53921,7 +53934,7 @@
       </c>
       <c r="AJ110" s="50">
         <f t="shared" si="35"/>
-        <v>1.0071617079821282</v>
+        <v>1.013958917433005</v>
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
@@ -53979,7 +53992,7 @@
       </c>
       <c r="N111" s="50">
         <f t="shared" si="13"/>
-        <v>2.0865019213760464E-3</v>
+        <v>4.9901344823265999E-3</v>
       </c>
       <c r="O111" s="50">
         <f t="shared" si="14"/>
@@ -54059,7 +54072,7 @@
       </c>
       <c r="AH111" s="50">
         <f t="shared" si="33"/>
-        <v>4.9345665406902932E-2</v>
+        <v>5.8094468613126754E-2</v>
       </c>
       <c r="AI111" s="50">
         <f t="shared" si="34"/>
@@ -54067,7 +54080,7 @@
       </c>
       <c r="AJ111" s="50">
         <f t="shared" si="35"/>
-        <v>1.7232137828393663</v>
+        <v>1.7348662186065409</v>
       </c>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
@@ -54125,7 +54138,7 @@
       </c>
       <c r="N112" s="50">
         <f t="shared" si="13"/>
-        <v>0.13213749452868198</v>
+        <v>0.18568401664825276</v>
       </c>
       <c r="O112" s="50">
         <f t="shared" si="14"/>
@@ -54205,7 +54218,7 @@
       </c>
       <c r="AH112" s="50">
         <f t="shared" si="33"/>
-        <v>3.7468558797693383E-2</v>
+        <v>4.3508538817811006E-2</v>
       </c>
       <c r="AI112" s="50">
         <f t="shared" si="34"/>
@@ -54213,7 +54226,7 @@
       </c>
       <c r="AJ112" s="50">
         <f t="shared" si="35"/>
-        <v>6.4108943509507661</v>
+        <v>6.4704808530904545</v>
       </c>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
@@ -54271,7 +54284,7 @@
       </c>
       <c r="N113" s="50">
         <f t="shared" si="13"/>
-        <v>1.1434516298592712E-2</v>
+        <v>3.126388040627727E-2</v>
       </c>
       <c r="O113" s="50">
         <f t="shared" si="14"/>
@@ -54351,7 +54364,7 @@
       </c>
       <c r="AH113" s="50">
         <f t="shared" si="33"/>
-        <v>3.0893623660745297E-2</v>
+        <v>3.5561219260217457E-2</v>
       </c>
       <c r="AI113" s="50">
         <f t="shared" si="34"/>
@@ -54359,7 +54372,7 @@
       </c>
       <c r="AJ113" s="50">
         <f t="shared" si="35"/>
-        <v>1.0111160303999744</v>
+        <v>1.0356129901071311</v>
       </c>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
@@ -54417,7 +54430,7 @@
       </c>
       <c r="N114" s="50">
         <f t="shared" si="13"/>
-        <v>3.6086668270865166E-2</v>
+        <v>7.2968253972176531E-2</v>
       </c>
       <c r="O114" s="50">
         <f t="shared" si="14"/>
@@ -54497,7 +54510,7 @@
       </c>
       <c r="AH114" s="50">
         <f t="shared" si="33"/>
-        <v>3.2480227083966272E-2</v>
+        <v>3.7469997314923634E-2</v>
       </c>
       <c r="AI114" s="50">
         <f t="shared" si="34"/>
@@ -54505,7 +54518,7 @@
       </c>
       <c r="AJ114" s="50">
         <f t="shared" si="35"/>
-        <v>1.0778795652805937</v>
+        <v>1.1197509212128622</v>
       </c>
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
@@ -54563,7 +54576,7 @@
       </c>
       <c r="N115" s="50">
         <f t="shared" si="13"/>
-        <v>1.0816196804474843E-2</v>
+        <v>2.4327692005874049E-2</v>
       </c>
       <c r="O115" s="50">
         <f t="shared" si="14"/>
@@ -54643,7 +54656,7 @@
       </c>
       <c r="AH115" s="50">
         <f t="shared" si="33"/>
-        <v>6.531846446943719E-3</v>
+        <v>6.5083931059059952E-3</v>
       </c>
       <c r="AI115" s="50">
         <f t="shared" si="34"/>
@@ -54651,7 +54664,7 @@
       </c>
       <c r="AJ115" s="50">
         <f t="shared" si="35"/>
-        <v>5.002190425694339</v>
+        <v>5.015678467554701</v>
       </c>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
@@ -54709,7 +54722,7 @@
       </c>
       <c r="N116" s="50">
         <f t="shared" si="13"/>
-        <v>1.3072102293261193E-2</v>
+        <v>2.9060463693473614E-2</v>
       </c>
       <c r="O116" s="50">
         <f t="shared" si="14"/>
@@ -54789,7 +54802,7 @@
       </c>
       <c r="AH116" s="50">
         <f t="shared" si="33"/>
-        <v>2.4485041977112005E-3</v>
+        <v>2.6375915216587244E-3</v>
       </c>
       <c r="AI116" s="50">
         <f t="shared" si="34"/>
@@ -54797,7 +54810,7 @@
       </c>
       <c r="AJ116" s="50">
         <f t="shared" si="35"/>
-        <v>10.198791340999962</v>
+        <v>10.214968789724123</v>
       </c>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
@@ -54855,7 +54868,7 @@
       </c>
       <c r="N117" s="50">
         <f t="shared" si="13"/>
-        <v>3.2316560558905707E-3</v>
+        <v>7.6426813689365629E-3</v>
       </c>
       <c r="O117" s="50">
         <f t="shared" si="14"/>
@@ -54935,7 +54948,7 @@
       </c>
       <c r="AH117" s="50">
         <f t="shared" si="33"/>
-        <v>3.6519352713310612E-3</v>
+        <v>3.9579214785958215E-3</v>
       </c>
       <c r="AI117" s="50">
         <f t="shared" si="34"/>
@@ -54943,7 +54956,7 @@
       </c>
       <c r="AJ117" s="50">
         <f t="shared" si="35"/>
-        <v>2.084920665591512</v>
+        <v>2.0896376771118228</v>
       </c>
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
@@ -55001,7 +55014,7 @@
       </c>
       <c r="N118" s="50">
         <f t="shared" si="13"/>
-        <v>1.960764061918252E-2</v>
+        <v>4.2291385337819384E-2</v>
       </c>
       <c r="O118" s="50">
         <f t="shared" si="14"/>
@@ -55081,7 +55094,7 @@
       </c>
       <c r="AH118" s="50">
         <f t="shared" si="33"/>
-        <v>2.6844262649506255E-2</v>
+        <v>3.0717154821707292E-2</v>
       </c>
       <c r="AI118" s="50">
         <f t="shared" si="34"/>
@@ -55089,7 +55102,7 @@
       </c>
       <c r="AJ118" s="50">
         <f t="shared" si="35"/>
-        <v>2.4840990918126797</v>
+        <v>2.5106557287035174</v>
       </c>
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
@@ -55147,7 +55160,7 @@
       </c>
       <c r="N119" s="50">
         <f t="shared" si="13"/>
-        <v>2.3191239612771473E-5</v>
+        <v>5.7679865847690218E-5</v>
       </c>
       <c r="O119" s="50">
         <f t="shared" si="14"/>
@@ -55227,7 +55240,7 @@
       </c>
       <c r="AH119" s="50">
         <f t="shared" si="33"/>
-        <v>3.6245041997871867E-2</v>
+        <v>4.2022341832654783E-2</v>
       </c>
       <c r="AI119" s="50">
         <f t="shared" si="34"/>
@@ -55235,7 +55248,7 @@
       </c>
       <c r="AJ119" s="50">
         <f t="shared" si="35"/>
-        <v>21.783693531769085</v>
+        <v>21.789505320230102</v>
       </c>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
@@ -55293,7 +55306,7 @@
       </c>
       <c r="N120" s="50">
         <f t="shared" si="13"/>
-        <v>8.5892586584959316E-4</v>
+        <v>2.2028032250373196E-3</v>
       </c>
       <c r="O120" s="50">
         <f t="shared" si="14"/>
@@ -55373,7 +55386,7 @@
       </c>
       <c r="AH120" s="50">
         <f t="shared" si="33"/>
-        <v>1.4567341272280716E-2</v>
+        <v>1.4138022759086079E-2</v>
       </c>
       <c r="AI120" s="50">
         <f t="shared" si="34"/>
@@ -55381,7 +55394,7 @@
       </c>
       <c r="AJ120" s="50">
         <f t="shared" si="35"/>
-        <v>27.885054381508287</v>
+        <v>27.885968940354282</v>
       </c>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
@@ -55439,7 +55452,7 @@
       </c>
       <c r="N121" s="50">
         <f t="shared" si="13"/>
-        <v>2.9395475399991912E-2</v>
+        <v>6.0939161548269949E-2</v>
       </c>
       <c r="O121" s="50">
         <f t="shared" si="14"/>
@@ -55519,7 +55532,7 @@
       </c>
       <c r="AH121" s="50">
         <f t="shared" si="33"/>
-        <v>1.3666439621351767E-3</v>
+        <v>1.3997279099194695E-3</v>
       </c>
       <c r="AI121" s="50">
         <f t="shared" si="34"/>
@@ -55527,7 +55540,7 @@
       </c>
       <c r="AJ121" s="50">
         <f t="shared" si="35"/>
-        <v>32.288074427073511</v>
+        <v>32.31965119716957</v>
       </c>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
@@ -55585,7 +55598,7 @@
       </c>
       <c r="N122" s="50">
         <f t="shared" si="13"/>
-        <v>2.1108987559290367E-2</v>
+        <v>4.5238224056598809E-2</v>
       </c>
       <c r="O122" s="50">
         <f t="shared" si="14"/>
@@ -55665,7 +55678,7 @@
       </c>
       <c r="AH122" s="50">
         <f t="shared" si="33"/>
-        <v>2.1064002914696841E-2</v>
+        <v>2.387644469876013E-2</v>
       </c>
       <c r="AI122" s="50">
         <f t="shared" si="34"/>
@@ -55673,7 +55686,7 @@
       </c>
       <c r="AJ122" s="50">
         <f t="shared" si="35"/>
-        <v>15.066264162150519</v>
+        <v>15.093205840431889</v>
       </c>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
@@ -55731,7 +55744,7 @@
       </c>
       <c r="N123" s="50">
         <f t="shared" ref="N123:N154" si="49">$N$90*(($N$4-N37)^2)</f>
-        <v>9.5210786008094906E-4</v>
+        <v>2.3104262800995507E-3</v>
       </c>
       <c r="O123" s="50">
         <f t="shared" ref="O123:O154" si="50">$O$90*(($O$4-O37)^2)</f>
@@ -55811,7 +55824,7 @@
       </c>
       <c r="AH123" s="50">
         <f t="shared" ref="AH123:AH154" si="69">$AH$90*(($AH$4-AH37)^2)</f>
-        <v>4.9798554845659172E-4</v>
+        <v>5.1459524141157494E-4</v>
       </c>
       <c r="AI123" s="50">
         <f t="shared" ref="AI123:AI154" si="70">$AI$90*(($AI$4-AI37)^2)</f>
@@ -55819,7 +55832,7 @@
       </c>
       <c r="AJ123" s="50">
         <f t="shared" ref="AJ123:AJ154" si="71">SUM(B123:AI123)</f>
-        <v>3.4739767467899174</v>
+        <v>3.4753516749028912</v>
       </c>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
@@ -55877,7 +55890,7 @@
       </c>
       <c r="N124" s="50">
         <f t="shared" si="49"/>
-        <v>7.9410810938343873E-3</v>
+        <v>1.8155794665149466E-2</v>
       </c>
       <c r="O124" s="50">
         <f t="shared" si="50"/>
@@ -55957,7 +55970,7 @@
       </c>
       <c r="AH124" s="50">
         <f t="shared" si="69"/>
-        <v>9.0256593019133746E-6</v>
+        <v>9.4345574712634872E-6</v>
       </c>
       <c r="AI124" s="50">
         <f t="shared" si="70"/>
@@ -55965,7 +55978,7 @@
       </c>
       <c r="AJ124" s="50">
         <f t="shared" si="71"/>
-        <v>0.58084045568002285</v>
+        <v>0.59105557814950727</v>
       </c>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
@@ -56023,7 +56036,7 @@
       </c>
       <c r="N125" s="50">
         <f t="shared" si="49"/>
-        <v>3.7018631124720604E-3</v>
+        <v>9.7526775136651932E-3</v>
       </c>
       <c r="O125" s="50">
         <f t="shared" si="50"/>
@@ -56103,7 +56116,7 @@
       </c>
       <c r="AH125" s="50">
         <f t="shared" si="69"/>
-        <v>7.868720222734004E-3</v>
+        <v>8.6602068827185096E-3</v>
       </c>
       <c r="AI125" s="50">
         <f t="shared" si="70"/>
@@ -56111,7 +56124,7 @@
       </c>
       <c r="AJ125" s="50">
         <f t="shared" si="71"/>
-        <v>2.4528139100490418</v>
+        <v>2.4596562111102194</v>
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
@@ -56169,7 +56182,7 @@
       </c>
       <c r="N126" s="50">
         <f t="shared" si="49"/>
-        <v>2.9395475399991912E-2</v>
+        <v>6.0939161548269949E-2</v>
       </c>
       <c r="O126" s="50">
         <f t="shared" si="50"/>
@@ -56249,7 +56262,7 @@
       </c>
       <c r="AH126" s="50">
         <f t="shared" si="69"/>
-        <v>3.2043559963260547E-2</v>
+        <v>2.9849035412806046E-2</v>
       </c>
       <c r="AI126" s="50">
         <f t="shared" si="70"/>
@@ -56257,7 +56270,7 @@
       </c>
       <c r="AJ126" s="50">
         <f t="shared" si="71"/>
-        <v>33.849472709536379</v>
+        <v>33.878821871134207</v>
       </c>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
@@ -56315,7 +56328,7 @@
       </c>
       <c r="N127" s="50">
         <f t="shared" si="49"/>
-        <v>5.7981883491631664E-2</v>
+        <v>0.10865126322621199</v>
       </c>
       <c r="O127" s="50">
         <f t="shared" si="50"/>
@@ -56395,7 +56408,7 @@
       </c>
       <c r="AH127" s="50">
         <f t="shared" si="69"/>
-        <v>0.32218323039390928</v>
+        <v>0.18977347704142797</v>
       </c>
       <c r="AI127" s="50">
         <f t="shared" si="70"/>
@@ -56403,7 +56416,7 @@
       </c>
       <c r="AJ127" s="50">
         <f t="shared" si="71"/>
-        <v>44.032928362014978</v>
+        <v>43.951187988397081</v>
       </c>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
@@ -56461,7 +56474,7 @@
       </c>
       <c r="N128" s="50">
         <f t="shared" si="49"/>
-        <v>2.8078919039709808E-3</v>
+        <v>6.666467813378118E-3</v>
       </c>
       <c r="O128" s="50">
         <f t="shared" si="50"/>
@@ -56541,7 +56554,7 @@
       </c>
       <c r="AH128" s="50">
         <f t="shared" si="69"/>
-        <v>1.7363272640809474E-2</v>
+        <v>1.672483766610575E-2</v>
       </c>
       <c r="AI128" s="50">
         <f t="shared" si="70"/>
@@ -56549,7 +56562,7 @@
       </c>
       <c r="AJ128" s="50">
         <f t="shared" si="71"/>
-        <v>19.680489492013486</v>
+        <v>19.68370963294819</v>
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
@@ -56607,7 +56620,7 @@
       </c>
       <c r="N129" s="50">
         <f t="shared" si="49"/>
-        <v>5.7981883491631664E-2</v>
+        <v>0.10865126322621199</v>
       </c>
       <c r="O129" s="50">
         <f t="shared" si="50"/>
@@ -56687,7 +56700,7 @@
       </c>
       <c r="AH129" s="50">
         <f t="shared" si="69"/>
-        <v>2.7253618146680883E-2</v>
+        <v>2.5644673630818942E-2</v>
       </c>
       <c r="AI129" s="50">
         <f t="shared" si="70"/>
@@ -56695,7 +56708,7 @@
       </c>
       <c r="AJ129" s="50">
         <f t="shared" si="71"/>
-        <v>37.204933840893666</v>
+        <v>37.253994276112394</v>
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
@@ -56753,7 +56766,7 @@
       </c>
       <c r="N130" s="50">
         <f t="shared" si="49"/>
-        <v>5.7981883491631664E-2</v>
+        <v>0.10865126322621199</v>
       </c>
       <c r="O130" s="50">
         <f t="shared" si="50"/>
@@ -56833,7 +56846,7 @@
       </c>
       <c r="AH130" s="50">
         <f t="shared" si="69"/>
-        <v>5.1352050073989941E-3</v>
+        <v>5.1468666624993661E-3</v>
       </c>
       <c r="AI130" s="50">
         <f t="shared" si="70"/>
@@ -56841,7 +56854,7 @@
       </c>
       <c r="AJ130" s="50">
         <f t="shared" si="71"/>
-        <v>6.0529961775691845</v>
+        <v>6.1036772189588655</v>
       </c>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
@@ -56899,7 +56912,7 @@
       </c>
       <c r="N131" s="50">
         <f t="shared" si="49"/>
-        <v>4.7339365989443563E-2</v>
+        <v>9.1988516112645552E-2</v>
       </c>
       <c r="O131" s="50">
         <f t="shared" si="50"/>
@@ -56979,7 +56992,7 @@
       </c>
       <c r="AH131" s="50">
         <f t="shared" si="69"/>
-        <v>4.5267562783637881E-2</v>
+        <v>4.1112581089180464E-2</v>
       </c>
       <c r="AI131" s="50">
         <f t="shared" si="70"/>
@@ -56987,7 +57000,7 @@
       </c>
       <c r="AJ131" s="50">
         <f t="shared" si="71"/>
-        <v>59.865590899537906</v>
+        <v>59.90608506796665</v>
       </c>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
@@ -57045,7 +57058,7 @@
       </c>
       <c r="N132" s="50">
         <f t="shared" si="49"/>
-        <v>3.00076455517128E-3</v>
+        <v>7.8656109855341806E-3</v>
       </c>
       <c r="O132" s="50">
         <f t="shared" si="50"/>
@@ -57125,7 +57138,7 @@
       </c>
       <c r="AH132" s="50">
         <f t="shared" si="69"/>
-        <v>1.8919404596038012E-4</v>
+        <v>1.9650934573811634E-4</v>
       </c>
       <c r="AI132" s="50">
         <f t="shared" si="70"/>
@@ -57133,7 +57146,7 @@
       </c>
       <c r="AJ132" s="50">
         <f t="shared" si="71"/>
-        <v>10.251447135454473</v>
+        <v>10.256319297184614</v>
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
@@ -57191,7 +57204,7 @@
       </c>
       <c r="N133" s="50">
         <f t="shared" si="49"/>
-        <v>9.712427952456626E-4</v>
+        <v>2.4948929573745107E-3</v>
       </c>
       <c r="O133" s="50">
         <f t="shared" si="50"/>
@@ -57271,7 +57284,7 @@
       </c>
       <c r="AH133" s="50">
         <f t="shared" si="69"/>
-        <v>9.0740348993426426E-4</v>
+        <v>9.3325464814021436E-4</v>
       </c>
       <c r="AI133" s="50">
         <f t="shared" si="70"/>
@@ -57279,7 +57292,7 @@
       </c>
       <c r="AJ133" s="50">
         <f t="shared" si="71"/>
-        <v>6.4851751065508187</v>
+        <v>6.4867246078711531</v>
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
@@ -57337,7 +57350,7 @@
       </c>
       <c r="N134" s="50">
         <f t="shared" si="49"/>
-        <v>2.7356454881411981E-4</v>
+        <v>6.9371789486429491E-4</v>
       </c>
       <c r="O134" s="50">
         <f t="shared" si="50"/>
@@ -57417,7 +57430,7 @@
       </c>
       <c r="AH134" s="50">
         <f t="shared" si="69"/>
-        <v>9.7155178979186751E-3</v>
+        <v>1.0749224830105849E-2</v>
       </c>
       <c r="AI134" s="50">
         <f t="shared" si="70"/>
@@ -57425,7 +57438,7 @@
       </c>
       <c r="AJ134" s="50">
         <f t="shared" si="71"/>
-        <v>4.2936055069724777</v>
+        <v>4.2950593672507162</v>
       </c>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
@@ -57483,7 +57496,7 @@
       </c>
       <c r="N135" s="50">
         <f t="shared" si="49"/>
-        <v>1.7935103928413187E-2</v>
+        <v>5.0060924587576557E-2</v>
       </c>
       <c r="O135" s="50">
         <f t="shared" si="50"/>
@@ -57563,7 +57576,7 @@
       </c>
       <c r="AH135" s="50">
         <f t="shared" si="69"/>
-        <v>6.6439737557096815E-4</v>
+        <v>6.8512667819318346E-4</v>
       </c>
       <c r="AI135" s="50">
         <f t="shared" si="70"/>
@@ -57571,7 +57584,7 @@
       </c>
       <c r="AJ135" s="50">
         <f t="shared" si="71"/>
-        <v>7.132393589304221</v>
+        <v>7.1645401392660064</v>
       </c>
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
@@ -57629,7 +57642,7 @@
       </c>
       <c r="N136" s="50">
         <f t="shared" si="49"/>
-        <v>1.0051607586598878E-2</v>
+        <v>2.7339518588272858E-2</v>
       </c>
       <c r="O136" s="50">
         <f t="shared" si="50"/>
@@ -57709,7 +57722,7 @@
       </c>
       <c r="AH136" s="50">
         <f t="shared" si="69"/>
-        <v>4.619673518759583E-2</v>
+        <v>5.4200481775709256E-2</v>
       </c>
       <c r="AI136" s="50">
         <f t="shared" si="70"/>
@@ -57717,7 +57730,7 @@
       </c>
       <c r="AJ136" s="50">
         <f t="shared" si="71"/>
-        <v>0.57702165144921791</v>
+        <v>0.60231330903900537</v>
       </c>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
@@ -57775,7 +57788,7 @@
       </c>
       <c r="N137" s="50">
         <f t="shared" si="49"/>
-        <v>3.0140664304805138E-3</v>
+        <v>7.1421724019226172E-3</v>
       </c>
       <c r="O137" s="50">
         <f t="shared" si="50"/>
@@ -57855,7 +57868,7 @@
       </c>
       <c r="AH137" s="50">
         <f t="shared" si="69"/>
-        <v>4.0331833422791964E-3</v>
+        <v>4.3785253637062755E-3</v>
       </c>
       <c r="AI137" s="50">
         <f t="shared" si="70"/>
@@ -57863,7 +57876,7 @@
       </c>
       <c r="AJ137" s="50">
         <f t="shared" si="71"/>
-        <v>3.5603380598357215</v>
+        <v>3.5648115078285905</v>
       </c>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
@@ -57921,7 +57934,7 @@
       </c>
       <c r="N138" s="50">
         <f t="shared" si="49"/>
-        <v>1.9646043499170714E-3</v>
+        <v>5.1042188756442322E-3</v>
       </c>
       <c r="O138" s="50">
         <f t="shared" si="50"/>
@@ -58001,7 +58014,7 @@
       </c>
       <c r="AH138" s="50">
         <f t="shared" si="69"/>
-        <v>2.7996321887990799E-3</v>
+        <v>2.8393231779779587E-3</v>
       </c>
       <c r="AI138" s="50">
         <f t="shared" si="70"/>
@@ -58009,7 +58022,7 @@
       </c>
       <c r="AJ138" s="50">
         <f t="shared" si="71"/>
-        <v>8.0534595533048812</v>
+        <v>8.0566388588197881</v>
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
@@ -58067,7 +58080,7 @@
       </c>
       <c r="N139" s="50">
         <f t="shared" si="49"/>
-        <v>1.6409464688321449E-3</v>
+        <v>3.9446551052406895E-3</v>
       </c>
       <c r="O139" s="50">
         <f t="shared" si="50"/>
@@ -58147,7 +58160,7 @@
       </c>
       <c r="AH139" s="50">
         <f t="shared" si="69"/>
-        <v>2.1368941833776502E-3</v>
+        <v>2.2977342544811675E-3</v>
       </c>
       <c r="AI139" s="50">
         <f t="shared" si="70"/>
@@ -58155,7 +58168,7 @@
       </c>
       <c r="AJ139" s="50">
         <f t="shared" si="71"/>
-        <v>0.77048352072229165</v>
+        <v>0.77294806942980354</v>
       </c>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
@@ -58213,7 +58226,7 @@
       </c>
       <c r="N140" s="50">
         <f t="shared" si="49"/>
-        <v>5.1205852432118781E-3</v>
+        <v>1.3610299029840067E-2</v>
       </c>
       <c r="O140" s="50">
         <f t="shared" si="50"/>
@@ -58293,7 +58306,7 @@
       </c>
       <c r="AH140" s="50">
         <f t="shared" si="69"/>
-        <v>4.7361959058729829E-2</v>
+        <v>5.5639234616489321E-2</v>
       </c>
       <c r="AI140" s="50">
         <f t="shared" si="70"/>
@@ -58301,7 +58314,7 @@
       </c>
       <c r="AJ140" s="50">
         <f t="shared" si="71"/>
-        <v>0.99611297594698145</v>
+        <v>1.0128799652913691</v>
       </c>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
@@ -58359,7 +58372,7 @@
       </c>
       <c r="N141" s="50">
         <f t="shared" si="49"/>
-        <v>9.5537512710684377E-3</v>
+        <v>2.1637927903550267E-2</v>
       </c>
       <c r="O141" s="50">
         <f t="shared" si="50"/>
@@ -58439,7 +58452,7 @@
       </c>
       <c r="AH141" s="50">
         <f t="shared" si="69"/>
-        <v>3.5771881426337531E-3</v>
+        <v>3.6122831005673743E-3</v>
       </c>
       <c r="AI141" s="50">
         <f t="shared" si="70"/>
@@ -58447,7 +58460,7 @@
       </c>
       <c r="AJ141" s="50">
         <f t="shared" si="71"/>
-        <v>8.453412532858497</v>
+        <v>8.4655318044489114</v>
       </c>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
@@ -58505,7 +58518,7 @@
       </c>
       <c r="N142" s="50">
         <f t="shared" si="49"/>
-        <v>8.2713611047707583E-5</v>
+        <v>2.0835189161131243E-4</v>
       </c>
       <c r="O142" s="50">
         <f t="shared" si="50"/>
@@ -58585,7 +58598,7 @@
       </c>
       <c r="AH142" s="50">
         <f t="shared" si="69"/>
-        <v>2.3128874704712956E-3</v>
+        <v>2.352711005331421E-3</v>
       </c>
       <c r="AI142" s="50">
         <f t="shared" si="70"/>
@@ -58593,7 +58606,7 @@
       </c>
       <c r="AJ142" s="50">
         <f t="shared" si="71"/>
-        <v>2.9090443980583234</v>
+        <v>2.9092098598737475</v>
       </c>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
@@ -58651,7 +58664,7 @@
       </c>
       <c r="N143" s="50">
         <f t="shared" si="49"/>
-        <v>8.5906700301248418E-3</v>
+        <v>2.3226392403910168E-2</v>
       </c>
       <c r="O143" s="50">
         <f t="shared" si="50"/>
@@ -58731,7 +58744,7 @@
       </c>
       <c r="AH143" s="50">
         <f t="shared" si="69"/>
-        <v>2.6921559291950561E-8</v>
+        <v>2.8188269594483255E-8</v>
       </c>
       <c r="AI143" s="50">
         <f t="shared" si="70"/>
@@ -58739,7 +58752,7 @@
       </c>
       <c r="AJ143" s="50">
         <f t="shared" si="71"/>
-        <v>1.1064783742303816</v>
+        <v>1.1211140978708773</v>
       </c>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
@@ -58797,7 +58810,7 @@
       </c>
       <c r="N144" s="50">
         <f t="shared" si="49"/>
-        <v>6.9323419608067767E-4</v>
+        <v>1.6895862322779105E-3</v>
       </c>
       <c r="O144" s="50">
         <f t="shared" si="50"/>
@@ -58877,7 +58890,7 @@
       </c>
       <c r="AH144" s="50">
         <f t="shared" si="69"/>
-        <v>4.4733018000439823E-3</v>
+        <v>4.4970840583658002E-3</v>
       </c>
       <c r="AI144" s="50">
         <f t="shared" si="70"/>
@@ -58885,7 +58898,7 @@
       </c>
       <c r="AJ144" s="50">
         <f t="shared" si="71"/>
-        <v>0.56729434865592698</v>
+        <v>0.56831448295044618</v>
       </c>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
@@ -58943,7 +58956,7 @@
       </c>
       <c r="N145" s="50">
         <f t="shared" si="49"/>
-        <v>2.7495132329919043E-3</v>
+        <v>7.1928261938840696E-3</v>
       </c>
       <c r="O145" s="50">
         <f t="shared" si="50"/>
@@ -59023,7 +59036,7 @@
       </c>
       <c r="AH145" s="50">
         <f t="shared" si="69"/>
-        <v>7.283629770838075E-4</v>
+        <v>7.7471711131221548E-4</v>
       </c>
       <c r="AI145" s="50">
         <f t="shared" si="70"/>
@@ -59031,7 +59044,7 @@
       </c>
       <c r="AJ145" s="50">
         <f t="shared" si="71"/>
-        <v>0.91415328675765228</v>
+        <v>0.91864295385277273</v>
       </c>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
@@ -59089,7 +59102,7 @@
       </c>
       <c r="N146" s="50">
         <f t="shared" si="49"/>
-        <v>3.9593205359674619E-3</v>
+        <v>9.3056559144120369E-3</v>
       </c>
       <c r="O146" s="50">
         <f t="shared" si="50"/>
@@ -59169,7 +59182,7 @@
       </c>
       <c r="AH146" s="50">
         <f t="shared" si="69"/>
-        <v>7.5368465780009154E-4</v>
+        <v>8.0186308123911005E-4</v>
       </c>
       <c r="AI146" s="50">
         <f t="shared" si="70"/>
@@ -59177,7 +59190,7 @@
       </c>
       <c r="AJ146" s="50">
         <f t="shared" si="71"/>
-        <v>7.2114005345639551</v>
+        <v>7.2167950483658387</v>
       </c>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
@@ -59235,7 +59248,7 @@
       </c>
       <c r="N147" s="50">
         <f t="shared" si="49"/>
-        <v>2.3191239612771473E-5</v>
+        <v>5.7679865847690218E-5</v>
       </c>
       <c r="O147" s="50">
         <f t="shared" si="50"/>
@@ -59315,7 +59328,7 @@
       </c>
       <c r="AH147" s="50">
         <f t="shared" si="69"/>
-        <v>0.10604161250418173</v>
+        <v>0.13088421369612629</v>
       </c>
       <c r="AI147" s="50">
         <f t="shared" si="70"/>
@@ -59323,7 +59336,7 @@
       </c>
       <c r="AJ147" s="50">
         <f t="shared" si="71"/>
-        <v>2.984357989694725</v>
+        <v>3.0092350795129041</v>
       </c>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
@@ -59381,7 +59394,7 @@
       </c>
       <c r="N148" s="50">
         <f t="shared" si="49"/>
-        <v>5.8241806006073989E-3</v>
+        <v>1.3499192285956247E-2</v>
       </c>
       <c r="O148" s="50">
         <f t="shared" si="50"/>
@@ -59461,7 +59474,7 @@
       </c>
       <c r="AH148" s="50">
         <f t="shared" si="69"/>
-        <v>1.7572878262062632E-2</v>
+        <v>1.9791410031147146E-2</v>
       </c>
       <c r="AI148" s="50">
         <f t="shared" si="70"/>
@@ -59469,7 +59482,7 @@
       </c>
       <c r="AJ148" s="50">
         <f t="shared" si="71"/>
-        <v>5.0617461797484697</v>
+        <v>5.071639723202904</v>
       </c>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
@@ -59527,7 +59540,7 @@
       </c>
       <c r="N149" s="50">
         <f t="shared" si="49"/>
-        <v>4.080719395089201E-2</v>
+        <v>8.1127238461924142E-2</v>
       </c>
       <c r="O149" s="50">
         <f t="shared" si="50"/>
@@ -59607,7 +59620,7 @@
       </c>
       <c r="AH149" s="50">
         <f t="shared" si="69"/>
-        <v>5.215075186964754E-3</v>
+        <v>5.6886777381928806E-3</v>
       </c>
       <c r="AI149" s="50">
         <f t="shared" si="70"/>
@@ -59615,7 +59628,7 @@
       </c>
       <c r="AJ149" s="50">
         <f t="shared" si="71"/>
-        <v>11.250064349693645</v>
+        <v>11.290857996755907</v>
       </c>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
@@ -59673,7 +59686,7 @@
       </c>
       <c r="N150" s="50">
         <f t="shared" si="49"/>
-        <v>4.7339365989443563E-2</v>
+        <v>9.1988516112645552E-2</v>
       </c>
       <c r="O150" s="50">
         <f t="shared" si="50"/>
@@ -59753,7 +59766,7 @@
       </c>
       <c r="AH150" s="50">
         <f t="shared" si="69"/>
-        <v>1.2217550231012027E-3</v>
+        <v>1.3054060753120197E-3</v>
       </c>
       <c r="AI150" s="50">
         <f t="shared" si="70"/>
@@ -59761,7 +59774,7 @@
       </c>
       <c r="AJ150" s="50">
         <f t="shared" si="71"/>
-        <v>7.9416946277315983</v>
+        <v>7.9864274289070121</v>
       </c>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
@@ -59819,7 +59832,7 @@
       </c>
       <c r="N151" s="50">
         <f t="shared" si="49"/>
-        <v>1.1546454477064042E-3</v>
+        <v>2.7934335729630421E-3</v>
       </c>
       <c r="O151" s="50">
         <f t="shared" si="50"/>
@@ -59899,7 +59912,7 @@
       </c>
       <c r="AH151" s="50">
         <f t="shared" si="69"/>
-        <v>9.5161747546287975E-3</v>
+        <v>1.0522982989380283E-2</v>
       </c>
       <c r="AI151" s="50">
         <f t="shared" si="70"/>
@@ -59907,7 +59920,7 @@
       </c>
       <c r="AJ151" s="50">
         <f t="shared" si="71"/>
-        <v>1.8467809790144576</v>
+        <v>1.8494265753744654</v>
       </c>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
@@ -59965,7 +59978,7 @@
       </c>
       <c r="N152" s="50">
         <f t="shared" si="49"/>
-        <v>5.7981883491631664E-2</v>
+        <v>0.10865126322621199</v>
       </c>
       <c r="O152" s="50">
         <f t="shared" si="50"/>
@@ -60045,7 +60058,7 @@
       </c>
       <c r="AH152" s="50">
         <f t="shared" si="69"/>
-        <v>3.8507381175646525E-2</v>
+        <v>3.5415000070933157E-2</v>
       </c>
       <c r="AI152" s="50">
         <f t="shared" si="70"/>
@@ -60053,7 +60066,7 @@
       </c>
       <c r="AJ152" s="50">
         <f t="shared" si="71"/>
-        <v>71.32147911326102</v>
+        <v>71.36905611189087</v>
       </c>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
@@ -60111,7 +60124,7 @@
       </c>
       <c r="N153" s="50">
         <f t="shared" si="49"/>
-        <v>1.2264928333792736E-2</v>
+        <v>2.7377549486636139E-2</v>
       </c>
       <c r="O153" s="50">
         <f t="shared" si="50"/>
@@ -60191,7 +60204,7 @@
       </c>
       <c r="AH153" s="50">
         <f t="shared" si="69"/>
-        <v>3.5846416787250796E-3</v>
+        <v>3.8837906333232751E-3</v>
       </c>
       <c r="AI153" s="50">
         <f t="shared" si="70"/>
@@ -60199,7 +60212,7 @@
       </c>
       <c r="AJ153" s="50">
         <f t="shared" si="71"/>
-        <v>10.042593129847141</v>
+        <v>10.058004899954582</v>
       </c>
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
@@ -60257,7 +60270,7 @@
       </c>
       <c r="N154" s="50">
         <f t="shared" si="49"/>
-        <v>5.7981883491631664E-2</v>
+        <v>0.10865126322621199</v>
       </c>
       <c r="O154" s="50">
         <f t="shared" si="50"/>
@@ -60337,7 +60350,7 @@
       </c>
       <c r="AH154" s="50">
         <f t="shared" si="69"/>
-        <v>2.4525089184937166E-2</v>
+        <v>2.3217374435007831E-2</v>
       </c>
       <c r="AI154" s="50">
         <f t="shared" si="70"/>
@@ -60345,7 +60358,7 @@
       </c>
       <c r="AJ154" s="50">
         <f t="shared" si="71"/>
-        <v>20.489758353567673</v>
+        <v>20.539120018552321</v>
       </c>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
@@ -60403,7 +60416,7 @@
       </c>
       <c r="N155" s="50">
         <f t="shared" ref="N155:N174" si="85">$N$90*(($N$4-N69)^2)</f>
-        <v>5.7981883491631664E-2</v>
+        <v>0.10865126322621199</v>
       </c>
       <c r="O155" s="50">
         <f t="shared" ref="O155:O174" si="86">$O$90*(($O$4-O69)^2)</f>
@@ -60483,7 +60496,7 @@
       </c>
       <c r="AH155" s="50">
         <f t="shared" ref="AH155:AH174" si="105">$AH$90*(($AH$4-AH69)^2)</f>
-        <v>4.9209102030699179E-6</v>
+        <v>5.1462283973574559E-6</v>
       </c>
       <c r="AI155" s="50">
         <f t="shared" ref="AI155:AI174" si="106">$AI$90*(($AI$4-AI69)^2)</f>
@@ -60491,7 +60504,7 @@
       </c>
       <c r="AJ155" s="50">
         <f t="shared" ref="AJ155:AJ174" si="107">SUM(B155:AI155)</f>
-        <v>2.6734761032880541</v>
+        <v>2.7241457083408287</v>
       </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
@@ -60549,7 +60562,7 @@
       </c>
       <c r="N156" s="50">
         <f t="shared" si="85"/>
-        <v>3.2316560558905707E-3</v>
+        <v>7.6426813689365629E-3</v>
       </c>
       <c r="O156" s="50">
         <f t="shared" si="86"/>
@@ -60629,7 +60642,7 @@
       </c>
       <c r="AH156" s="50">
         <f t="shared" si="105"/>
-        <v>3.6025981271766566E-4</v>
+        <v>3.7302232246929701E-4</v>
       </c>
       <c r="AI156" s="50">
         <f t="shared" si="106"/>
@@ -60637,7 +60650,7 @@
       </c>
       <c r="AJ156" s="50">
         <f t="shared" si="107"/>
-        <v>12.497806540224724</v>
+        <v>12.502230328047522</v>
       </c>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
@@ -60695,7 +60708,7 @@
       </c>
       <c r="N157" s="50">
         <f t="shared" si="85"/>
-        <v>1.796391939851238E-4</v>
+        <v>4.5426108495278268E-4</v>
       </c>
       <c r="O157" s="50">
         <f t="shared" si="86"/>
@@ -60775,7 +60788,7 @@
       </c>
       <c r="AH157" s="50">
         <f t="shared" si="105"/>
-        <v>0.11325895823799381</v>
+        <v>0.14045911321813029</v>
       </c>
       <c r="AI157" s="50">
         <f t="shared" si="106"/>
@@ -60783,7 +60796,7 @@
       </c>
       <c r="AJ157" s="50">
         <f t="shared" si="107"/>
-        <v>3.7978635288423446</v>
+        <v>3.8253383057134482</v>
       </c>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
@@ -60841,7 +60854,7 @@
       </c>
       <c r="N158" s="50">
         <f t="shared" si="85"/>
-        <v>3.0140664304805138E-3</v>
+        <v>7.1421724019226172E-3</v>
       </c>
       <c r="O158" s="50">
         <f t="shared" si="86"/>
@@ -60921,7 +60934,7 @@
       </c>
       <c r="AH158" s="50">
         <f t="shared" si="105"/>
-        <v>1.065282716487179E-2</v>
+        <v>1.1815331709419273E-2</v>
       </c>
       <c r="AI158" s="50">
         <f t="shared" si="106"/>
@@ -60929,7 +60942,7 @@
       </c>
       <c r="AJ158" s="50">
         <f t="shared" si="107"/>
-        <v>0.46313843034288255</v>
+        <v>0.4684290408588721</v>
       </c>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
@@ -60987,7 +61000,7 @@
       </c>
       <c r="N159" s="50">
         <f t="shared" si="85"/>
-        <v>6.2000014423969491E-3</v>
+        <v>1.4333490405055656E-2</v>
       </c>
       <c r="O159" s="50">
         <f t="shared" si="86"/>
@@ -61067,7 +61080,7 @@
       </c>
       <c r="AH159" s="50">
         <f t="shared" si="105"/>
-        <v>2.2258010466312903E-2</v>
+        <v>2.5281928452706121E-2</v>
       </c>
       <c r="AI159" s="50">
         <f t="shared" si="106"/>
@@ -61075,7 +61088,7 @@
       </c>
       <c r="AJ159" s="50">
         <f t="shared" si="107"/>
-        <v>0.65013045249814772</v>
+        <v>0.66128785944719948</v>
       </c>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
@@ -61133,7 +61146,7 @@
       </c>
       <c r="N160" s="50">
         <f t="shared" si="85"/>
-        <v>6.2000014423969491E-3</v>
+        <v>1.4333490405055656E-2</v>
       </c>
       <c r="O160" s="50">
         <f t="shared" si="86"/>
@@ -61213,7 +61226,7 @@
       </c>
       <c r="AH160" s="50">
         <f t="shared" si="105"/>
-        <v>1.3955534492799977E-2</v>
+        <v>1.5600280630584535E-2</v>
       </c>
       <c r="AI160" s="50">
         <f t="shared" si="106"/>
@@ -61221,7 +61234,7 @@
       </c>
       <c r="AJ160" s="50">
         <f t="shared" si="107"/>
-        <v>3.7205306882386453</v>
+        <v>3.7303089233390887</v>
       </c>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
@@ -61279,7 +61292,7 @@
       </c>
       <c r="N161" s="50">
         <f t="shared" si="85"/>
-        <v>6.0246523524300601E-4</v>
+        <v>1.5386406188607836E-3</v>
       </c>
       <c r="O161" s="50">
         <f t="shared" si="86"/>
@@ -61359,7 +61372,7 @@
       </c>
       <c r="AH161" s="50">
         <f t="shared" si="105"/>
-        <v>5.2465863302626217E-2</v>
+        <v>6.1970943908805531E-2</v>
       </c>
       <c r="AI161" s="50">
         <f t="shared" si="106"/>
@@ -61367,7 +61380,7 @@
       </c>
       <c r="AJ161" s="50">
         <f t="shared" si="107"/>
-        <v>0.81126880857727213</v>
+        <v>0.82171006456706919</v>
       </c>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
@@ -61425,7 +61438,7 @@
       </c>
       <c r="N162" s="50">
         <f t="shared" si="85"/>
-        <v>2.6125612759991903E-3</v>
+        <v>6.2144349904970399E-3</v>
       </c>
       <c r="O162" s="50">
         <f t="shared" si="86"/>
@@ -61505,7 +61518,7 @@
       </c>
       <c r="AH162" s="50">
         <f t="shared" si="105"/>
-        <v>1.5461553460492307E-2</v>
+        <v>1.7339733489190708E-2</v>
       </c>
       <c r="AI162" s="50">
         <f t="shared" si="106"/>
@@ -61513,7 +61526,7 @@
       </c>
       <c r="AJ162" s="50">
         <f t="shared" si="107"/>
-        <v>0.72884159882080202</v>
+        <v>0.73432165256399839</v>
       </c>
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
@@ -61571,7 +61584,7 @@
       </c>
       <c r="N163" s="50">
         <f t="shared" si="85"/>
-        <v>1.1546454477064042E-3</v>
+        <v>2.7934335729630421E-3</v>
       </c>
       <c r="O163" s="50">
         <f t="shared" si="86"/>
@@ -61651,7 +61664,7 @@
       </c>
       <c r="AH163" s="50">
         <f t="shared" si="105"/>
-        <v>4.8552768576847163E-2</v>
+        <v>5.7112221394792516E-2</v>
       </c>
       <c r="AI163" s="50">
         <f t="shared" si="106"/>
@@ -61659,7 +61672,7 @@
       </c>
       <c r="AJ163" s="50">
         <f t="shared" si="107"/>
-        <v>0.93814929498592614</v>
+        <v>0.94834753592912813</v>
       </c>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
@@ -61717,7 +61730,7 @@
       </c>
       <c r="N164" s="50">
         <f t="shared" si="85"/>
-        <v>2.6864923039011428E-2</v>
+        <v>5.6242088452874935E-2</v>
       </c>
       <c r="O164" s="50">
         <f t="shared" si="86"/>
@@ -61797,7 +61810,7 @@
       </c>
       <c r="AH164" s="50">
         <f t="shared" si="105"/>
-        <v>3.7004614190166063E-4</v>
+        <v>3.8309651309071518E-4</v>
       </c>
       <c r="AI164" s="50">
         <f t="shared" si="106"/>
@@ -61805,7 +61818,7 @@
       </c>
       <c r="AJ164" s="50">
         <f t="shared" si="107"/>
-        <v>5.3457356453555631</v>
+        <v>5.3751258611406163</v>
       </c>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
@@ -61863,7 +61876,7 @@
       </c>
       <c r="N165" s="50">
         <f t="shared" si="85"/>
-        <v>4.080719395089201E-2</v>
+        <v>8.1127238461924142E-2</v>
       </c>
       <c r="O165" s="50">
         <f t="shared" si="86"/>
@@ -61943,7 +61956,7 @@
       </c>
       <c r="AH165" s="50">
         <f t="shared" si="105"/>
-        <v>1.6876382268295354E-3</v>
+        <v>1.8094324995041864E-3</v>
       </c>
       <c r="AI165" s="50">
         <f t="shared" si="106"/>
@@ -61951,7 +61964,7 @@
       </c>
       <c r="AJ165" s="50">
         <f t="shared" si="107"/>
-        <v>2.0846439933553049</v>
+        <v>2.1250858321390118</v>
       </c>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
@@ -62009,7 +62022,7 @@
       </c>
       <c r="N166" s="50">
         <f t="shared" si="85"/>
-        <v>4.080719395089201E-2</v>
+        <v>8.1127238461924142E-2</v>
       </c>
       <c r="O166" s="50">
         <f t="shared" si="86"/>
@@ -62089,7 +62102,7 @@
       </c>
       <c r="AH166" s="50">
         <f t="shared" si="105"/>
-        <v>2.5390856936307285E-2</v>
+        <v>2.8988607600879641E-2</v>
       </c>
       <c r="AI166" s="50">
         <f t="shared" si="106"/>
@@ -62097,7 +62110,7 @@
       </c>
       <c r="AJ166" s="50">
         <f t="shared" si="107"/>
-        <v>0.62781521864272327</v>
+        <v>0.67173301381832773</v>
       </c>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
@@ -62155,7 +62168,7 @@
       </c>
       <c r="N167" s="50">
         <f t="shared" si="85"/>
-        <v>1.0293628452772105E-3</v>
+        <v>2.6463067111615712E-3</v>
       </c>
       <c r="O167" s="50">
         <f t="shared" si="86"/>
@@ -62235,7 +62248,7 @@
       </c>
       <c r="AH167" s="50">
         <f t="shared" si="105"/>
-        <v>0.31740261853332374</v>
+        <v>0.4311793607545214</v>
       </c>
       <c r="AI167" s="50">
         <f t="shared" si="106"/>
@@ -62243,7 +62256,7 @@
       </c>
       <c r="AJ167" s="50">
         <f t="shared" si="107"/>
-        <v>2.2892298464899836</v>
+        <v>2.404623532577066</v>
       </c>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
@@ -62301,7 +62314,7 @@
       </c>
       <c r="N168" s="50">
         <f t="shared" si="85"/>
-        <v>6.5978864891571443E-3</v>
+        <v>1.5213088787038946E-2</v>
       </c>
       <c r="O168" s="50">
         <f t="shared" si="86"/>
@@ -62381,7 +62394,7 @@
       </c>
       <c r="AH168" s="50">
         <f t="shared" si="105"/>
-        <v>8.098174749886887E-2</v>
+        <v>9.8142077956235335E-2</v>
       </c>
       <c r="AI168" s="50">
         <f t="shared" si="106"/>
@@ -62389,7 +62402,7 @@
       </c>
       <c r="AJ168" s="50">
         <f t="shared" si="107"/>
-        <v>3.4049463955606623</v>
+        <v>3.4307219283159105</v>
       </c>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
@@ -62447,7 +62460,7 @@
       </c>
       <c r="N169" s="50">
         <f t="shared" si="85"/>
-        <v>9.712427952456626E-4</v>
+        <v>2.4948929573745107E-3</v>
       </c>
       <c r="O169" s="50">
         <f t="shared" si="86"/>
@@ -62527,7 +62540,7 @@
       </c>
       <c r="AH169" s="50">
         <f t="shared" si="105"/>
-        <v>2.0899800287017031E-2</v>
+        <v>2.3683482680861005E-2</v>
       </c>
       <c r="AI169" s="50">
         <f t="shared" si="106"/>
@@ -62535,7 +62548,7 @@
       </c>
       <c r="AJ169" s="50">
         <f t="shared" si="107"/>
-        <v>14.931676683419473</v>
+        <v>14.935984015975446</v>
       </c>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
@@ -62593,7 +62606,7 @@
       </c>
       <c r="N170" s="50">
         <f t="shared" si="85"/>
-        <v>3.3459062571654999E-3</v>
+        <v>8.7928606864310799E-3</v>
       </c>
       <c r="O170" s="50">
         <f t="shared" si="86"/>
@@ -62673,7 +62686,7 @@
       </c>
       <c r="AH170" s="50">
         <f t="shared" si="105"/>
-        <v>1.2048484877590084E-3</v>
+        <v>1.2357185744261731E-3</v>
       </c>
       <c r="AI170" s="50">
         <f t="shared" si="106"/>
@@ -62681,7 +62694,7 @@
       </c>
       <c r="AJ170" s="50">
         <f t="shared" si="107"/>
-        <v>2.9318008395395259</v>
+        <v>2.9372786640554582</v>
       </c>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
@@ -62739,7 +62752,7 @@
       </c>
       <c r="N171" s="50">
         <f t="shared" si="85"/>
-        <v>1.960764061918252E-2</v>
+        <v>4.2291385337819384E-2</v>
       </c>
       <c r="O171" s="50">
         <f t="shared" si="86"/>
@@ -62819,7 +62832,7 @@
       </c>
       <c r="AH171" s="50">
         <f t="shared" si="105"/>
-        <v>1.4991784635935252E-2</v>
+        <v>1.6796290671591101E-2</v>
       </c>
       <c r="AI171" s="50">
         <f t="shared" si="106"/>
@@ -62827,7 +62840,7 @@
       </c>
       <c r="AJ171" s="50">
         <f t="shared" si="107"/>
-        <v>4.2257543107572211</v>
+        <v>4.2502425615115138</v>
       </c>
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
@@ -62885,7 +62898,7 @@
       </c>
       <c r="N172" s="50">
         <f t="shared" si="85"/>
-        <v>5.7981883491631664E-2</v>
+        <v>0.10865126322621199</v>
       </c>
       <c r="O172" s="50">
         <f t="shared" si="86"/>
@@ -62965,7 +62978,7 @@
       </c>
       <c r="AH172" s="50">
         <f t="shared" si="105"/>
-        <v>0.32218323039390928</v>
+        <v>0.18977347704142797</v>
       </c>
       <c r="AI172" s="50">
         <f t="shared" si="106"/>
@@ -62973,7 +62986,7 @@
       </c>
       <c r="AJ172" s="50">
         <f t="shared" si="107"/>
-        <v>8.3548880258762903</v>
+        <v>8.2731476522583893</v>
       </c>
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
@@ -63031,7 +63044,7 @@
       </c>
       <c r="N173" s="50">
         <f t="shared" si="85"/>
-        <v>1.825544221352431E-2</v>
+        <v>3.9608790001022444E-2</v>
       </c>
       <c r="O173" s="50">
         <f t="shared" si="86"/>
@@ -63111,7 +63124,7 @@
       </c>
       <c r="AH173" s="50">
         <f t="shared" si="105"/>
-        <v>6.2007292653236269E-2</v>
+        <v>5.4722611046104229E-2</v>
       </c>
       <c r="AI173" s="50">
         <f t="shared" si="106"/>
@@ -63119,7 +63132,7 @@
       </c>
       <c r="AJ173" s="50">
         <f t="shared" si="107"/>
-        <v>22.544058768708446</v>
+        <v>22.55812743488881</v>
       </c>
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
@@ -63177,7 +63190,7 @@
       </c>
       <c r="N174" s="50">
         <f t="shared" si="85"/>
-        <v>0.13213749452868198</v>
+        <v>0.18568401664825276</v>
       </c>
       <c r="O174" s="50">
         <f t="shared" si="86"/>
@@ -63257,7 +63270,7 @@
       </c>
       <c r="AH174" s="50">
         <f t="shared" si="105"/>
-        <v>5.5894674929320796E-3</v>
+        <v>5.5910824441638115E-3</v>
       </c>
       <c r="AI174" s="50">
         <f t="shared" si="106"/>
@@ -63265,16 +63278,11 @@
       </c>
       <c r="AJ174" s="50">
         <f t="shared" si="107"/>
-        <v>12.598795833170584</v>
+        <v>12.652343970241388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="O2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -63283,6 +63291,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -63296,8 +63309,8 @@
   </sheetPr>
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" activeCellId="1" sqref="A46 A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63315,849 +63328,853 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="str">
+      <c r="A2" s="72" t="str">
         <f>'Нормировка и расчет'!A158</f>
         <v>Красноярский край</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="70">
         <f>'Нормировка и расчет'!AJ158</f>
-        <v>0.46313843034288255</v>
+        <v>0.4684290408588721</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="str">
+      <c r="A3" s="70" t="str">
         <f>'Нормировка и расчет'!A144</f>
         <v>Саратовская область</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="70">
         <f>'Нормировка и расчет'!AJ144</f>
-        <v>0.56729434865592698</v>
+        <v>0.56831448295044618</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="str">
+      <c r="A4" s="70" t="str">
+        <f>'Нормировка и расчет'!A124</f>
+        <v>Волгоградская область</v>
+      </c>
+      <c r="B4" s="70">
+        <f>'Нормировка и расчет'!AJ124</f>
+        <v>0.59105557814950727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="str">
         <f>'Нормировка и расчет'!A136</f>
         <v>Республика Татарстан</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B5" s="70">
         <f>'Нормировка и расчет'!AJ136</f>
-        <v>0.57702165144921791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="str">
-        <f>'Нормировка и расчет'!A124</f>
-        <v>Волгоградская область</v>
-      </c>
-      <c r="B5" s="52">
-        <f>'Нормировка и расчет'!AJ124</f>
-        <v>0.58084045568002285</v>
+        <v>0.60231330903900537</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="str">
+      <c r="A6" s="72" t="str">
+        <f>'Нормировка и расчет'!A159</f>
+        <v>Иркутская область</v>
+      </c>
+      <c r="B6" s="70">
+        <f>'Нормировка и расчет'!AJ159</f>
+        <v>0.66128785944719948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="str">
         <f>'Нормировка и расчет'!A166</f>
         <v>Приморский край</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B7" s="70">
         <f>'Нормировка и расчет'!AJ166</f>
-        <v>0.62781521864272327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="str">
-        <f>'Нормировка и расчет'!A159</f>
-        <v>Иркутская область</v>
-      </c>
-      <c r="B7" s="53">
-        <f>'Нормировка и расчет'!AJ159</f>
-        <v>0.65013045249814772</v>
+        <v>0.67173301381832773</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="str">
+      <c r="A8" s="72" t="str">
         <f>'Нормировка и расчет'!A162</f>
         <v>Омская область</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="70">
         <f>'Нормировка и расчет'!AJ162</f>
-        <v>0.72884159882080202</v>
+        <v>0.73432165256399839</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="str">
+      <c r="A9" s="70" t="str">
         <f>'Нормировка и расчет'!A139</f>
         <v>Кировская область</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="70">
         <f>'Нормировка и расчет'!AJ139</f>
-        <v>0.77048352072229165</v>
+        <v>0.77294806942980354</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="str">
+      <c r="A10" s="70" t="str">
         <f>'Нормировка и расчет'!A161</f>
         <v xml:space="preserve">Новосибирская область </v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="70">
         <f>'Нормировка и расчет'!AJ161</f>
-        <v>0.81126880857727213</v>
+        <v>0.82171006456706919</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="str">
+      <c r="A11" s="69" t="str">
         <f>'Нормировка и расчет'!A96</f>
         <v>Калужская область</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="69">
         <f>'Нормировка и расчет'!AJ96</f>
-        <v>0.91147063573862919</v>
+        <v>0.91836900116316589</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="str">
+      <c r="A12" s="69" t="str">
         <f>'Нормировка и расчет'!A145</f>
         <v>Ульяновская область</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="69">
         <f>'Нормировка и расчет'!AJ145</f>
-        <v>0.91415328675765228</v>
+        <v>0.91864295385277273</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="str">
+      <c r="A13" s="69" t="str">
         <f>'Нормировка и расчет'!A163</f>
         <v>Томская область</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="69">
         <f>'Нормировка и расчет'!AJ163</f>
-        <v>0.93814929498592614</v>
+        <v>0.94834753592912813</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="str">
+      <c r="A14" s="69" t="str">
+        <f>'Нормировка и расчет'!A105</f>
+        <v>Тверская область</v>
+      </c>
+      <c r="B14" s="69">
+        <f>'Нормировка и расчет'!AJ105</f>
+        <v>1.0011392865266355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="str">
         <f>'Нормировка и расчет'!A140</f>
         <v xml:space="preserve">Нижегородская область </v>
       </c>
-      <c r="B14" s="53">
+      <c r="B15" s="69">
         <f>'Нормировка и расчет'!AJ140</f>
-        <v>0.99611297594698145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="str">
-        <f>'Нормировка и расчет'!A105</f>
-        <v>Тверская область</v>
-      </c>
-      <c r="B15" s="53">
-        <f>'Нормировка и расчет'!AJ105</f>
-        <v>0.99958679485082513</v>
+        <v>1.0128799652913691</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="str">
+      <c r="A16" s="69" t="str">
         <f>'Нормировка и расчет'!A110</f>
         <v>Республика Коми</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="69">
         <f>'Нормировка и расчет'!AJ110</f>
-        <v>1.0071617079821282</v>
+        <v>1.013958917433005</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="str">
+      <c r="A17" s="69" t="str">
         <f>'Нормировка и расчет'!A113</f>
         <v>Вологодская область</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="69">
         <f>'Нормировка и расчет'!AJ113</f>
-        <v>1.0111160303999744</v>
+        <v>1.0356129901071311</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="str">
+      <c r="A18" s="69" t="str">
         <f>'Нормировка и расчет'!A114</f>
         <v>Калининградская область</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="69">
         <f>'Нормировка и расчет'!AJ114</f>
-        <v>1.0778795652805937</v>
+        <v>1.1197509212128622</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="str">
+      <c r="A19" s="71" t="str">
         <f>'Нормировка и расчет'!A143</f>
         <v>Самарская область</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="69">
         <f>'Нормировка и расчет'!AJ143</f>
-        <v>1.1064783742303816</v>
+        <v>1.1211140978708773</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="str">
+      <c r="A20" s="69" t="str">
+        <f>'Нормировка и расчет'!A93</f>
+        <v>Владимирская область</v>
+      </c>
+      <c r="B20" s="69">
+        <f>'Нормировка и расчет'!AJ93</f>
+        <v>1.1736056912561796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="str">
         <f>'Нормировка и расчет'!A106</f>
         <v>Тульская область</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B21" s="69">
         <f>'Нормировка и расчет'!AJ106</f>
-        <v>1.1726169965545676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="str">
-        <f>'Нормировка и расчет'!A93</f>
-        <v>Владимирская область</v>
-      </c>
-      <c r="B21" s="53">
-        <f>'Нормировка и расчет'!AJ93</f>
-        <v>1.1727798164833558</v>
+        <v>1.1760395401916304</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="str">
+      <c r="A22" s="69" t="str">
         <f>'Нормировка и расчет'!A103</f>
         <v>Смоленская область</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="69">
         <f>'Нормировка и расчет'!AJ103</f>
-        <v>1.3310966970162834</v>
+        <v>1.3402378574613814</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="str">
+      <c r="A23" s="69" t="str">
+        <f>'Нормировка и расчет'!A97</f>
+        <v>Костромская область</v>
+      </c>
+      <c r="B23" s="69">
+        <f>'Нормировка и расчет'!AJ97</f>
+        <v>1.6742571369928045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="69" t="str">
         <f>'Нормировка и расчет'!A109</f>
         <v>Республика Карелия</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B24" s="69">
         <f>'Нормировка и расчет'!AJ109</f>
-        <v>1.6345042420380873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="str">
-        <f>'Нормировка и расчет'!A97</f>
-        <v>Костромская область</v>
-      </c>
-      <c r="B24" s="53">
-        <f>'Нормировка и расчет'!AJ97</f>
-        <v>1.6590752470692822</v>
+        <v>1.6800582794203045</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="str">
+      <c r="A25" s="69" t="str">
         <f>'Нормировка и расчет'!A111</f>
         <v>Архангельская область</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="69">
         <f>'Нормировка и расчет'!AJ111</f>
-        <v>1.7232137828393663</v>
+        <v>1.7348662186065409</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="str">
+      <c r="A26" s="52" t="str">
         <f>'Нормировка и расчет'!A102</f>
         <v>Рязанская область</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="52">
         <f>'Нормировка и расчет'!AJ102</f>
-        <v>1.788488516429501</v>
+        <v>1.7943324081208787</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="str">
+      <c r="A27" s="68" t="str">
         <f>'Нормировка и расчет'!A151</f>
         <v>Челябинская область</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="52">
         <f>'Нормировка и расчет'!AJ151</f>
-        <v>1.8467809790144576</v>
+        <v>1.8494265753744654</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="str">
+      <c r="A28" s="52" t="str">
         <f>'Нормировка и расчет'!A107</f>
         <v>Ярославская область</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="52">
         <f>'Нормировка и расчет'!AJ107</f>
-        <v>1.9651055683775878</v>
+        <v>1.9680736767458138</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="str">
+      <c r="A29" s="52" t="str">
+        <f>'Нормировка и расчет'!A117</f>
+        <v>Новгородская область</v>
+      </c>
+      <c r="B29" s="52">
+        <f>'Нормировка и расчет'!AJ117</f>
+        <v>2.0896376771118228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="str">
         <f>'Нормировка и расчет'!A165</f>
         <v>Камчатский край</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B30" s="52">
         <f>'Нормировка и расчет'!AJ165</f>
-        <v>2.0846439933553049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="str">
-        <f>'Нормировка и расчет'!A117</f>
-        <v>Новгородская область</v>
-      </c>
-      <c r="B30" s="53">
-        <f>'Нормировка и расчет'!AJ117</f>
-        <v>2.084920665591512</v>
+        <v>2.1250858321390118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="str">
+      <c r="A31" s="52" t="str">
+        <f>'Нормировка и расчет'!A92</f>
+        <v>Брянская область</v>
+      </c>
+      <c r="B31" s="52">
+        <f>'Нормировка и расчет'!AJ92</f>
+        <v>2.1324333273864946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="str">
         <f>'Нормировка и расчет'!A95</f>
         <v>Ивановская область</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B32" s="52">
         <f>'Нормировка и расчет'!AJ95</f>
-        <v>2.1216089639185149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="str">
-        <f>'Нормировка и расчет'!A92</f>
-        <v>Брянская область</v>
-      </c>
-      <c r="B32" s="53">
-        <f>'Нормировка и расчет'!AJ92</f>
-        <v>2.1226822908428642</v>
+        <v>2.1395251508782387</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="str">
+      <c r="A33" s="52" t="str">
         <f>'Нормировка и расчет'!A167</f>
         <v xml:space="preserve">Хабаровский край </v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="52">
         <f>'Нормировка и расчет'!AJ167</f>
-        <v>2.2892298464899836</v>
+        <v>2.404623532577066</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="str">
+      <c r="A34" s="52" t="str">
         <f>'Нормировка и расчет'!A125</f>
         <v>Ростовская область</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="52">
         <f>'Нормировка и расчет'!AJ125</f>
-        <v>2.4528139100490418</v>
+        <v>2.4596562111102194</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="str">
+      <c r="A35" s="52" t="str">
         <f>'Нормировка и расчет'!A118</f>
         <v>Псковская область</v>
       </c>
-      <c r="B35" s="53">
+      <c r="B35" s="52">
         <f>'Нормировка и расчет'!AJ118</f>
-        <v>2.4840990918126797</v>
+        <v>2.5106557287035174</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="str">
+      <c r="A36" s="52" t="str">
         <f>'Нормировка и расчет'!A100</f>
         <v>Московская область</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="52">
         <f>'Нормировка и расчет'!AJ100</f>
-        <v>2.586925004628033</v>
+        <v>2.5949383390375855</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="str">
+      <c r="A37" s="52" t="str">
         <f>'Нормировка и расчет'!A155</f>
         <v>Республика Хакасия</v>
       </c>
-      <c r="B37" s="53">
+      <c r="B37" s="52">
         <f>'Нормировка и расчет'!AJ155</f>
-        <v>2.6734761032880541</v>
+        <v>2.7241457083408287</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="str">
+      <c r="A38" s="52" t="str">
         <f>'Нормировка и расчет'!A142</f>
         <v>Пензенская область</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="52">
         <f>'Нормировка и расчет'!AJ142</f>
-        <v>2.9090443980583234</v>
+        <v>2.9092098598737475</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="str">
+      <c r="A39" s="52" t="str">
         <f>'Нормировка и расчет'!A91</f>
         <v>Белгородская область</v>
       </c>
-      <c r="B39" s="53">
+      <c r="B39" s="52">
         <f>'Нормировка и расчет'!AJ91</f>
-        <v>2.926960665842139</v>
+        <v>2.9289461186283279</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="str">
+      <c r="A40" s="52" t="str">
         <f>'Нормировка и расчет'!A170</f>
         <v>Сахалинская область</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="52">
         <f>'Нормировка и расчет'!AJ170</f>
-        <v>2.9318008395395259</v>
+        <v>2.9372786640554582</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="str">
+      <c r="A41" s="68" t="str">
         <f>'Нормировка и расчет'!A94</f>
         <v>Воронежская область</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B41" s="52">
         <f>'Нормировка и расчет'!AJ94</f>
-        <v>2.9780709640011209</v>
+        <v>2.9812306833014612</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="str">
+      <c r="A42" s="52" t="str">
         <f>'Нормировка и расчет'!A147</f>
         <v xml:space="preserve">Свердловская область </v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="52">
         <f>'Нормировка и расчет'!AJ147</f>
-        <v>2.984357989694725</v>
+        <v>3.0092350795129041</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="str">
+      <c r="A43" s="52" t="str">
         <f>'Нормировка и расчет'!A98</f>
         <v>Курская область</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="52">
         <f>'Нормировка и расчет'!AJ98</f>
-        <v>3.0551111533123412</v>
+        <v>3.055651340933291</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="str">
+      <c r="A44" s="52" t="str">
         <f>'Нормировка и расчет'!A168</f>
         <v>Амурская область</v>
       </c>
-      <c r="B44" s="53">
+      <c r="B44" s="52">
         <f>'Нормировка и расчет'!AJ168</f>
-        <v>3.4049463955606623</v>
+        <v>3.4307219283159105</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="str">
+      <c r="A45" s="52" t="str">
         <f>'Нормировка и расчет'!A123</f>
         <v>Астраханская область</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B45" s="52">
         <f>'Нормировка и расчет'!AJ123</f>
-        <v>3.4739767467899174</v>
+        <v>3.4753516749028912</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="str">
+      <c r="A46" s="68" t="str">
         <f>'Нормировка и расчет'!A137</f>
         <v>Удмуртская Республика</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="52">
         <f>'Нормировка и расчет'!AJ137</f>
-        <v>3.5603380598357215</v>
+        <v>3.5648115078285905</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="str">
+      <c r="A47" s="68" t="str">
         <f>'Нормировка и расчет'!A160</f>
         <v>Кемеровская область</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="52">
         <f>'Нормировка и расчет'!AJ160</f>
-        <v>3.7205306882386453</v>
+        <v>3.7303089233390887</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="str">
+      <c r="A48" s="52" t="str">
         <f>'Нормировка и расчет'!A101</f>
         <v>Орловская область</v>
       </c>
-      <c r="B48" s="53">
+      <c r="B48" s="52">
         <f>'Нормировка и расчет'!AJ101</f>
-        <v>3.7975785936407349</v>
+        <v>3.82373624388027</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="str">
+      <c r="A49" s="52" t="str">
         <f>'Нормировка и расчет'!A157</f>
         <v>Забайкальский край</v>
       </c>
-      <c r="B49" s="53">
+      <c r="B49" s="52">
         <f>'Нормировка и расчет'!AJ157</f>
-        <v>3.7978635288423446</v>
+        <v>3.8253383057134482</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="str">
+      <c r="A50" s="52" t="str">
         <f>'Нормировка и расчет'!A171</f>
         <v>Еврейская автономная область</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="52">
         <f>'Нормировка и расчет'!AJ171</f>
-        <v>4.2257543107572211</v>
+        <v>4.2502425615115138</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="str">
+      <c r="A51" s="52" t="str">
         <f>'Нормировка и расчет'!A134</f>
         <v>Республика Марий Эл</v>
       </c>
-      <c r="B51" s="53">
+      <c r="B51" s="52">
         <f>'Нормировка и расчет'!AJ134</f>
-        <v>4.2936055069724777</v>
+        <v>4.2950593672507162</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="str">
+      <c r="A52" s="52" t="str">
         <f>'Нормировка и расчет'!A115</f>
         <v>Ленинградская область</v>
       </c>
-      <c r="B52" s="53">
+      <c r="B52" s="52">
         <f>'Нормировка и расчет'!AJ115</f>
-        <v>5.002190425694339</v>
+        <v>5.015678467554701</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="str">
+      <c r="A53" s="52" t="str">
+        <f>'Нормировка и расчет'!A99</f>
+        <v>Липецкая область</v>
+      </c>
+      <c r="B53" s="52">
+        <f>'Нормировка и расчет'!AJ99</f>
+        <v>5.0692788879632156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="str">
         <f>'Нормировка и расчет'!A148</f>
         <v>Тюменская область</v>
       </c>
-      <c r="B53" s="53">
+      <c r="B54" s="52">
         <f>'Нормировка и расчет'!AJ148</f>
-        <v>5.0617461797484697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="str">
-        <f>'Нормировка и расчет'!A99</f>
-        <v>Липецкая область</v>
-      </c>
-      <c r="B54" s="53">
-        <f>'Нормировка и расчет'!AJ99</f>
-        <v>5.0660110208547318</v>
+        <v>5.071639723202904</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="str">
+      <c r="A55" s="52" t="str">
         <f>'Нормировка и расчет'!A164</f>
         <v>Республика Саха (Якутия)</v>
       </c>
-      <c r="B55" s="53">
+      <c r="B55" s="52">
         <f>'Нормировка и расчет'!AJ164</f>
-        <v>5.3457356453555631</v>
+        <v>5.3751258611406163</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="str">
+      <c r="A56" s="52" t="str">
         <f>'Нормировка и расчет'!A130</f>
         <v>Республика Северная Осетия-Алания</v>
       </c>
-      <c r="B56" s="53">
+      <c r="B56" s="52">
         <f>'Нормировка и расчет'!AJ130</f>
-        <v>6.0529961775691845</v>
+        <v>6.1036772189588655</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="str">
+      <c r="A57" s="52" t="str">
         <f>'Нормировка и расчет'!A112</f>
         <v>Ненецкий автономный округ</v>
       </c>
-      <c r="B57" s="53">
+      <c r="B57" s="52">
         <f>'Нормировка и расчет'!AJ112</f>
-        <v>6.4108943509507661</v>
+        <v>6.4704808530904545</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="53" t="str">
+      <c r="A58" s="52" t="str">
         <f>'Нормировка и расчет'!A133</f>
         <v>Республика Башкортостан</v>
       </c>
-      <c r="B58" s="53">
+      <c r="B58" s="52">
         <f>'Нормировка и расчет'!AJ133</f>
-        <v>6.4851751065508187</v>
+        <v>6.4867246078711531</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="str">
+      <c r="A59" s="52" t="str">
         <f>'Нормировка и расчет'!A135</f>
         <v>Республика Мордовия</v>
       </c>
-      <c r="B59" s="53">
+      <c r="B59" s="52">
         <f>'Нормировка и расчет'!AJ135</f>
-        <v>7.132393589304221</v>
+        <v>7.1645401392660064</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="53" t="str">
+      <c r="A60" s="52" t="str">
         <f>'Нормировка и расчет'!A146</f>
         <v>Курганская область</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="52">
         <f>'Нормировка и расчет'!AJ146</f>
-        <v>7.2114005345639551</v>
+        <v>7.2167950483658387</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="str">
+      <c r="A61" s="52" t="str">
         <f>'Нормировка и расчет'!A150</f>
         <v>Ямало-Ненецкий автономный округ</v>
       </c>
-      <c r="B61" s="53">
+      <c r="B61" s="52">
         <f>'Нормировка и расчет'!AJ150</f>
-        <v>7.9416946277315983</v>
+        <v>7.9864274289070121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="str">
+      <c r="A62" s="52" t="str">
         <f>'Нормировка и расчет'!A138</f>
         <v>Чувашская Республика</v>
       </c>
-      <c r="B62" s="53">
+      <c r="B62" s="52">
         <f>'Нормировка и расчет'!AJ138</f>
-        <v>8.0534595533048812</v>
+        <v>8.0566388588197881</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="str">
+      <c r="A63" s="52" t="str">
         <f>'Нормировка и расчет'!A172</f>
         <v>Чукотский автономный округ</v>
       </c>
-      <c r="B63" s="53">
+      <c r="B63" s="52">
         <f>'Нормировка и расчет'!AJ172</f>
-        <v>8.3548880258762903</v>
+        <v>8.2731476522583893</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="str">
+      <c r="A64" s="52" t="str">
         <f>'Нормировка и расчет'!A141</f>
         <v>Оренбургская область</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="52">
         <f>'Нормировка и расчет'!AJ141</f>
-        <v>8.453412532858497</v>
+        <v>8.4655318044489114</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="str">
+      <c r="A65" s="52" t="str">
         <f>'Нормировка и расчет'!A104</f>
         <v>Тамбовская область</v>
       </c>
-      <c r="B65" s="53">
+      <c r="B65" s="52">
         <f>'Нормировка и расчет'!AJ104</f>
-        <v>9.3973005333904052</v>
+        <v>9.3978817934101286</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="53" t="str">
+      <c r="A66" s="52" t="str">
         <f>'Нормировка и расчет'!A153</f>
         <v>Республика Бурятия</v>
       </c>
-      <c r="B66" s="53">
+      <c r="B66" s="52">
         <f>'Нормировка и расчет'!AJ153</f>
-        <v>10.042593129847141</v>
+        <v>10.058004899954582</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="str">
+      <c r="A67" s="52" t="str">
         <f>'Нормировка и расчет'!A116</f>
         <v>Мурманская область</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="52">
         <f>'Нормировка и расчет'!AJ116</f>
-        <v>10.198791340999962</v>
+        <v>10.214968789724123</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="53" t="str">
+      <c r="A68" s="52" t="str">
         <f>'Нормировка и расчет'!A132</f>
         <v>Ставропольский край</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="52">
         <f>'Нормировка и расчет'!AJ132</f>
-        <v>10.251447135454473</v>
+        <v>10.256319297184614</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="str">
+      <c r="A69" s="52" t="str">
         <f>'Нормировка и расчет'!A149</f>
         <v>Ханты-Мансийский автономный округ-Югра</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="52">
         <f>'Нормировка и расчет'!AJ149</f>
-        <v>11.250064349693645</v>
+        <v>11.290857996755907</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="53" t="str">
+      <c r="A70" s="52" t="str">
         <f>'Нормировка и расчет'!A156</f>
         <v>Алтайский край</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="52">
         <f>'Нормировка и расчет'!AJ156</f>
-        <v>12.497806540224724</v>
+        <v>12.502230328047522</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="str">
+      <c r="A71" s="52" t="str">
         <f>'Нормировка и расчет'!A174</f>
         <v>г. Севастополь</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="52">
         <f>'Нормировка и расчет'!AJ174</f>
-        <v>12.598795833170584</v>
+        <v>12.652343970241388</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="str">
+      <c r="A72" s="52" t="str">
         <f>'Нормировка и расчет'!A169</f>
         <v>Магаданская область</v>
       </c>
-      <c r="B72" s="53">
+      <c r="B72" s="52">
         <f>'Нормировка и расчет'!AJ169</f>
-        <v>14.931676683419473</v>
+        <v>14.935984015975446</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="str">
+      <c r="A73" s="52" t="str">
         <f>'Нормировка и расчет'!A122</f>
         <v>Краснодарский край</v>
       </c>
-      <c r="B73" s="53">
+      <c r="B73" s="52">
         <f>'Нормировка и расчет'!AJ122</f>
-        <v>15.066264162150519</v>
+        <v>15.093205840431889</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="str">
+      <c r="A74" s="52" t="str">
         <f>'Нормировка и расчет'!A128</f>
         <v>Кабардино-Балкарская Республика</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="52">
         <f>'Нормировка и расчет'!AJ128</f>
-        <v>19.680489492013486</v>
+        <v>19.68370963294819</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="str">
+      <c r="A75" s="52" t="str">
         <f>'Нормировка и расчет'!A154</f>
         <v>Республика Тыва</v>
       </c>
-      <c r="B75" s="53">
+      <c r="B75" s="52">
         <f>'Нормировка и расчет'!AJ154</f>
-        <v>20.489758353567673</v>
+        <v>20.539120018552321</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="53" t="str">
+      <c r="A76" s="52" t="str">
         <f>'Нормировка и расчет'!A119</f>
         <v>г. Санкт-Петербург</v>
       </c>
-      <c r="B76" s="53">
+      <c r="B76" s="52">
         <f>'Нормировка и расчет'!AJ119</f>
-        <v>21.783693531769085</v>
+        <v>21.789505320230102</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="str">
+      <c r="A77" s="52" t="str">
         <f>'Нормировка и расчет'!A173</f>
         <v>Республика Крым</v>
       </c>
-      <c r="B77" s="53">
+      <c r="B77" s="52">
         <f>'Нормировка и расчет'!AJ173</f>
-        <v>22.544058768708446</v>
+        <v>22.55812743488881</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="str">
+      <c r="A78" s="52" t="str">
         <f>'Нормировка и расчет'!A108</f>
         <v>г. Москва</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="52">
         <f>'Нормировка и расчет'!AJ108</f>
-        <v>24.780035266093883</v>
+        <v>24.864138203694242</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="53" t="str">
+      <c r="A79" s="52" t="str">
         <f>'Нормировка и расчет'!A120</f>
         <v>Республика Адыгея</v>
       </c>
-      <c r="B79" s="53">
+      <c r="B79" s="52">
         <f>'Нормировка и расчет'!AJ120</f>
-        <v>27.885054381508287</v>
+        <v>27.885968940354282</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="str">
+      <c r="A80" s="52" t="str">
         <f>'Нормировка и расчет'!A121</f>
         <v>Республика Калмыкия</v>
       </c>
-      <c r="B80" s="53">
+      <c r="B80" s="52">
         <f>'Нормировка и расчет'!AJ121</f>
-        <v>32.288074427073511</v>
+        <v>32.31965119716957</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="53" t="str">
+      <c r="A81" s="52" t="str">
         <f>'Нормировка и расчет'!A126</f>
         <v>Республика Дагестан</v>
       </c>
-      <c r="B81" s="53">
+      <c r="B81" s="52">
         <f>'Нормировка и расчет'!AJ126</f>
-        <v>33.849472709536379</v>
+        <v>33.878821871134207</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="53" t="str">
+      <c r="A82" s="52" t="str">
         <f>'Нормировка и расчет'!A129</f>
         <v>Карачаево-Черкесская Республика</v>
       </c>
-      <c r="B82" s="53">
+      <c r="B82" s="52">
         <f>'Нормировка и расчет'!AJ129</f>
-        <v>37.204933840893666</v>
+        <v>37.253994276112394</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="53" t="str">
+      <c r="A83" s="52" t="str">
         <f>'Нормировка и расчет'!A127</f>
         <v>Республика Ингушетия</v>
       </c>
-      <c r="B83" s="53">
+      <c r="B83" s="52">
         <f>'Нормировка и расчет'!AJ127</f>
-        <v>44.032928362014978</v>
+        <v>43.951187988397081</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="str">
+      <c r="A84" s="52" t="str">
         <f>'Нормировка и расчет'!A131</f>
         <v>Чеченская Республика</v>
       </c>
-      <c r="B84" s="53">
+      <c r="B84" s="52">
         <f>'Нормировка и расчет'!AJ131</f>
-        <v>59.865590899537906</v>
+        <v>59.90608506796665</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="53" t="str">
+      <c r="A85" s="52" t="str">
         <f>'Нормировка и расчет'!A152</f>
         <v>Республика Алтай</v>
       </c>
-      <c r="B85" s="53">
+      <c r="B85" s="52">
         <f>'Нормировка и расчет'!AJ152</f>
-        <v>71.32147911326102</v>
+        <v>71.36905611189087</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B85">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -64177,112 +64194,112 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67" t="s">
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
     </row>
     <row r="2" spans="1:35" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="62"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
       <c r="AB2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AC2" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="61" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
       <c r="AI2" s="16" t="s">
         <v>112</v>
       </c>
@@ -65570,7 +65587,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>151</v>
       </c>
       <c r="B15" s="45">
@@ -65677,153 +65694,148 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <f t="shared" ref="B16:AI16" si="0">AVERAGE(B4:B14)</f>
         <v>326.29090909090905</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <f t="shared" si="0"/>
         <v>2000.3181818181818</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="55">
         <f t="shared" si="0"/>
         <v>17.527272727272727</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <f t="shared" si="0"/>
         <v>25.454545454545453</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="55">
         <f t="shared" si="0"/>
         <v>76.363636363636374</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="55">
         <f t="shared" si="0"/>
         <v>23.63636363636364</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="55">
         <f t="shared" si="0"/>
         <v>111.81818181818181</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="55">
         <f t="shared" si="0"/>
         <v>149.17272727272729</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="55">
         <f t="shared" si="0"/>
         <v>199.27272727272728</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="55">
         <f t="shared" si="0"/>
         <v>321.04763636363634</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="55">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="55">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="55">
         <f t="shared" si="0"/>
         <v>6.0636363636363626</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="55">
         <f t="shared" si="0"/>
         <v>579.18593007891548</v>
       </c>
-      <c r="P16" s="56">
+      <c r="P16" s="55">
         <f t="shared" si="0"/>
         <v>4935.257423664807</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="55">
         <f t="shared" si="0"/>
         <v>1081.6367649017802</v>
       </c>
-      <c r="R16" s="56">
+      <c r="R16" s="55">
         <f t="shared" si="0"/>
         <v>833.84443526221628</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="55">
         <f t="shared" si="0"/>
         <v>615.4417087116916</v>
       </c>
-      <c r="T16" s="56">
+      <c r="T16" s="55">
         <f t="shared" si="0"/>
         <v>547.19080595153332</v>
       </c>
-      <c r="U16" s="56">
+      <c r="U16" s="55">
         <f t="shared" si="0"/>
         <v>377.59542341230923</v>
       </c>
-      <c r="V16" s="56">
+      <c r="V16" s="55">
         <f t="shared" si="0"/>
         <v>797.65801885191934</v>
       </c>
-      <c r="W16" s="56">
+      <c r="W16" s="55">
         <f t="shared" si="0"/>
         <v>951.31816315862841</v>
       </c>
-      <c r="X16" s="56">
+      <c r="X16" s="55">
         <f t="shared" si="0"/>
         <v>309.77481557684575</v>
       </c>
-      <c r="Y16" s="56">
+      <c r="Y16" s="55">
         <f t="shared" si="0"/>
         <v>489.75679510426875</v>
       </c>
-      <c r="Z16" s="56">
+      <c r="Z16" s="55">
         <f t="shared" si="0"/>
         <v>307.13636704997452</v>
       </c>
-      <c r="AA16" s="56">
+      <c r="AA16" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="56">
+      <c r="AB16" s="55">
         <f t="shared" si="0"/>
         <v>29.03248849701798</v>
       </c>
-      <c r="AC16" s="56">
+      <c r="AC16" s="55">
         <f t="shared" si="0"/>
         <v>2967.6454545454549</v>
       </c>
-      <c r="AD16" s="56">
+      <c r="AD16" s="55">
         <f t="shared" si="0"/>
         <v>407.87272727272739</v>
       </c>
-      <c r="AE16" s="56">
+      <c r="AE16" s="55">
         <f t="shared" si="0"/>
         <v>234.90909090909091</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AF16" s="55">
         <f t="shared" si="0"/>
         <v>740.72727272727275</v>
       </c>
-      <c r="AG16" s="56">
+      <c r="AG16" s="55">
         <f t="shared" si="0"/>
         <v>21.821414050413072</v>
       </c>
-      <c r="AH16" s="56">
+      <c r="AH16" s="55">
         <f t="shared" si="0"/>
         <v>24.698598823179655</v>
       </c>
-      <c r="AI16" s="56">
+      <c r="AI16" s="55">
         <f t="shared" si="0"/>
         <v>1797.909090909091</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="O2:AA2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -65832,6 +65844,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
